--- a/outputs-HGR-r202/o__Veillonellales.xlsx
+++ b/outputs-HGR-r202/o__Veillonellales.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G275"/>
+  <dimension ref="A1:H275"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,6 +470,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -497,6 +502,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -524,6 +534,11 @@
           <t>f__Megasphaeraceae</t>
         </is>
       </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>f__Megasphaeraceae</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -551,6 +566,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -578,6 +598,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -605,6 +630,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -632,6 +662,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -659,6 +694,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -686,6 +726,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -713,6 +758,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -740,6 +790,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -767,6 +822,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -794,6 +854,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -821,6 +886,11 @@
           <t>f__Dialisteraceae</t>
         </is>
       </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>f__Dialisteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -848,6 +918,11 @@
           <t>f__Megasphaeraceae</t>
         </is>
       </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>f__Megasphaeraceae</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -875,6 +950,11 @@
           <t>f__Megasphaeraceae</t>
         </is>
       </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>f__Megasphaeraceae</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -902,6 +982,11 @@
           <t>f__Megasphaeraceae</t>
         </is>
       </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>f__Megasphaeraceae</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -929,6 +1014,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -956,6 +1046,11 @@
           <t>f__Megasphaeraceae</t>
         </is>
       </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>f__Megasphaeraceae</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -983,6 +1078,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1010,6 +1110,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1037,6 +1142,11 @@
           <t>f__Megasphaeraceae</t>
         </is>
       </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>f__Megasphaeraceae</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1064,6 +1174,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1091,6 +1206,11 @@
           <t>f__Megasphaeraceae</t>
         </is>
       </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>f__Megasphaeraceae</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1118,6 +1238,11 @@
           <t>f__Megasphaeraceae</t>
         </is>
       </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>f__Megasphaeraceae</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1145,6 +1270,11 @@
           <t>f__Megasphaeraceae</t>
         </is>
       </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>f__Megasphaeraceae</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1172,6 +1302,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1199,6 +1334,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1226,6 +1366,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1253,6 +1398,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1280,6 +1430,11 @@
           <t>f__Megasphaeraceae</t>
         </is>
       </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>f__Megasphaeraceae</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1307,6 +1462,11 @@
           <t>f__Megasphaeraceae</t>
         </is>
       </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>f__Megasphaeraceae</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1334,6 +1494,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1361,6 +1526,11 @@
           <t>f__Megasphaeraceae</t>
         </is>
       </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>f__Megasphaeraceae</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1388,6 +1558,11 @@
           <t>f__Megasphaeraceae</t>
         </is>
       </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>f__Megasphaeraceae</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1415,6 +1590,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1442,6 +1622,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1469,6 +1654,11 @@
           <t>f__Megasphaeraceae</t>
         </is>
       </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>f__Megasphaeraceae</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1496,6 +1686,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1523,6 +1718,11 @@
           <t>f__Megasphaeraceae</t>
         </is>
       </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>f__Megasphaeraceae</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1550,6 +1750,11 @@
           <t>f__Megasphaeraceae</t>
         </is>
       </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>f__Megasphaeraceae</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1577,6 +1782,11 @@
           <t>f__Megasphaeraceae</t>
         </is>
       </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>f__Megasphaeraceae</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1604,6 +1814,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -1631,6 +1846,11 @@
           <t>f__Megasphaeraceae</t>
         </is>
       </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>f__Megasphaeraceae</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -1658,6 +1878,11 @@
           <t>f__Megasphaeraceae</t>
         </is>
       </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>f__Megasphaeraceae</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -1685,6 +1910,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -1712,6 +1942,11 @@
           <t>f__Megasphaeraceae</t>
         </is>
       </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>f__Megasphaeraceae</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -1739,6 +1974,11 @@
           <t>f__Megasphaeraceae</t>
         </is>
       </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>f__Megasphaeraceae</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -1766,6 +2006,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -1793,6 +2038,11 @@
           <t>f__Megasphaeraceae</t>
         </is>
       </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>f__Megasphaeraceae</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -1820,6 +2070,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -1847,6 +2102,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -1874,6 +2134,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -1901,6 +2166,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
@@ -1928,6 +2198,11 @@
           <t>f__Megasphaeraceae</t>
         </is>
       </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>f__Megasphaeraceae</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -1955,6 +2230,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
@@ -1982,6 +2262,11 @@
           <t>f__Megasphaeraceae</t>
         </is>
       </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>f__Megasphaeraceae</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -2009,6 +2294,11 @@
           <t>f__Megasphaeraceae</t>
         </is>
       </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>f__Megasphaeraceae</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
@@ -2036,6 +2326,11 @@
           <t>f__Dialisteraceae</t>
         </is>
       </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>f__Dialisteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
@@ -2063,6 +2358,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
@@ -2090,6 +2390,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
@@ -2117,6 +2422,11 @@
           <t>f__Megasphaeraceae</t>
         </is>
       </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>f__Megasphaeraceae</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
@@ -2144,6 +2454,11 @@
           <t>f__Megasphaeraceae</t>
         </is>
       </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>f__Megasphaeraceae</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
@@ -2171,6 +2486,11 @@
           <t>f__Megasphaeraceae</t>
         </is>
       </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>f__Megasphaeraceae</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
@@ -2198,6 +2518,11 @@
           <t>f__Megasphaeraceae</t>
         </is>
       </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>f__Megasphaeraceae</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
@@ -2225,6 +2550,11 @@
           <t>f__Megasphaeraceae</t>
         </is>
       </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>f__Megasphaeraceae</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
@@ -2252,6 +2582,11 @@
           <t>f__Megasphaeraceae</t>
         </is>
       </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>f__Megasphaeraceae</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
@@ -2279,6 +2614,11 @@
           <t>f__Megasphaeraceae</t>
         </is>
       </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>f__Megasphaeraceae</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
@@ -2306,6 +2646,11 @@
           <t>f__Megasphaeraceae</t>
         </is>
       </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>f__Megasphaeraceae</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
@@ -2333,6 +2678,11 @@
           <t>f__Megasphaeraceae</t>
         </is>
       </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>f__Megasphaeraceae</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
@@ -2360,6 +2710,11 @@
           <t>f__Megasphaeraceae</t>
         </is>
       </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>f__Megasphaeraceae</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
@@ -2387,6 +2742,11 @@
           <t>f__Dialisteraceae</t>
         </is>
       </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>f__Dialisteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
@@ -2414,6 +2774,11 @@
           <t>f__Dialisteraceae</t>
         </is>
       </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>f__Dialisteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
@@ -2441,6 +2806,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
@@ -2468,6 +2838,11 @@
           <t>f__Dialisteraceae</t>
         </is>
       </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>f__Dialisteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
@@ -2495,6 +2870,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
@@ -2522,6 +2902,11 @@
           <t>f__Megasphaeraceae</t>
         </is>
       </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>f__Megasphaeraceae</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
@@ -2549,6 +2934,11 @@
           <t>f__Megasphaeraceae</t>
         </is>
       </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>f__Megasphaeraceae</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
@@ -2576,6 +2966,11 @@
           <t>f__Dialisteraceae</t>
         </is>
       </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>f__Dialisteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
@@ -2603,6 +2998,11 @@
           <t>f__Megasphaeraceae</t>
         </is>
       </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>f__Megasphaeraceae</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
@@ -2630,6 +3030,11 @@
           <t>f__Megasphaeraceae</t>
         </is>
       </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>f__Megasphaeraceae</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
@@ -2657,6 +3062,11 @@
           <t>f__Megasphaeraceae</t>
         </is>
       </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>f__Megasphaeraceae</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
@@ -2684,6 +3094,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
@@ -2711,6 +3126,11 @@
           <t>f__Megasphaeraceae</t>
         </is>
       </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>f__Megasphaeraceae</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
@@ -2738,6 +3158,11 @@
           <t>f__Dialisteraceae</t>
         </is>
       </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>f__Dialisteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
@@ -2765,6 +3190,11 @@
           <t>f__Megasphaeraceae</t>
         </is>
       </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>f__Megasphaeraceae</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
@@ -2792,6 +3222,11 @@
           <t>f__Megasphaeraceae</t>
         </is>
       </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>f__Megasphaeraceae</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
@@ -2819,6 +3254,11 @@
           <t>f__Dialisteraceae</t>
         </is>
       </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>f__Dialisteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
@@ -2846,6 +3286,11 @@
           <t>f__Megasphaeraceae</t>
         </is>
       </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>f__Megasphaeraceae</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
@@ -2873,6 +3318,11 @@
           <t>f__Megasphaeraceae</t>
         </is>
       </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>f__Megasphaeraceae</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
@@ -2900,6 +3350,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
@@ -2927,6 +3382,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
@@ -2954,6 +3414,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
@@ -2981,6 +3446,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
@@ -3008,6 +3478,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
@@ -3035,6 +3510,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
@@ -3062,6 +3542,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
@@ -3089,6 +3574,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
@@ -3116,6 +3606,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
@@ -3143,6 +3638,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
@@ -3170,6 +3670,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
@@ -3197,6 +3702,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
@@ -3224,6 +3734,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
@@ -3251,6 +3766,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
@@ -3278,6 +3798,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
@@ -3305,6 +3830,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
@@ -3332,6 +3862,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
@@ -3359,6 +3894,11 @@
           <t>f__Megasphaeraceae</t>
         </is>
       </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>f__Megasphaeraceae</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
@@ -3386,6 +3926,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
@@ -3413,6 +3958,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
@@ -3440,6 +3990,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
@@ -3467,6 +4022,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
@@ -3494,6 +4054,11 @@
           <t>f__Megasphaeraceae</t>
         </is>
       </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>f__Megasphaeraceae(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
@@ -3521,6 +4086,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
@@ -3548,6 +4118,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
@@ -3575,6 +4150,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
@@ -3602,6 +4182,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
@@ -3629,6 +4214,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
@@ -3656,6 +4246,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
@@ -3683,6 +4278,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
@@ -3710,6 +4310,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
@@ -3737,6 +4342,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
@@ -3764,6 +4374,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
@@ -3791,6 +4406,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
@@ -3818,6 +4438,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
@@ -3845,6 +4470,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
@@ -3872,6 +4502,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
@@ -3899,6 +4534,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
@@ -3926,6 +4566,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
@@ -3953,6 +4598,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
@@ -3980,6 +4630,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
@@ -4007,6 +4662,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
@@ -4034,6 +4694,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
@@ -4061,6 +4726,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
@@ -4088,6 +4758,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
@@ -4115,6 +4790,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
@@ -4142,6 +4822,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
@@ -4169,6 +4854,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
@@ -4196,6 +4886,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
@@ -4223,6 +4918,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
@@ -4250,6 +4950,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
@@ -4277,6 +4982,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
@@ -4304,6 +5014,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
@@ -4331,6 +5046,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
@@ -4358,6 +5078,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
@@ -4385,6 +5110,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
@@ -4412,6 +5142,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
@@ -4439,6 +5174,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
@@ -4466,6 +5206,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
@@ -4493,6 +5238,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
@@ -4520,6 +5270,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
@@ -4547,6 +5302,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
@@ -4574,6 +5334,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
@@ -4601,6 +5366,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
@@ -4628,6 +5398,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
@@ -4655,6 +5430,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
@@ -4682,6 +5462,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
@@ -4709,6 +5494,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
@@ -4736,6 +5526,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
@@ -4763,6 +5558,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
@@ -4790,6 +5590,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
@@ -4817,6 +5622,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
@@ -4844,6 +5654,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
@@ -4871,6 +5686,11 @@
           <t>f__Megasphaeraceae</t>
         </is>
       </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>f__Megasphaeraceae</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
@@ -4898,6 +5718,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
@@ -4925,6 +5750,11 @@
           <t>f__Megasphaeraceae</t>
         </is>
       </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>f__Megasphaeraceae</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
@@ -4952,6 +5782,11 @@
           <t>f__Dialisteraceae</t>
         </is>
       </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>f__Dialisteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
@@ -4979,6 +5814,11 @@
           <t>f__Megasphaeraceae</t>
         </is>
       </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>f__Megasphaeraceae</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
@@ -5006,6 +5846,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
@@ -5033,6 +5878,11 @@
           <t>f__Megasphaeraceae</t>
         </is>
       </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>f__Megasphaeraceae</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
@@ -5060,6 +5910,11 @@
           <t>f__Megasphaeraceae</t>
         </is>
       </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>f__Megasphaeraceae</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
@@ -5087,6 +5942,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
@@ -5114,6 +5974,11 @@
           <t>f__Megasphaeraceae</t>
         </is>
       </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>f__Megasphaeraceae</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
@@ -5141,6 +6006,11 @@
           <t>f__Megasphaeraceae</t>
         </is>
       </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>f__Megasphaeraceae</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
@@ -5168,6 +6038,11 @@
           <t>f__Megasphaeraceae</t>
         </is>
       </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>f__Megasphaeraceae</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
@@ -5195,6 +6070,11 @@
           <t>f__Megasphaeraceae</t>
         </is>
       </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>f__Megasphaeraceae</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
@@ -5222,6 +6102,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
@@ -5249,6 +6134,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
@@ -5276,6 +6166,11 @@
           <t>f__Dialisteraceae</t>
         </is>
       </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>f__Dialisteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
@@ -5303,6 +6198,11 @@
           <t>f__Dialisteraceae</t>
         </is>
       </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>f__Dialisteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
@@ -5330,6 +6230,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
@@ -5357,6 +6262,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
@@ -5384,6 +6294,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
@@ -5411,6 +6326,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
@@ -5438,6 +6358,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
@@ -5465,6 +6390,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
@@ -5492,6 +6422,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
@@ -5519,6 +6454,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
@@ -5546,6 +6486,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
@@ -5573,6 +6518,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
@@ -5600,6 +6550,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
@@ -5627,6 +6582,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
@@ -5654,6 +6614,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
@@ -5681,6 +6646,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
@@ -5708,6 +6678,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
@@ -5735,6 +6710,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
@@ -5762,6 +6742,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
@@ -5789,6 +6774,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
@@ -5816,6 +6806,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
@@ -5843,6 +6838,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
@@ -5870,6 +6870,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
@@ -5897,6 +6902,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
@@ -5924,6 +6934,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
@@ -5951,6 +6966,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
@@ -5978,6 +6998,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
@@ -6005,6 +7030,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
@@ -6032,6 +7062,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
@@ -6059,6 +7094,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
@@ -6086,6 +7126,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
@@ -6113,6 +7158,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
@@ -6140,6 +7190,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
@@ -6167,6 +7222,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
@@ -6194,6 +7254,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
@@ -6221,6 +7286,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
@@ -6248,6 +7318,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
@@ -6275,6 +7350,11 @@
           <t>f__Dialisteraceae</t>
         </is>
       </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>f__Dialisteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
@@ -6302,6 +7382,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
@@ -6329,6 +7414,11 @@
           <t>f__Megasphaeraceae</t>
         </is>
       </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>f__Megasphaeraceae</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
@@ -6356,6 +7446,11 @@
           <t>f__Megasphaeraceae</t>
         </is>
       </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>f__Megasphaeraceae</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
@@ -6383,6 +7478,11 @@
           <t>f__Megasphaeraceae</t>
         </is>
       </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>f__Megasphaeraceae</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
@@ -6410,6 +7510,11 @@
           <t>f__Megasphaeraceae</t>
         </is>
       </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>f__Megasphaeraceae</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
@@ -6437,6 +7542,11 @@
           <t>f__Megasphaeraceae</t>
         </is>
       </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>f__Megasphaeraceae</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="inlineStr">
@@ -6464,6 +7574,11 @@
           <t>f__Megasphaeraceae</t>
         </is>
       </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>f__Megasphaeraceae</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="inlineStr">
@@ -6491,6 +7606,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="inlineStr">
@@ -6518,6 +7638,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="inlineStr">
@@ -6545,6 +7670,11 @@
           <t>f__Megasphaeraceae</t>
         </is>
       </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>f__Megasphaeraceae</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="inlineStr">
@@ -6572,6 +7702,11 @@
           <t>f__Megasphaeraceae</t>
         </is>
       </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>f__Megasphaeraceae</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="inlineStr">
@@ -6599,6 +7734,11 @@
           <t>f__Megasphaeraceae</t>
         </is>
       </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>f__Megasphaeraceae</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="inlineStr">
@@ -6626,6 +7766,11 @@
           <t>f__Megasphaeraceae</t>
         </is>
       </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>f__Megasphaeraceae</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="inlineStr">
@@ -6653,6 +7798,11 @@
           <t>f__Megasphaeraceae</t>
         </is>
       </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>f__Megasphaeraceae</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="inlineStr">
@@ -6680,6 +7830,11 @@
           <t>f__Megasphaeraceae</t>
         </is>
       </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>f__Megasphaeraceae</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="inlineStr">
@@ -6707,6 +7862,11 @@
           <t>f__Megasphaeraceae</t>
         </is>
       </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>f__Megasphaeraceae</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="inlineStr">
@@ -6734,6 +7894,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="inlineStr">
@@ -6761,6 +7926,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="inlineStr">
@@ -6788,6 +7958,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="inlineStr">
@@ -6815,6 +7990,11 @@
           <t>f__Megasphaeraceae</t>
         </is>
       </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>f__Megasphaeraceae</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="inlineStr">
@@ -6842,6 +8022,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="inlineStr">
@@ -6869,6 +8054,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="inlineStr">
@@ -6896,6 +8086,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="inlineStr">
@@ -6923,6 +8118,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="inlineStr">
@@ -6950,6 +8150,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="inlineStr">
@@ -6977,6 +8182,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="inlineStr">
@@ -7004,6 +8214,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="inlineStr">
@@ -7031,6 +8246,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="inlineStr">
@@ -7058,6 +8278,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="inlineStr">
@@ -7085,6 +8310,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="inlineStr">
@@ -7112,6 +8342,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="inlineStr">
@@ -7139,6 +8374,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="inlineStr">
@@ -7166,6 +8406,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="inlineStr">
@@ -7193,6 +8438,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="inlineStr">
@@ -7220,6 +8470,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="inlineStr">
@@ -7247,6 +8502,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="inlineStr">
@@ -7274,6 +8534,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="inlineStr">
@@ -7301,6 +8566,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="inlineStr">
@@ -7328,6 +8598,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="inlineStr">
@@ -7355,6 +8630,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="inlineStr">
@@ -7382,6 +8662,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="inlineStr">
@@ -7409,6 +8694,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="inlineStr">
@@ -7436,6 +8726,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="inlineStr">
@@ -7463,6 +8758,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="inlineStr">
@@ -7490,6 +8790,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="inlineStr">
@@ -7517,6 +8822,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="inlineStr">
@@ -7544,6 +8854,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="inlineStr">
@@ -7571,6 +8886,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="inlineStr">
@@ -7598,6 +8918,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="inlineStr">
@@ -7625,6 +8950,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="inlineStr">
@@ -7652,6 +8982,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="inlineStr">
@@ -7679,6 +9014,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="inlineStr">
@@ -7706,6 +9046,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="inlineStr">
@@ -7733,6 +9078,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H270" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="inlineStr">
@@ -7760,6 +9110,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="inlineStr">
@@ -7787,6 +9142,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H272" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="inlineStr">
@@ -7814,6 +9174,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H273" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="inlineStr">
@@ -7841,6 +9206,11 @@
           <t>f__Veillonellaceae</t>
         </is>
       </c>
+      <c r="H274" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="inlineStr">
@@ -7864,6 +9234,11 @@
         <v>0.9998265703286692</v>
       </c>
       <c r="G275" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+      <c r="H275" t="inlineStr">
         <is>
           <t>f__Veillonellaceae</t>
         </is>

--- a/outputs-HGR-r202/o__Veillonellales.xlsx
+++ b/outputs-HGR-r202/o__Veillonellales.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H262"/>
+  <dimension ref="A1:H273"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -607,23 +607,23 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT11020.fa</t>
+          <t>even_MAG-GUT10593.fa</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.883151349111337e-05</v>
+        <v>0.0001382956306556117</v>
       </c>
       <c r="C6" t="n">
-        <v>3.999442101164722e-05</v>
+        <v>0.001021130866859206</v>
       </c>
       <c r="D6" t="n">
-        <v>2.220408498961315e-14</v>
+        <v>1.143224321171459e-10</v>
       </c>
       <c r="E6" t="n">
-        <v>0.999931174065475</v>
+        <v>0.9988405733881627</v>
       </c>
       <c r="F6" t="n">
-        <v>0.999931174065475</v>
+        <v>0.9988405733881627</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -639,23 +639,23 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1198.fa</t>
+          <t>even_MAG-GUT11020.fa</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.041772900861024e-05</v>
+        <v>2.883151349111337e-05</v>
       </c>
       <c r="C7" t="n">
-        <v>3.428809007858322e-05</v>
+        <v>3.999442101164722e-05</v>
       </c>
       <c r="D7" t="n">
-        <v>2.220399554153439e-14</v>
+        <v>2.220408498961315e-14</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9999152941808906</v>
+        <v>0.999931174065475</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9999152941808906</v>
+        <v>0.999931174065475</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -671,23 +671,23 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1206.fa</t>
+          <t>even_MAG-GUT1198.fa</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.521663069724022e-05</v>
+        <v>5.041772900861024e-05</v>
       </c>
       <c r="C8" t="n">
-        <v>6.185367446307081e-05</v>
+        <v>3.428809007858322e-05</v>
       </c>
       <c r="D8" t="n">
-        <v>2.220377011160967e-14</v>
+        <v>2.220399554153439e-14</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9998729296948176</v>
+        <v>0.9999152941808906</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9998729296948176</v>
+        <v>0.9999152941808906</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -703,7 +703,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1212.fa</t>
+          <t>even_MAG-GUT1206.fa</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -735,23 +735,23 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1217.fa</t>
+          <t>even_MAG-GUT1212.fa</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.299132184194543e-05</v>
+        <v>6.521663069724022e-05</v>
       </c>
       <c r="C10" t="n">
-        <v>3.915844895657297e-05</v>
+        <v>6.185367446307081e-05</v>
       </c>
       <c r="D10" t="n">
-        <v>2.220417199187915e-14</v>
+        <v>2.220377011160967e-14</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9999478502291792</v>
+        <v>0.9998729296948176</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9999478502291792</v>
+        <v>0.9998729296948176</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -767,23 +767,23 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1227.fa</t>
+          <t>even_MAG-GUT1217.fa</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6.521663069724022e-05</v>
+        <v>1.299132184194543e-05</v>
       </c>
       <c r="C11" t="n">
-        <v>6.185367446307081e-05</v>
+        <v>3.915844895657297e-05</v>
       </c>
       <c r="D11" t="n">
-        <v>2.220377011160967e-14</v>
+        <v>2.220417199187915e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9998729296948176</v>
+        <v>0.9999478502291792</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9998729296948176</v>
+        <v>0.9999478502291792</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -799,23 +799,23 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1232.fa</t>
+          <t>even_MAG-GUT1227.fa</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9.076771437808626e-05</v>
+        <v>6.521663069724022e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>1.89787330318328e-05</v>
+        <v>6.185367446307081e-05</v>
       </c>
       <c r="D12" t="n">
-        <v>2.220385455333401e-14</v>
+        <v>2.220377011160967e-14</v>
       </c>
       <c r="E12" t="n">
-        <v>0.999890253552568</v>
+        <v>0.9998729296948176</v>
       </c>
       <c r="F12" t="n">
-        <v>0.999890253552568</v>
+        <v>0.9998729296948176</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -831,55 +831,55 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT13227.fa</t>
+          <t>even_MAG-GUT1232.fa</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>5.052491780670943e-06</v>
+        <v>9.076771437808626e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9999949474133122</v>
+        <v>1.89787330318328e-05</v>
       </c>
       <c r="D13" t="n">
-        <v>2.220443399372857e-14</v>
+        <v>2.220385455333401e-14</v>
       </c>
       <c r="E13" t="n">
-        <v>9.488491339636771e-11</v>
+        <v>0.999890253552568</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9999949474133122</v>
+        <v>0.999890253552568</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>f__Megasphaeraceae</t>
+          <t>f__Veillonellaceae</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>f__Megasphaeraceae</t>
+          <t>f__Veillonellaceae</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT13322.fa</t>
+          <t>even_MAG-GUT13227.fa</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.152631385734903e-06</v>
+        <v>5.052491780670943e-06</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9999981060341799</v>
+        <v>0.9999949474133122</v>
       </c>
       <c r="D14" t="n">
-        <v>2.220445032176538e-14</v>
+        <v>2.220443399372857e-14</v>
       </c>
       <c r="E14" t="n">
-        <v>7.413344121803648e-07</v>
+        <v>9.488491339636771e-11</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9999981060341799</v>
+        <v>0.9999949474133122</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -895,23 +895,23 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT13342.fa</t>
+          <t>even_MAG-GUT13322.fa</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.383810627710816e-06</v>
+        <v>1.152631385734903e-06</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9999986158514905</v>
+        <v>0.9999981060341799</v>
       </c>
       <c r="D15" t="n">
-        <v>2.220445380763733e-14</v>
+        <v>2.220445032176538e-14</v>
       </c>
       <c r="E15" t="n">
-        <v>3.378593102978738e-10</v>
+        <v>7.413344121803648e-07</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9999986158514905</v>
+        <v>0.9999981060341799</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -927,119 +927,119 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1355.fa</t>
+          <t>even_MAG-GUT13342.fa</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>5.968852775036987e-05</v>
+        <v>1.383810627710816e-06</v>
       </c>
       <c r="C16" t="n">
-        <v>2.669532362947239e-06</v>
+        <v>0.9999986158514905</v>
       </c>
       <c r="D16" t="n">
-        <v>2.220412050390174e-14</v>
+        <v>2.220445380763733e-14</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9999376419398646</v>
+        <v>3.378593102978738e-10</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9999376419398646</v>
+        <v>0.9999986158514905</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>f__Veillonellaceae</t>
+          <t>f__Megasphaeraceae</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>f__Veillonellaceae</t>
+          <t>f__Megasphaeraceae</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT13749.fa</t>
+          <t>even_MAG-GUT1355.fa</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.030579329986105e-06</v>
+        <v>5.968852775036987e-05</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9999989691137613</v>
+        <v>2.669532362947239e-06</v>
       </c>
       <c r="D17" t="n">
-        <v>2.220445595753708e-14</v>
+        <v>2.220412050390174e-14</v>
       </c>
       <c r="E17" t="n">
-        <v>3.068865167296351e-10</v>
+        <v>0.9999376419398646</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9999989691137613</v>
+        <v>0.9999376419398646</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>f__Megasphaeraceae</t>
+          <t>f__Veillonellaceae</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>f__Megasphaeraceae</t>
+          <t>f__Veillonellaceae</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT13830.fa</t>
+          <t>even_MAG-GUT13749.fa</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>8.645524485930214e-05</v>
+        <v>1.030579329986105e-06</v>
       </c>
       <c r="C18" t="n">
-        <v>2.363270164194537e-05</v>
+        <v>0.9999989691137613</v>
       </c>
       <c r="D18" t="n">
-        <v>2.220386240718899e-14</v>
+        <v>2.220445595753708e-14</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9998899120534765</v>
+        <v>3.068865167296351e-10</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9998899120534765</v>
+        <v>0.9999989691137613</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>f__Veillonellaceae</t>
+          <t>f__Megasphaeraceae</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>f__Veillonellaceae</t>
+          <t>f__Megasphaeraceae</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT13999.fa</t>
+          <t>even_MAG-GUT13830.fa</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>6.647239464661313e-05</v>
+        <v>8.645524485930214e-05</v>
       </c>
       <c r="C19" t="n">
-        <v>1.195670318825301e-05</v>
+        <v>2.363270164194537e-05</v>
       </c>
       <c r="D19" t="n">
-        <v>2.220403129333341e-14</v>
+        <v>2.220386240718899e-14</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9999215709021428</v>
+        <v>0.9998899120534765</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9999215709021428</v>
+        <v>0.9998899120534765</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1055,119 +1055,119 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT14159.fa</t>
+          <t>even_MAG-GUT13999.fa</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.799490194552292e-05</v>
+        <v>6.647239464661313e-05</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9999715439591189</v>
+        <v>1.195670318825301e-05</v>
       </c>
       <c r="D20" t="n">
-        <v>2.220430934042373e-14</v>
+        <v>2.220403129333341e-14</v>
       </c>
       <c r="E20" t="n">
-        <v>4.611389133481125e-07</v>
+        <v>0.9999215709021428</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9999715439591189</v>
+        <v>0.9999215709021428</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>f__Megasphaeraceae</t>
+          <t>f__Veillonellaceae</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>f__Megasphaeraceae</t>
+          <t>f__Veillonellaceae</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1470.fa</t>
+          <t>even_MAG-GUT14159.fa</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>9.773758979931823e-06</v>
+        <v>2.799490194552292e-05</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0001448159738377853</v>
+        <v>0.9999715439591189</v>
       </c>
       <c r="D21" t="n">
-        <v>2.220362817578084e-14</v>
+        <v>2.220430934042373e-14</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9998454102671601</v>
+        <v>4.611389133481125e-07</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9998454102671601</v>
+        <v>0.9999715439591189</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>f__Veillonellaceae</t>
+          <t>f__Megasphaeraceae</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>f__Veillonellaceae</t>
+          <t>f__Megasphaeraceae</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT15061.fa</t>
+          <t>even_MAG-GUT1470.fa</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>6.549702053178386e-06</v>
+        <v>9.773758979931823e-06</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9999934501448322</v>
+        <v>0.0001448159738377853</v>
       </c>
       <c r="D22" t="n">
-        <v>2.22044251894499e-14</v>
+        <v>2.220362817578084e-14</v>
       </c>
       <c r="E22" t="n">
-        <v>1.530922995876333e-10</v>
+        <v>0.9998454102671601</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9999934501448322</v>
+        <v>0.9998454102671601</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>f__Megasphaeraceae</t>
+          <t>f__Veillonellaceae</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>f__Megasphaeraceae</t>
+          <t>f__Veillonellaceae</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT15089.fa</t>
+          <t>even_MAG-GUT15061.fa</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>8.757308141435298e-06</v>
+        <v>6.549702053178386e-06</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9999912426720843</v>
+        <v>0.9999934501448322</v>
       </c>
       <c r="D23" t="n">
-        <v>2.220441241934527e-14</v>
+        <v>2.22044251894499e-14</v>
       </c>
       <c r="E23" t="n">
-        <v>1.97522256035309e-11</v>
+        <v>1.530922995876333e-10</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9999912426720843</v>
+        <v>0.9999934501448322</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1183,23 +1183,23 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT15427.fa</t>
+          <t>even_MAG-GUT15089.fa</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>7.817110391323171e-06</v>
+        <v>8.757308141435298e-06</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9999921825916054</v>
+        <v>0.9999912426720843</v>
       </c>
       <c r="D24" t="n">
-        <v>2.220442346985645e-14</v>
+        <v>2.220441241934527e-14</v>
       </c>
       <c r="E24" t="n">
-        <v>2.979810878486898e-10</v>
+        <v>1.97522256035309e-11</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9999921825916054</v>
+        <v>0.9999912426720843</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1215,55 +1215,55 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1556.fa</t>
+          <t>even_MAG-GUT15427.fa</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.0001069784382325646</v>
+        <v>7.817110391323171e-06</v>
       </c>
       <c r="C25" t="n">
-        <v>4.125122581545603e-05</v>
+        <v>0.9999921825916054</v>
       </c>
       <c r="D25" t="n">
-        <v>2.220366099991579e-14</v>
+        <v>2.220442346985645e-14</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9998517703359299</v>
+        <v>2.979810878486898e-10</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9998517703359299</v>
+        <v>0.9999921825916054</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>f__Veillonellaceae</t>
+          <t>f__Megasphaeraceae</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>f__Veillonellaceae</t>
+          <t>f__Megasphaeraceae</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1559.fa</t>
+          <t>even_MAG-GUT1556.fa</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>9.768543873437083e-05</v>
+        <v>0.0001069784382325646</v>
       </c>
       <c r="C26" t="n">
-        <v>3.017882057625021e-05</v>
+        <v>4.125122581545603e-05</v>
       </c>
       <c r="D26" t="n">
-        <v>2.220377508071428e-14</v>
+        <v>2.220366099991579e-14</v>
       </c>
       <c r="E26" t="n">
-        <v>0.999872135740667</v>
+        <v>0.9998517703359299</v>
       </c>
       <c r="F26" t="n">
-        <v>0.999872135740667</v>
+        <v>0.9998517703359299</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1279,23 +1279,23 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT15797.fa</t>
+          <t>even_MAG-GUT1559.fa</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>5.310998448614205e-05</v>
+        <v>9.768543873437083e-05</v>
       </c>
       <c r="C27" t="n">
-        <v>8.737584882917661e-05</v>
+        <v>3.017882057625021e-05</v>
       </c>
       <c r="D27" t="n">
-        <v>2.220370601318073e-14</v>
+        <v>2.220377508071428e-14</v>
       </c>
       <c r="E27" t="n">
-        <v>0.9998595141666624</v>
+        <v>0.999872135740667</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9998595141666624</v>
+        <v>0.999872135740667</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1311,23 +1311,23 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1584.fa</t>
+          <t>even_MAG-GUT15797.fa</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>8.345015719871454e-05</v>
+        <v>5.310998448614205e-05</v>
       </c>
       <c r="C28" t="n">
-        <v>1.34038016215056e-06</v>
+        <v>8.737584882917661e-05</v>
       </c>
       <c r="D28" t="n">
-        <v>2.220399988565746e-14</v>
+        <v>2.220370601318073e-14</v>
       </c>
       <c r="E28" t="n">
-        <v>0.9999152094626168</v>
+        <v>0.9998595141666624</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9999152094626168</v>
+        <v>0.9998595141666624</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1343,55 +1343,55 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT16129.fa</t>
+          <t>even_MAG-GUT1584.fa</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>4.221044432508777e-07</v>
+        <v>8.345015719871454e-05</v>
       </c>
       <c r="C29" t="n">
-        <v>0.9999995776945978</v>
+        <v>1.34038016215056e-06</v>
       </c>
       <c r="D29" t="n">
-        <v>2.220445830544116e-14</v>
+        <v>2.220399988565746e-14</v>
       </c>
       <c r="E29" t="n">
-        <v>2.009368252091865e-10</v>
+        <v>0.9999152094626168</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9999995776945978</v>
+        <v>0.9999152094626168</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>f__Megasphaeraceae</t>
+          <t>f__Veillonellaceae</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>f__Megasphaeraceae</t>
+          <t>f__Veillonellaceae</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT16712.fa</t>
+          <t>even_MAG-GUT16129.fa</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>5.463864121468974e-07</v>
+        <v>4.221044432508777e-07</v>
       </c>
       <c r="C30" t="n">
-        <v>0.9999994536113297</v>
+        <v>0.9999995776945978</v>
       </c>
       <c r="D30" t="n">
-        <v>2.220445750368108e-14</v>
+        <v>2.220445830544116e-14</v>
       </c>
       <c r="E30" t="n">
-        <v>2.236010963151053e-12</v>
+        <v>2.009368252091865e-10</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9999994536113297</v>
+        <v>0.9999995776945978</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1407,87 +1407,87 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT17170.fa</t>
+          <t>even_MAG-GUT16712.fa</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.000129769044348986</v>
+        <v>5.463864121468974e-07</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0001115707968774819</v>
+        <v>0.9999994536113297</v>
       </c>
       <c r="D31" t="n">
-        <v>2.220317726015458e-14</v>
+        <v>2.220445750368108e-14</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9997586601587514</v>
+        <v>2.236010963151053e-12</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9997586601587514</v>
+        <v>0.9999994536113297</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>f__Veillonellaceae</t>
+          <t>f__Megasphaeraceae</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>f__Veillonellaceae</t>
+          <t>f__Megasphaeraceae</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT17254.fa</t>
+          <t>even_MAG-GUT17170.fa</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>6.328464629531295e-07</v>
+        <v>0.000129769044348986</v>
       </c>
       <c r="C32" t="n">
-        <v>0.9999993670379118</v>
+        <v>0.0001115707968774819</v>
       </c>
       <c r="D32" t="n">
-        <v>2.220445719985269e-14</v>
+        <v>2.220317726015458e-14</v>
       </c>
       <c r="E32" t="n">
-        <v>1.15603034543991e-10</v>
+        <v>0.9997586601587514</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9999993670379118</v>
+        <v>0.9997586601587514</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>f__Megasphaeraceae</t>
+          <t>f__Veillonellaceae</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>f__Megasphaeraceae</t>
+          <t>f__Veillonellaceae</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT17401.fa</t>
+          <t>even_MAG-GUT17254.fa</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1.048198515367485e-06</v>
+        <v>6.328464629531295e-07</v>
       </c>
       <c r="C33" t="n">
-        <v>0.999998951732412</v>
+        <v>0.9999993670379118</v>
       </c>
       <c r="D33" t="n">
-        <v>2.220445501044488e-14</v>
+        <v>2.220445719985269e-14</v>
       </c>
       <c r="E33" t="n">
-        <v>6.905024183249168e-11</v>
+        <v>1.15603034543991e-10</v>
       </c>
       <c r="F33" t="n">
-        <v>0.999998951732412</v>
+        <v>0.9999993670379118</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1503,55 +1503,55 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT17664.fa</t>
+          <t>even_MAG-GUT17401.fa</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>7.428930546076376e-05</v>
+        <v>1.048198515367485e-06</v>
       </c>
       <c r="C34" t="n">
-        <v>5.103732421330272e-05</v>
+        <v>0.999998951732412</v>
       </c>
       <c r="D34" t="n">
-        <v>2.220377982122651e-14</v>
+        <v>2.220445501044488e-14</v>
       </c>
       <c r="E34" t="n">
-        <v>0.9998746733703037</v>
+        <v>6.905024183249168e-11</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9998746733703037</v>
+        <v>0.999998951732412</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>f__Veillonellaceae</t>
+          <t>f__Megasphaeraceae</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>f__Veillonellaceae</t>
+          <t>f__Megasphaeraceae</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT17671.fa</t>
+          <t>even_MAG-GUT17664.fa</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>5.08535016507147e-05</v>
+        <v>7.428930546076376e-05</v>
       </c>
       <c r="C35" t="n">
-        <v>4.821040101218293e-05</v>
+        <v>5.103732421330272e-05</v>
       </c>
       <c r="D35" t="n">
-        <v>2.220398306851884e-14</v>
+        <v>2.220377982122651e-14</v>
       </c>
       <c r="E35" t="n">
-        <v>0.9999009360973149</v>
+        <v>0.9998746733703037</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9999009360973149</v>
+        <v>0.9998746733703037</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1567,119 +1567,119 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT18233.fa</t>
+          <t>even_MAG-GUT17671.fa</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>6.29794358776241e-06</v>
+        <v>5.08535016507147e-05</v>
       </c>
       <c r="C36" t="n">
-        <v>0.999993701948461</v>
+        <v>4.821040101218293e-05</v>
       </c>
       <c r="D36" t="n">
-        <v>2.220442731029869e-14</v>
+        <v>2.220398306851884e-14</v>
       </c>
       <c r="E36" t="n">
-        <v>1.07929040401778e-10</v>
+        <v>0.9999009360973149</v>
       </c>
       <c r="F36" t="n">
-        <v>0.999993701948461</v>
+        <v>0.9999009360973149</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>f__Megasphaeraceae</t>
+          <t>f__Veillonellaceae</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>f__Megasphaeraceae</t>
+          <t>f__Veillonellaceae</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1840.fa</t>
+          <t>even_MAG-GUT18233.fa</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4.682182811265573e-05</v>
+        <v>6.29794358776241e-06</v>
       </c>
       <c r="C37" t="n">
-        <v>6.111949300470961e-06</v>
+        <v>0.999993701948461</v>
       </c>
       <c r="D37" t="n">
-        <v>2.220417223840185e-14</v>
+        <v>2.220442731029869e-14</v>
       </c>
       <c r="E37" t="n">
-        <v>0.9999470662225647</v>
+        <v>1.07929040401778e-10</v>
       </c>
       <c r="F37" t="n">
-        <v>0.9999470662225647</v>
+        <v>0.999993701948461</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>f__Veillonellaceae</t>
+          <t>f__Megasphaeraceae</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>f__Veillonellaceae</t>
+          <t>f__Megasphaeraceae</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT18785.fa</t>
+          <t>even_MAG-GUT1840.fa</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>4.527553658427951e-06</v>
+        <v>4.682182811265573e-05</v>
       </c>
       <c r="C38" t="n">
-        <v>0.9999954723381193</v>
+        <v>6.111949300470961e-06</v>
       </c>
       <c r="D38" t="n">
-        <v>2.220443686995434e-14</v>
+        <v>2.220417223840185e-14</v>
       </c>
       <c r="E38" t="n">
-        <v>1.082000201824839e-10</v>
+        <v>0.9999470662225647</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9999954723381193</v>
+        <v>0.9999470662225647</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>f__Megasphaeraceae</t>
+          <t>f__Veillonellaceae</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>f__Megasphaeraceae</t>
+          <t>f__Veillonellaceae</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT18897.fa</t>
+          <t>even_MAG-GUT18785.fa</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.0001509363383569852</v>
+        <v>4.527553658427951e-06</v>
       </c>
       <c r="C39" t="n">
-        <v>0.9998490634912709</v>
+        <v>0.9999954723381193</v>
       </c>
       <c r="D39" t="n">
-        <v>2.220364907592647e-14</v>
+        <v>2.220443686995434e-14</v>
       </c>
       <c r="E39" t="n">
-        <v>1.703498628830032e-10</v>
+        <v>1.082000201824839e-10</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9998490634912709</v>
+        <v>0.9999954723381193</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -1695,23 +1695,23 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT18970.fa</t>
+          <t>even_MAG-GUT18897.fa</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3.124761722524459e-06</v>
+        <v>0.0001509363383569852</v>
       </c>
       <c r="C40" t="n">
-        <v>0.9999968748314877</v>
+        <v>0.9998490634912709</v>
       </c>
       <c r="D40" t="n">
-        <v>2.220444359426882e-14</v>
+        <v>2.220364907592647e-14</v>
       </c>
       <c r="E40" t="n">
-        <v>4.067675335935295e-10</v>
+        <v>1.703498628830032e-10</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9999968748314877</v>
+        <v>0.9998490634912709</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -1727,87 +1727,87 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1930.fa</t>
+          <t>even_MAG-GUT18970.fa</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.0001256201263455864</v>
+        <v>3.124761722524459e-06</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0002037489348308511</v>
+        <v>0.9999968748314877</v>
       </c>
       <c r="D41" t="n">
-        <v>2.220268533441713e-14</v>
+        <v>2.220444359426882e-14</v>
       </c>
       <c r="E41" t="n">
-        <v>0.9996706309388015</v>
+        <v>4.067675335935295e-10</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9996706309388015</v>
+        <v>0.9999968748314877</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>f__Veillonellaceae</t>
+          <t>f__Megasphaeraceae</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>f__Veillonellaceae</t>
+          <t>f__Megasphaeraceae</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT19307.fa</t>
+          <t>even_MAG-GUT1930.fa</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2.015296940902943e-05</v>
+        <v>0.0001256201263455864</v>
       </c>
       <c r="C42" t="n">
-        <v>0.9999798468803647</v>
+        <v>0.0002037489348308511</v>
       </c>
       <c r="D42" t="n">
-        <v>2.220435257682367e-14</v>
+        <v>2.220268533441713e-14</v>
       </c>
       <c r="E42" t="n">
-        <v>1.502039949809998e-10</v>
+        <v>0.9996706309388015</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9999798468803647</v>
+        <v>0.9996706309388015</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>f__Megasphaeraceae</t>
+          <t>f__Veillonellaceae</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>f__Megasphaeraceae</t>
+          <t>f__Veillonellaceae</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT19429.fa</t>
+          <t>even_MAG-GUT19307.fa</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>7.620122672082333e-06</v>
+        <v>2.015296940902943e-05</v>
       </c>
       <c r="C43" t="n">
-        <v>0.9999923797576189</v>
+        <v>0.9999798468803647</v>
       </c>
       <c r="D43" t="n">
-        <v>2.220441976000239e-14</v>
+        <v>2.220435257682367e-14</v>
       </c>
       <c r="E43" t="n">
-        <v>1.196866221484467e-10</v>
+        <v>1.502039949809998e-10</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9999923797576189</v>
+        <v>0.9999798468803647</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -1823,87 +1823,87 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1954.fa</t>
+          <t>even_MAG-GUT19429.fa</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>3.735972718199002e-05</v>
+        <v>7.620122672082333e-06</v>
       </c>
       <c r="C44" t="n">
-        <v>4.815123643671298e-06</v>
+        <v>0.9999923797576189</v>
       </c>
       <c r="D44" t="n">
-        <v>2.22042372235781e-14</v>
+        <v>2.220441976000239e-14</v>
       </c>
       <c r="E44" t="n">
-        <v>0.9999578251491522</v>
+        <v>1.196866221484467e-10</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9999578251491522</v>
+        <v>0.9999923797576189</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>f__Veillonellaceae</t>
+          <t>f__Megasphaeraceae</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>f__Veillonellaceae</t>
+          <t>f__Megasphaeraceae</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT19990.fa</t>
+          <t>even_MAG-GUT1954.fa</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>9.015528320598055e-05</v>
+        <v>3.735972718199002e-05</v>
       </c>
       <c r="C45" t="n">
-        <v>0.9999098446236683</v>
+        <v>4.815123643671298e-06</v>
       </c>
       <c r="D45" t="n">
-        <v>2.220397075807267e-14</v>
+        <v>2.22042372235781e-14</v>
       </c>
       <c r="E45" t="n">
-        <v>9.310337234684795e-11</v>
+        <v>0.9999578251491522</v>
       </c>
       <c r="F45" t="n">
-        <v>0.9999098446236683</v>
+        <v>0.9999578251491522</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>f__Megasphaeraceae</t>
+          <t>f__Veillonellaceae</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>f__Megasphaeraceae</t>
+          <t>f__Veillonellaceae</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT20294.fa</t>
+          <t>even_MAG-GUT19990.fa</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1.034129765237044e-05</v>
+        <v>9.015528320598055e-05</v>
       </c>
       <c r="C46" t="n">
-        <v>0.9999896586971531</v>
+        <v>0.9999098446236683</v>
       </c>
       <c r="D46" t="n">
-        <v>2.220440368164739e-14</v>
+        <v>2.220397075807267e-14</v>
       </c>
       <c r="E46" t="n">
-        <v>5.172293812089814e-12</v>
+        <v>9.310337234684795e-11</v>
       </c>
       <c r="F46" t="n">
-        <v>0.9999896586971531</v>
+        <v>0.9999098446236683</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -1919,119 +1919,119 @@
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT2031.fa</t>
+          <t>even_MAG-GUT20294.fa</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.0001003416590713442</v>
+        <v>1.034129765237044e-05</v>
       </c>
       <c r="C47" t="n">
-        <v>8.536932647158256e-05</v>
+        <v>0.9999896586971531</v>
       </c>
       <c r="D47" t="n">
-        <v>2.220345194501823e-14</v>
+        <v>2.220440368164739e-14</v>
       </c>
       <c r="E47" t="n">
-        <v>0.9998142890144349</v>
+        <v>5.172293812089814e-12</v>
       </c>
       <c r="F47" t="n">
-        <v>0.9998142890144349</v>
+        <v>0.9999896586971531</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>f__Veillonellaceae</t>
+          <t>f__Megasphaeraceae</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>f__Veillonellaceae</t>
+          <t>f__Megasphaeraceae</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT20416.fa</t>
+          <t>even_MAG-GUT2031.fa</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>2.95504490564071e-06</v>
+        <v>0.0001003416590713442</v>
       </c>
       <c r="C48" t="n">
-        <v>0.999997044916654</v>
+        <v>8.536932647158256e-05</v>
       </c>
       <c r="D48" t="n">
-        <v>2.220444471283897e-14</v>
+        <v>2.220345194501823e-14</v>
       </c>
       <c r="E48" t="n">
-        <v>3.841820873601125e-11</v>
+        <v>0.9998142890144349</v>
       </c>
       <c r="F48" t="n">
-        <v>0.999997044916654</v>
+        <v>0.9998142890144349</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>f__Megasphaeraceae</t>
+          <t>f__Veillonellaceae</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>f__Megasphaeraceae</t>
+          <t>f__Veillonellaceae</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT2053.fa</t>
+          <t>even_MAG-GUT20416.fa</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.0001206590230338625</v>
+        <v>2.95504490564071e-06</v>
       </c>
       <c r="C49" t="n">
-        <v>2.216138502076916e-06</v>
+        <v>0.999997044916654</v>
       </c>
       <c r="D49" t="n">
-        <v>2.220378562389146e-14</v>
+        <v>2.220444471283897e-14</v>
       </c>
       <c r="E49" t="n">
-        <v>0.9998771248384419</v>
+        <v>3.841820873601125e-11</v>
       </c>
       <c r="F49" t="n">
-        <v>0.9998771248384419</v>
+        <v>0.999997044916654</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>f__Veillonellaceae</t>
+          <t>f__Megasphaeraceae</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>f__Veillonellaceae</t>
+          <t>f__Megasphaeraceae</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT2061.fa</t>
+          <t>even_MAG-GUT2053.fa</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.000390681184100182</v>
+        <v>0.0001206590230338625</v>
       </c>
       <c r="C50" t="n">
-        <v>0.000294509743106284</v>
+        <v>2.216138502076916e-06</v>
       </c>
       <c r="D50" t="n">
-        <v>2.220082151328415e-14</v>
+        <v>2.220378562389146e-14</v>
       </c>
       <c r="E50" t="n">
-        <v>0.9993148090727713</v>
+        <v>0.9998771248384419</v>
       </c>
       <c r="F50" t="n">
-        <v>0.9993148090727713</v>
+        <v>0.9998771248384419</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2047,23 +2047,23 @@
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT2081.fa</t>
+          <t>even_MAG-GUT2061.fa</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>7.668040613513361e-05</v>
+        <v>0.000390681184100182</v>
       </c>
       <c r="C51" t="n">
-        <v>7.395933301645458e-06</v>
+        <v>0.000294509743106284</v>
       </c>
       <c r="D51" t="n">
-        <v>2.220400400892011e-14</v>
+        <v>2.220082151328415e-14</v>
       </c>
       <c r="E51" t="n">
-        <v>0.9999159236605411</v>
+        <v>0.9993148090727713</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9999159236605411</v>
+        <v>0.9993148090727713</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2079,23 +2079,23 @@
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT2086.fa</t>
+          <t>even_MAG-GUT2081.fa</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.0001571449272472597</v>
+        <v>7.668040613513361e-05</v>
       </c>
       <c r="C52" t="n">
-        <v>2.067757502233037e-05</v>
+        <v>7.395933301645458e-06</v>
       </c>
       <c r="D52" t="n">
-        <v>2.220349842480078e-14</v>
+        <v>2.220400400892011e-14</v>
       </c>
       <c r="E52" t="n">
-        <v>0.9998221774977083</v>
+        <v>0.9999159236605411</v>
       </c>
       <c r="F52" t="n">
-        <v>0.9998221774977083</v>
+        <v>0.9999159236605411</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2111,119 +2111,119 @@
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT21102.fa</t>
+          <t>even_MAG-GUT2086.fa</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>3.773085948292026e-06</v>
+        <v>0.0001571449272472597</v>
       </c>
       <c r="C53" t="n">
-        <v>0.9999962260397531</v>
+        <v>2.067757502233037e-05</v>
       </c>
       <c r="D53" t="n">
-        <v>2.220444081364894e-14</v>
+        <v>2.220349842480078e-14</v>
       </c>
       <c r="E53" t="n">
-        <v>8.742764215543703e-10</v>
+        <v>0.9998221774977083</v>
       </c>
       <c r="F53" t="n">
-        <v>0.9999962260397531</v>
+        <v>0.9998221774977083</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>f__Megasphaeraceae</t>
+          <t>f__Veillonellaceae</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>f__Megasphaeraceae</t>
+          <t>f__Veillonellaceae</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT21682.fa</t>
+          <t>even_MAG-GUT21102.fa</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>8.594410654485696e-05</v>
+        <v>3.773085948292026e-06</v>
       </c>
       <c r="C54" t="n">
-        <v>1.395992444972635e-05</v>
+        <v>0.9999962260397531</v>
       </c>
       <c r="D54" t="n">
-        <v>2.220391407002453e-14</v>
+        <v>2.220444081364894e-14</v>
       </c>
       <c r="E54" t="n">
-        <v>0.9999000959689832</v>
+        <v>8.742764215543703e-10</v>
       </c>
       <c r="F54" t="n">
-        <v>0.9999000959689832</v>
+        <v>0.9999962260397531</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>f__Veillonellaceae</t>
+          <t>f__Megasphaeraceae</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>f__Veillonellaceae</t>
+          <t>f__Megasphaeraceae</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT23746.fa</t>
+          <t>even_MAG-GUT21682.fa</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.0001531240705524152</v>
+        <v>8.594410654485696e-05</v>
       </c>
       <c r="C55" t="n">
-        <v>0.9998412378690641</v>
+        <v>1.395992444972635e-05</v>
       </c>
       <c r="D55" t="n">
-        <v>2.220366300290772e-14</v>
+        <v>2.220391407002453e-14</v>
       </c>
       <c r="E55" t="n">
-        <v>5.638060361418972e-06</v>
+        <v>0.9999000959689832</v>
       </c>
       <c r="F55" t="n">
-        <v>0.9998412378690641</v>
+        <v>0.9999000959689832</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>f__Megasphaeraceae</t>
+          <t>f__Veillonellaceae</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>f__Megasphaeraceae</t>
+          <t>f__Veillonellaceae</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT23754.fa</t>
+          <t>even_MAG-GUT23746.fa</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>9.928677137209863e-06</v>
+        <v>0.0001531240705524152</v>
       </c>
       <c r="C56" t="n">
-        <v>0.9999900711651623</v>
+        <v>0.9998412378690641</v>
       </c>
       <c r="D56" t="n">
-        <v>2.220440816126665e-14</v>
+        <v>2.220366300290772e-14</v>
       </c>
       <c r="E56" t="n">
-        <v>1.576783019016897e-10</v>
+        <v>5.638060361418972e-06</v>
       </c>
       <c r="F56" t="n">
-        <v>0.9999900711651623</v>
+        <v>0.9998412378690641</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -2239,119 +2239,119 @@
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT24126.fa</t>
+          <t>even_MAG-GUT23754.fa</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.9999963885523853</v>
+        <v>9.928677137209863e-06</v>
       </c>
       <c r="C57" t="n">
-        <v>2.229770009577176e-06</v>
+        <v>0.9999900711651623</v>
       </c>
       <c r="D57" t="n">
-        <v>2.220458101676814e-14</v>
+        <v>2.220440816126665e-14</v>
       </c>
       <c r="E57" t="n">
-        <v>1.381677583005416e-06</v>
+        <v>1.576783019016897e-10</v>
       </c>
       <c r="F57" t="n">
-        <v>0.9999963885523853</v>
+        <v>0.9999900711651623</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>f__Dialisteraceae</t>
+          <t>f__Megasphaeraceae</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>f__Dialisteraceae</t>
+          <t>f__Megasphaeraceae</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT25590.fa</t>
+          <t>even_MAG-GUT24126.fa</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>7.568266874058625e-05</v>
+        <v>0.9999963885523853</v>
       </c>
       <c r="C58" t="n">
-        <v>5.509634371633906e-05</v>
+        <v>2.229770009577176e-06</v>
       </c>
       <c r="D58" t="n">
-        <v>2.220374936049296e-14</v>
+        <v>2.220458101676814e-14</v>
       </c>
       <c r="E58" t="n">
-        <v>0.9998692209875207</v>
+        <v>1.381677583005416e-06</v>
       </c>
       <c r="F58" t="n">
-        <v>0.9998692209875207</v>
+        <v>0.9999963885523853</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>f__Veillonellaceae</t>
+          <t>f__Dialisteraceae</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>f__Veillonellaceae</t>
+          <t>f__Dialisteraceae</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT29587.fa</t>
+          <t>even_MAG-GUT25590.fa</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>2.759785635774891e-05</v>
+        <v>7.568266874058625e-05</v>
       </c>
       <c r="C59" t="n">
-        <v>0.9999724021272461</v>
+        <v>5.509634371633906e-05</v>
       </c>
       <c r="D59" t="n">
-        <v>2.220430988008841e-14</v>
+        <v>2.220374936049296e-14</v>
       </c>
       <c r="E59" t="n">
-        <v>1.637381047345743e-11</v>
+        <v>0.9998692209875207</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9999724021272461</v>
+        <v>0.9998692209875207</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>f__Megasphaeraceae</t>
+          <t>f__Veillonellaceae</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>f__Megasphaeraceae</t>
+          <t>f__Veillonellaceae</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT29781.fa</t>
+          <t>even_MAG-GUT29587.fa</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.0007165363248953706</v>
+        <v>2.759785635774891e-05</v>
       </c>
       <c r="C60" t="n">
-        <v>0.9992834621910113</v>
+        <v>0.9999724021272461</v>
       </c>
       <c r="D60" t="n">
-        <v>2.220052865006233e-14</v>
+        <v>2.220430988008841e-14</v>
       </c>
       <c r="E60" t="n">
-        <v>1.484071058009294e-09</v>
+        <v>1.637381047345743e-11</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9992834621910113</v>
+        <v>0.9999724021272461</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -2367,23 +2367,23 @@
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT29856.fa</t>
+          <t>even_MAG-GUT29781.fa</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>8.084242813271032e-05</v>
+        <v>0.0007165363248953706</v>
       </c>
       <c r="C61" t="n">
-        <v>0.9999191569824537</v>
+        <v>0.9992834621910113</v>
       </c>
       <c r="D61" t="n">
-        <v>2.220403502355714e-14</v>
+        <v>2.220052865006233e-14</v>
       </c>
       <c r="E61" t="n">
-        <v>5.893914821569792e-10</v>
+        <v>1.484071058009294e-09</v>
       </c>
       <c r="F61" t="n">
-        <v>0.9999191569824537</v>
+        <v>0.9992834621910113</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -2399,23 +2399,23 @@
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT30091.fa</t>
+          <t>even_MAG-GUT29856.fa</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.0003165368174140185</v>
+        <v>8.084242813271032e-05</v>
       </c>
       <c r="C62" t="n">
-        <v>0.9996814176004686</v>
+        <v>0.9999191569824537</v>
       </c>
       <c r="D62" t="n">
-        <v>2.220278256577254e-14</v>
+        <v>2.220403502355714e-14</v>
       </c>
       <c r="E62" t="n">
-        <v>2.045582095108819e-06</v>
+        <v>5.893914821569792e-10</v>
       </c>
       <c r="F62" t="n">
-        <v>0.9996814176004686</v>
+        <v>0.9999191569824537</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -2431,23 +2431,23 @@
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT30581.fa</t>
+          <t>even_MAG-GUT30091.fa</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.0001342683762245382</v>
+        <v>0.0003165368174140185</v>
       </c>
       <c r="C63" t="n">
-        <v>0.999865731145549</v>
+        <v>0.9996814176004686</v>
       </c>
       <c r="D63" t="n">
-        <v>2.220375083508413e-14</v>
+        <v>2.220278256577254e-14</v>
       </c>
       <c r="E63" t="n">
-        <v>4.782040739172621e-10</v>
+        <v>2.045582095108819e-06</v>
       </c>
       <c r="F63" t="n">
-        <v>0.999865731145549</v>
+        <v>0.9996814176004686</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -2463,23 +2463,23 @@
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT30699.fa</t>
+          <t>even_MAG-GUT30581.fa</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.005567669841928868</v>
+        <v>0.0001342683762245382</v>
       </c>
       <c r="C64" t="n">
-        <v>0.9944323299643378</v>
+        <v>0.999865731145549</v>
       </c>
       <c r="D64" t="n">
-        <v>2.219812209396246e-14</v>
+        <v>2.220375083508413e-14</v>
       </c>
       <c r="E64" t="n">
-        <v>1.937110073242709e-10</v>
+        <v>4.782040739172621e-10</v>
       </c>
       <c r="F64" t="n">
-        <v>0.9944323299643378</v>
+        <v>0.999865731145549</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -2495,23 +2495,23 @@
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT31093.fa</t>
+          <t>even_MAG-GUT30699.fa</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>9.48082235954158e-07</v>
+        <v>0.005567669841928868</v>
       </c>
       <c r="C65" t="n">
-        <v>0.9999990494397571</v>
+        <v>0.9944323299643378</v>
       </c>
       <c r="D65" t="n">
-        <v>2.220445611322132e-14</v>
+        <v>2.219812209396246e-14</v>
       </c>
       <c r="E65" t="n">
-        <v>2.477984595480009e-09</v>
+        <v>1.937110073242709e-10</v>
       </c>
       <c r="F65" t="n">
-        <v>0.9999990494397571</v>
+        <v>0.9944323299643378</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -2527,23 +2527,23 @@
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT31302.fa</t>
+          <t>even_MAG-GUT31093.fa</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>8.836515990794109e-07</v>
+        <v>9.48082235954158e-07</v>
       </c>
       <c r="C66" t="n">
-        <v>0.9999991161691094</v>
+        <v>0.9999990494397571</v>
       </c>
       <c r="D66" t="n">
-        <v>2.220445590960282e-14</v>
+        <v>2.220445611322132e-14</v>
       </c>
       <c r="E66" t="n">
-        <v>1.792692147079371e-10</v>
+        <v>2.477984595480009e-09</v>
       </c>
       <c r="F66" t="n">
-        <v>0.9999991161691094</v>
+        <v>0.9999990494397571</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -2559,23 +2559,23 @@
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT32106.fa</t>
+          <t>even_MAG-GUT31302.fa</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>4.662858958228572e-07</v>
+        <v>8.836515990794109e-07</v>
       </c>
       <c r="C67" t="n">
-        <v>0.9999995276116465</v>
+        <v>0.9999991161691094</v>
       </c>
       <c r="D67" t="n">
-        <v>2.220445835925795e-14</v>
+        <v>2.220445590960282e-14</v>
       </c>
       <c r="E67" t="n">
-        <v>6.102435569492389e-09</v>
+        <v>1.792692147079371e-10</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9999995276116465</v>
+        <v>0.9999991161691094</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -2591,23 +2591,23 @@
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT33511.fa</t>
+          <t>even_MAG-GUT32106.fa</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>3.252637232814588e-06</v>
+        <v>4.662858958228572e-07</v>
       </c>
       <c r="C68" t="n">
-        <v>0.9999967471390434</v>
+        <v>0.9999995276116465</v>
       </c>
       <c r="D68" t="n">
-        <v>2.220444423061441e-14</v>
+        <v>2.220445835925795e-14</v>
       </c>
       <c r="E68" t="n">
-        <v>2.23701558104646e-10</v>
+        <v>6.102435569492389e-09</v>
       </c>
       <c r="F68" t="n">
-        <v>0.9999967471390434</v>
+        <v>0.9999995276116465</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -2623,183 +2623,183 @@
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT33604.fa</t>
+          <t>even_MAG-GUT33511.fa</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.9999992142976484</v>
+        <v>3.252637232814588e-06</v>
       </c>
       <c r="C69" t="n">
-        <v>1.719339400594014e-07</v>
+        <v>0.9999967471390434</v>
       </c>
       <c r="D69" t="n">
-        <v>2.220445797635608e-14</v>
+        <v>2.220444423061441e-14</v>
       </c>
       <c r="E69" t="n">
-        <v>6.137683893499644e-07</v>
+        <v>2.23701558104646e-10</v>
       </c>
       <c r="F69" t="n">
-        <v>0.9999992142976484</v>
+        <v>0.9999967471390434</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>f__Dialisteraceae</t>
+          <t>f__Megasphaeraceae</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>f__Dialisteraceae</t>
+          <t>f__Megasphaeraceae</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT3377.fa</t>
+          <t>even_MAG-GUT33604.fa</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>6.563238761999135e-05</v>
+        <v>0.9999992142976484</v>
       </c>
       <c r="C70" t="n">
-        <v>1.548985331567067e-05</v>
+        <v>1.719339400594014e-07</v>
       </c>
       <c r="D70" t="n">
-        <v>2.220402107921738e-14</v>
+        <v>2.220445797635608e-14</v>
       </c>
       <c r="E70" t="n">
-        <v>0.9999188777590421</v>
+        <v>6.137683893499644e-07</v>
       </c>
       <c r="F70" t="n">
-        <v>0.9999188777590421</v>
+        <v>0.9999992142976484</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>f__Veillonellaceae</t>
+          <t>f__Dialisteraceae</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>f__Veillonellaceae</t>
+          <t>f__Dialisteraceae</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT35807.fa</t>
+          <t>even_MAG-GUT3377.fa</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.9999999482148244</v>
+        <v>6.563238761999135e-05</v>
       </c>
       <c r="C71" t="n">
-        <v>2.113245602180457e-08</v>
+        <v>1.548985331567067e-05</v>
       </c>
       <c r="D71" t="n">
-        <v>2.220446032214671e-14</v>
+        <v>2.220402107921738e-14</v>
       </c>
       <c r="E71" t="n">
-        <v>3.065269734584221e-08</v>
+        <v>0.9999188777590421</v>
       </c>
       <c r="F71" t="n">
-        <v>0.9999999482148244</v>
+        <v>0.9999188777590421</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>f__Dialisteraceae</t>
+          <t>f__Veillonellaceae</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>f__Dialisteraceae</t>
+          <t>f__Veillonellaceae</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT36136.fa</t>
+          <t>even_MAG-GUT35807.fa</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>2.772215738995381e-05</v>
+        <v>0.9999999482148244</v>
       </c>
       <c r="C72" t="n">
-        <v>2.570307847367773e-05</v>
+        <v>2.113245602180457e-08</v>
       </c>
       <c r="D72" t="n">
-        <v>2.220419556076237e-14</v>
+        <v>2.220446032214671e-14</v>
       </c>
       <c r="E72" t="n">
-        <v>0.9999465747641142</v>
+        <v>3.065269734584221e-08</v>
       </c>
       <c r="F72" t="n">
-        <v>0.9999465747641142</v>
+        <v>0.9999999482148244</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>f__Veillonellaceae</t>
+          <t>f__Dialisteraceae</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>f__Veillonellaceae</t>
+          <t>f__Dialisteraceae</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT36998.fa</t>
+          <t>even_MAG-GUT36136.fa</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>1.756336984274717e-05</v>
+        <v>2.772215738995381e-05</v>
       </c>
       <c r="C73" t="n">
-        <v>0.9999824357258599</v>
+        <v>2.570307847367773e-05</v>
       </c>
       <c r="D73" t="n">
-        <v>2.220436871950845e-14</v>
+        <v>2.220419556076237e-14</v>
       </c>
       <c r="E73" t="n">
-        <v>9.042750654326527e-10</v>
+        <v>0.9999465747641142</v>
       </c>
       <c r="F73" t="n">
-        <v>0.9999824357258599</v>
+        <v>0.9999465747641142</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>f__Megasphaeraceae</t>
+          <t>f__Veillonellaceae</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>f__Megasphaeraceae</t>
+          <t>f__Veillonellaceae</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT3710.fa</t>
+          <t>even_MAG-GUT36998.fa</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.0003767243721631153</v>
+        <v>1.756336984274717e-05</v>
       </c>
       <c r="C74" t="n">
-        <v>0.9996232500715544</v>
+        <v>0.9999824357258599</v>
       </c>
       <c r="D74" t="n">
-        <v>2.220244473793763e-14</v>
+        <v>2.220436871950845e-14</v>
       </c>
       <c r="E74" t="n">
-        <v>2.555626029486038e-08</v>
+        <v>9.042750654326527e-10</v>
       </c>
       <c r="F74" t="n">
-        <v>0.9996232500715544</v>
+        <v>0.9999824357258599</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -2815,87 +2815,87 @@
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT37167.fa</t>
+          <t>even_MAG-GUT3710.fa</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.9999999936368897</v>
+        <v>0.0003767243721631153</v>
       </c>
       <c r="C75" t="n">
-        <v>4.123602889640385e-10</v>
+        <v>0.9996232500715544</v>
       </c>
       <c r="D75" t="n">
-        <v>2.220446045806144e-14</v>
+        <v>2.220244473793763e-14</v>
       </c>
       <c r="E75" t="n">
-        <v>5.950727853485222e-09</v>
+        <v>2.555626029486038e-08</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9999999936368897</v>
+        <v>0.9996232500715544</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>f__Dialisteraceae</t>
+          <t>f__Megasphaeraceae</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>f__Dialisteraceae</t>
+          <t>f__Megasphaeraceae</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT37176.fa</t>
+          <t>even_MAG-GUT37167.fa</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.003519246639818144</v>
+        <v>0.9999999936368897</v>
       </c>
       <c r="C76" t="n">
-        <v>0.9964807531775768</v>
+        <v>4.123602889640385e-10</v>
       </c>
       <c r="D76" t="n">
-        <v>2.219811568784456e-14</v>
+        <v>2.220446045806144e-14</v>
       </c>
       <c r="E76" t="n">
-        <v>1.825827568829473e-10</v>
+        <v>5.950727853485222e-09</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9964807531775768</v>
+        <v>0.9999999936368897</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>f__Megasphaeraceae</t>
+          <t>f__Dialisteraceae</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>f__Megasphaeraceae</t>
+          <t>f__Dialisteraceae</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT37279.fa</t>
+          <t>even_MAG-GUT37176.fa</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.0004689264382728416</v>
+        <v>0.003519246639818144</v>
       </c>
       <c r="C77" t="n">
-        <v>0.999531072813124</v>
+        <v>0.9964807531775768</v>
       </c>
       <c r="D77" t="n">
-        <v>2.220195337163829e-14</v>
+        <v>2.219811568784456e-14</v>
       </c>
       <c r="E77" t="n">
-        <v>7.48580965878481e-10</v>
+        <v>1.825827568829473e-10</v>
       </c>
       <c r="F77" t="n">
-        <v>0.999531072813124</v>
+        <v>0.9964807531775768</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -2911,23 +2911,23 @@
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT37376.fa</t>
+          <t>even_MAG-GUT37279.fa</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>3.883790150940351e-06</v>
+        <v>0.0004689264382728416</v>
       </c>
       <c r="C78" t="n">
-        <v>0.999996115973197</v>
+        <v>0.999531072813124</v>
       </c>
       <c r="D78" t="n">
-        <v>2.220443995866631e-14</v>
+        <v>2.220195337163829e-14</v>
       </c>
       <c r="E78" t="n">
-        <v>2.366299384702036e-10</v>
+        <v>7.48580965878481e-10</v>
       </c>
       <c r="F78" t="n">
-        <v>0.999996115973197</v>
+        <v>0.999531072813124</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -2943,151 +2943,151 @@
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT37445.fa</t>
+          <t>even_MAG-GUT37376.fa</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>2.32761505118565e-05</v>
+        <v>3.883790150940351e-06</v>
       </c>
       <c r="C79" t="n">
-        <v>4.802887867976014e-05</v>
+        <v>0.999996115973197</v>
       </c>
       <c r="D79" t="n">
-        <v>2.220408700294199e-14</v>
+        <v>2.220443995866631e-14</v>
       </c>
       <c r="E79" t="n">
-        <v>0.9999286949707861</v>
+        <v>2.366299384702036e-10</v>
       </c>
       <c r="F79" t="n">
-        <v>0.9999286949707861</v>
+        <v>0.999996115973197</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>f__Veillonellaceae</t>
+          <t>f__Megasphaeraceae</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>f__Veillonellaceae</t>
+          <t>f__Megasphaeraceae</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT37689.fa</t>
+          <t>even_MAG-GUT37445.fa</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>1.068954965928404e-05</v>
+        <v>2.32761505118565e-05</v>
       </c>
       <c r="C80" t="n">
-        <v>0.9999893082271084</v>
+        <v>4.802887867976014e-05</v>
       </c>
       <c r="D80" t="n">
-        <v>2.220440567774139e-14</v>
+        <v>2.220408700294199e-14</v>
       </c>
       <c r="E80" t="n">
-        <v>2.22321010036191e-09</v>
+        <v>0.9999286949707861</v>
       </c>
       <c r="F80" t="n">
-        <v>0.9999893082271084</v>
+        <v>0.9999286949707861</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>f__Megasphaeraceae</t>
+          <t>f__Veillonellaceae</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>f__Megasphaeraceae</t>
+          <t>f__Veillonellaceae</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT38551.fa</t>
+          <t>even_MAG-GUT37689.fa</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.9999998916865409</v>
+        <v>1.068954965928404e-05</v>
       </c>
       <c r="C81" t="n">
-        <v>1.10657615853736e-10</v>
+        <v>0.9999893082271084</v>
       </c>
       <c r="D81" t="n">
-        <v>2.220445990417921e-14</v>
+        <v>2.220440567774139e-14</v>
       </c>
       <c r="E81" t="n">
-        <v>1.082027792293855e-07</v>
+        <v>2.22321010036191e-09</v>
       </c>
       <c r="F81" t="n">
-        <v>0.9999998916865409</v>
+        <v>0.9999893082271084</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>f__Dialisteraceae</t>
+          <t>f__Megasphaeraceae</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>f__Dialisteraceae</t>
+          <t>f__Megasphaeraceae</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT38702.fa</t>
+          <t>even_MAG-GUT38551.fa</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>4.566195275980438e-07</v>
+        <v>0.9999998916865409</v>
       </c>
       <c r="C82" t="n">
-        <v>0.9999995413249149</v>
+        <v>1.10657615853736e-10</v>
       </c>
       <c r="D82" t="n">
-        <v>2.220445879292175e-14</v>
+        <v>2.220445990417921e-14</v>
       </c>
       <c r="E82" t="n">
-        <v>2.055535342718146e-09</v>
+        <v>1.082027792293855e-07</v>
       </c>
       <c r="F82" t="n">
-        <v>0.9999995413249149</v>
+        <v>0.9999998916865409</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>f__Megasphaeraceae</t>
+          <t>f__Dialisteraceae</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>f__Megasphaeraceae</t>
+          <t>f__Dialisteraceae</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT3880.fa</t>
+          <t>even_MAG-GUT38702.fa</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>6.241092668704724e-06</v>
+        <v>4.566195275980438e-07</v>
       </c>
       <c r="C83" t="n">
-        <v>0.9999937587816862</v>
+        <v>0.9999995413249149</v>
       </c>
       <c r="D83" t="n">
-        <v>2.22044267007596e-14</v>
+        <v>2.220445879292175e-14</v>
       </c>
       <c r="E83" t="n">
-        <v>1.256229588686538e-10</v>
+        <v>2.055535342718146e-09</v>
       </c>
       <c r="F83" t="n">
-        <v>0.9999937587816862</v>
+        <v>0.9999995413249149</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -3103,87 +3103,87 @@
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT42358.fa</t>
+          <t>even_MAG-GUT3880.fa</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.9999998188933111</v>
+        <v>6.241092668704724e-06</v>
       </c>
       <c r="C84" t="n">
-        <v>1.018426310842596e-10</v>
+        <v>0.9999937587816862</v>
       </c>
       <c r="D84" t="n">
-        <v>2.220445950303691e-14</v>
+        <v>2.22044267007596e-14</v>
       </c>
       <c r="E84" t="n">
-        <v>1.810048239658051e-07</v>
+        <v>1.256229588686538e-10</v>
       </c>
       <c r="F84" t="n">
-        <v>0.9999998188933111</v>
+        <v>0.9999937587816862</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>f__Dialisteraceae</t>
+          <t>f__Megasphaeraceae</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>f__Dialisteraceae</t>
+          <t>f__Megasphaeraceae</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43155.fa</t>
+          <t>even_MAG-GUT42358.fa</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>1.172365121275546e-07</v>
+        <v>0.9999998188933111</v>
       </c>
       <c r="C85" t="n">
-        <v>0.9999996860146525</v>
+        <v>1.018426310842596e-10</v>
       </c>
       <c r="D85" t="n">
-        <v>2.220445906583166e-14</v>
+        <v>2.220445950303691e-14</v>
       </c>
       <c r="E85" t="n">
-        <v>1.967488131587477e-07</v>
+        <v>1.810048239658051e-07</v>
       </c>
       <c r="F85" t="n">
-        <v>0.9999996860146525</v>
+        <v>0.9999998188933111</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>f__Megasphaeraceae</t>
+          <t>f__Dialisteraceae</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>f__Megasphaeraceae</t>
+          <t>f__Dialisteraceae</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43216.fa</t>
+          <t>even_MAG-GUT43155.fa</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>4.348504082816398e-06</v>
+        <v>1.172365121275546e-07</v>
       </c>
       <c r="C86" t="n">
-        <v>0.9999893078561195</v>
+        <v>0.9999996860146525</v>
       </c>
       <c r="D86" t="n">
-        <v>3.853992932058553e-08</v>
+        <v>2.220445906583166e-14</v>
       </c>
       <c r="E86" t="n">
-        <v>6.305099868472266e-06</v>
+        <v>1.967488131587477e-07</v>
       </c>
       <c r="F86" t="n">
-        <v>0.9999893078561195</v>
+        <v>0.9999996860146525</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -3199,55 +3199,55 @@
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43570.fa</t>
+          <t>even_MAG-GUT43216.fa</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>6.638839027681591e-06</v>
+        <v>4.348504082816398e-06</v>
       </c>
       <c r="C87" t="n">
-        <v>5.229212026958112e-06</v>
+        <v>0.9999893078561195</v>
       </c>
       <c r="D87" t="n">
-        <v>2.220439538098999e-14</v>
+        <v>3.853992932058553e-08</v>
       </c>
       <c r="E87" t="n">
-        <v>0.9999881319489232</v>
+        <v>6.305099868472266e-06</v>
       </c>
       <c r="F87" t="n">
-        <v>0.9999881319489232</v>
+        <v>0.9999893078561195</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>f__Veillonellaceae</t>
+          <t>f__Megasphaeraceae</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>f__Veillonellaceae</t>
+          <t>f__Megasphaeraceae</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43698.fa</t>
+          <t>even_MAG-GUT43570.fa</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.0001864651730098573</v>
+        <v>6.638839027681591e-06</v>
       </c>
       <c r="C88" t="n">
-        <v>5.319351348525866e-06</v>
+        <v>5.229212026958112e-06</v>
       </c>
       <c r="D88" t="n">
-        <v>2.220340163831399e-14</v>
+        <v>2.220439538098999e-14</v>
       </c>
       <c r="E88" t="n">
-        <v>0.9998082154756195</v>
+        <v>0.9999881319489232</v>
       </c>
       <c r="F88" t="n">
-        <v>0.9998082154756195</v>
+        <v>0.9999881319489232</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -3263,23 +3263,23 @@
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT44000.fa</t>
+          <t>even_MAG-GUT43698.fa</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>7.896901509240777e-05</v>
+        <v>0.0001864651730098573</v>
       </c>
       <c r="C89" t="n">
-        <v>7.258170495863445e-05</v>
+        <v>5.319351348525866e-06</v>
       </c>
       <c r="D89" t="n">
-        <v>2.220364491488094e-14</v>
+        <v>2.220340163831399e-14</v>
       </c>
       <c r="E89" t="n">
-        <v>0.9998484492799268</v>
+        <v>0.9998082154756195</v>
       </c>
       <c r="F89" t="n">
-        <v>0.9998484492799268</v>
+        <v>0.9998082154756195</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -3295,23 +3295,23 @@
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT44111.fa</t>
+          <t>even_MAG-GUT44000.fa</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.0001822327090477711</v>
+        <v>7.896901509240777e-05</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0001495789749847836</v>
+        <v>7.258170495863445e-05</v>
       </c>
       <c r="D90" t="n">
-        <v>2.220269181171759e-14</v>
+        <v>2.220364491488094e-14</v>
       </c>
       <c r="E90" t="n">
-        <v>0.9996681883159452</v>
+        <v>0.9998484492799268</v>
       </c>
       <c r="F90" t="n">
-        <v>0.9996681883159452</v>
+        <v>0.9998484492799268</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -3327,23 +3327,23 @@
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT44662.fa</t>
+          <t>even_MAG-GUT44111.fa</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>4.972841771714376e-05</v>
+        <v>0.0001822327090477711</v>
       </c>
       <c r="C91" t="n">
-        <v>3.572744294097072e-05</v>
+        <v>0.0001495789749847836</v>
       </c>
       <c r="D91" t="n">
-        <v>2.220399808095933e-14</v>
+        <v>2.220269181171759e-14</v>
       </c>
       <c r="E91" t="n">
-        <v>0.9999145441393196</v>
+        <v>0.9996681883159452</v>
       </c>
       <c r="F91" t="n">
-        <v>0.9999145441393196</v>
+        <v>0.9996681883159452</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -3359,87 +3359,87 @@
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT44736.fa</t>
+          <t>even_MAG-GUT44662.fa</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.7155664379297809</v>
+        <v>4.972841771714376e-05</v>
       </c>
       <c r="C92" t="n">
-        <v>0.2129993046932653</v>
+        <v>3.572744294097072e-05</v>
       </c>
       <c r="D92" t="n">
-        <v>1.604542602503784e-05</v>
+        <v>2.220399808095933e-14</v>
       </c>
       <c r="E92" t="n">
-        <v>0.07141821195092869</v>
+        <v>0.9999145441393196</v>
       </c>
       <c r="F92" t="n">
-        <v>0.7155664379297809</v>
+        <v>0.9999145441393196</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>f__Dialisteraceae</t>
+          <t>f__Veillonellaceae</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>f__Dialisteraceae</t>
+          <t>f__Veillonellaceae</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT44851.fa</t>
+          <t>even_MAG-GUT44736.fa</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>8.702677888146497e-05</v>
+        <v>0.7155664379297809</v>
       </c>
       <c r="C93" t="n">
-        <v>1.356619460723802e-05</v>
+        <v>0.2129993046932653</v>
       </c>
       <c r="D93" t="n">
-        <v>2.220393027155676e-14</v>
+        <v>1.604542602503784e-05</v>
       </c>
       <c r="E93" t="n">
-        <v>0.9998994070264892</v>
+        <v>0.07141821195092869</v>
       </c>
       <c r="F93" t="n">
-        <v>0.9998994070264892</v>
+        <v>0.7155664379297809</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>f__Veillonellaceae</t>
+          <t>f__Dialisteraceae</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>f__Veillonellaceae</t>
+          <t>f__Dialisteraceae(reject)</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT45317.fa</t>
+          <t>even_MAG-GUT44851.fa</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.0002058799459872947</v>
+        <v>8.702677888146497e-05</v>
       </c>
       <c r="C94" t="n">
-        <v>3.164500920632905e-05</v>
+        <v>1.356619460723802e-05</v>
       </c>
       <c r="D94" t="n">
-        <v>2.220319524110643e-14</v>
+        <v>2.220393027155676e-14</v>
       </c>
       <c r="E94" t="n">
-        <v>0.9997624750447841</v>
+        <v>0.9998994070264892</v>
       </c>
       <c r="F94" t="n">
-        <v>0.9997624750447841</v>
+        <v>0.9998994070264892</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -3455,23 +3455,23 @@
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT45633.fa</t>
+          <t>even_MAG-GUT45317.fa</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>3.700346631584387e-05</v>
+        <v>0.0002058799459872947</v>
       </c>
       <c r="C95" t="n">
-        <v>7.646389778640743e-05</v>
+        <v>3.164500920632905e-05</v>
       </c>
       <c r="D95" t="n">
-        <v>2.220387954764637e-14</v>
+        <v>2.220319524110643e-14</v>
       </c>
       <c r="E95" t="n">
-        <v>0.9998865326358755</v>
+        <v>0.9997624750447841</v>
       </c>
       <c r="F95" t="n">
-        <v>0.9998865326358755</v>
+        <v>0.9997624750447841</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -3487,23 +3487,23 @@
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT45684.fa</t>
+          <t>even_MAG-GUT45633.fa</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.0002433975304013942</v>
+        <v>3.700346631584387e-05</v>
       </c>
       <c r="C96" t="n">
-        <v>0.000570597277786909</v>
+        <v>7.646389778640743e-05</v>
       </c>
       <c r="D96" t="n">
-        <v>2.220016777873521e-14</v>
+        <v>2.220387954764637e-14</v>
       </c>
       <c r="E96" t="n">
-        <v>0.9991860051917896</v>
+        <v>0.9998865326358755</v>
       </c>
       <c r="F96" t="n">
-        <v>0.9991860051917896</v>
+        <v>0.9998865326358755</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -3519,23 +3519,23 @@
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT45719.fa</t>
+          <t>even_MAG-GUT45684.fa</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>2.784726352687508e-05</v>
+        <v>0.0002433975304013942</v>
       </c>
       <c r="C97" t="n">
-        <v>1.131307484256086e-05</v>
+        <v>0.000570597277786909</v>
       </c>
       <c r="D97" t="n">
-        <v>2.220426071533189e-14</v>
+        <v>2.220016777873521e-14</v>
       </c>
       <c r="E97" t="n">
-        <v>0.9999608396616084</v>
+        <v>0.9991860051917896</v>
       </c>
       <c r="F97" t="n">
-        <v>0.9999608396616084</v>
+        <v>0.9991860051917896</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -3551,23 +3551,23 @@
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT45776.fa</t>
+          <t>even_MAG-GUT45719.fa</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>9.202549702032819e-05</v>
+        <v>2.784726352687508e-05</v>
       </c>
       <c r="C98" t="n">
-        <v>4.696673110685593e-05</v>
+        <v>1.131307484256086e-05</v>
       </c>
       <c r="D98" t="n">
-        <v>2.220371839126972e-14</v>
+        <v>2.220426071533189e-14</v>
       </c>
       <c r="E98" t="n">
-        <v>0.9998610077718505</v>
+        <v>0.9999608396616084</v>
       </c>
       <c r="F98" t="n">
-        <v>0.9998610077718505</v>
+        <v>0.9999608396616084</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -3583,23 +3583,23 @@
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT46165.fa</t>
+          <t>even_MAG-GUT45776.fa</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>1.039922951240912e-05</v>
+        <v>9.202549702032819e-05</v>
       </c>
       <c r="C99" t="n">
-        <v>4.057397111065011e-07</v>
+        <v>4.696673110685593e-05</v>
       </c>
       <c r="D99" t="n">
-        <v>2.220440083367126e-14</v>
+        <v>2.220371839126972e-14</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9999891950307543</v>
+        <v>0.9998610077718505</v>
       </c>
       <c r="F99" t="n">
-        <v>0.9999891950307543</v>
+        <v>0.9998610077718505</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -3615,23 +3615,23 @@
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT46247.fa</t>
+          <t>even_MAG-GUT46165.fa</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>6.129541493601944e-05</v>
+        <v>1.039922951240912e-05</v>
       </c>
       <c r="C100" t="n">
-        <v>0.000207641048843144</v>
+        <v>4.057397111065011e-07</v>
       </c>
       <c r="D100" t="n">
-        <v>2.220301805878617e-14</v>
+        <v>2.220440083367126e-14</v>
       </c>
       <c r="E100" t="n">
-        <v>0.9997310635361987</v>
+        <v>0.9999891950307543</v>
       </c>
       <c r="F100" t="n">
-        <v>0.9997310635361987</v>
+        <v>0.9999891950307543</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -3647,23 +3647,23 @@
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT46435.fa</t>
+          <t>even_MAG-GUT46247.fa</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.0001661050662954578</v>
+        <v>6.129541493601944e-05</v>
       </c>
       <c r="C101" t="n">
-        <v>2.331847822691009e-05</v>
+        <v>0.000207641048843144</v>
       </c>
       <c r="D101" t="n">
-        <v>2.220342193276381e-14</v>
+        <v>2.220301805878617e-14</v>
       </c>
       <c r="E101" t="n">
-        <v>0.9998105764554553</v>
+        <v>0.9997310635361987</v>
       </c>
       <c r="F101" t="n">
-        <v>0.9998105764554553</v>
+        <v>0.9997310635361987</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -3679,23 +3679,23 @@
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT46922.fa</t>
+          <t>even_MAG-GUT46435.fa</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>8.7456008421796e-05</v>
+        <v>0.0001661050662954578</v>
       </c>
       <c r="C102" t="n">
-        <v>6.017777911201118e-05</v>
+        <v>2.331847822691009e-05</v>
       </c>
       <c r="D102" t="n">
-        <v>2.220365121045214e-14</v>
+        <v>2.220342193276381e-14</v>
       </c>
       <c r="E102" t="n">
-        <v>0.9998523662124439</v>
+        <v>0.9998105764554553</v>
       </c>
       <c r="F102" t="n">
-        <v>0.9998523662124439</v>
+        <v>0.9998105764554553</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -3711,23 +3711,23 @@
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT46931.fa</t>
+          <t>even_MAG-GUT46922.fa</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0.0002287533527309048</v>
+        <v>8.7456008421796e-05</v>
       </c>
       <c r="C103" t="n">
-        <v>0.0001221875035040421</v>
+        <v>6.017777911201118e-05</v>
       </c>
       <c r="D103" t="n">
-        <v>2.220255928879639e-14</v>
+        <v>2.220365121045214e-14</v>
       </c>
       <c r="E103" t="n">
-        <v>0.9996490591437429</v>
+        <v>0.9998523662124439</v>
       </c>
       <c r="F103" t="n">
-        <v>0.9996490591437429</v>
+        <v>0.9998523662124439</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -3743,23 +3743,23 @@
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT46987.fa</t>
+          <t>even_MAG-GUT46931.fa</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>4.760124608321374e-05</v>
+        <v>0.0002287533527309048</v>
       </c>
       <c r="C104" t="n">
-        <v>0.0001687209351330252</v>
+        <v>0.0001221875035040421</v>
       </c>
       <c r="D104" t="n">
-        <v>2.220328135363495e-14</v>
+        <v>2.220255928879639e-14</v>
       </c>
       <c r="E104" t="n">
-        <v>0.9997836778187617</v>
+        <v>0.9996490591437429</v>
       </c>
       <c r="F104" t="n">
-        <v>0.9997836778187617</v>
+        <v>0.9996490591437429</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -3775,87 +3775,87 @@
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT47106.fa</t>
+          <t>even_MAG-GUT46987.fa</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>7.134318009418685e-06</v>
+        <v>4.760124608321374e-05</v>
       </c>
       <c r="C105" t="n">
-        <v>0.9999790084478237</v>
+        <v>0.0001687209351330252</v>
       </c>
       <c r="D105" t="n">
-        <v>1.459303018272693e-07</v>
+        <v>2.220328135363495e-14</v>
       </c>
       <c r="E105" t="n">
-        <v>1.371130386513607e-05</v>
+        <v>0.9997836778187617</v>
       </c>
       <c r="F105" t="n">
-        <v>0.9999790084478237</v>
+        <v>0.9997836778187617</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>f__Megasphaeraceae</t>
+          <t>f__Veillonellaceae</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>f__Megasphaeraceae</t>
+          <t>f__Veillonellaceae</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT47186.fa</t>
+          <t>even_MAG-GUT47106.fa</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>5.041936882804287e-05</v>
+        <v>7.134318009418685e-06</v>
       </c>
       <c r="C106" t="n">
-        <v>8.609431539494769e-05</v>
+        <v>0.9999790084478237</v>
       </c>
       <c r="D106" t="n">
-        <v>2.220371884853929e-14</v>
+        <v>1.459303018272693e-07</v>
       </c>
       <c r="E106" t="n">
-        <v>0.9998634863157548</v>
+        <v>1.371130386513607e-05</v>
       </c>
       <c r="F106" t="n">
-        <v>0.9998634863157548</v>
+        <v>0.9999790084478237</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>f__Veillonellaceae</t>
+          <t>f__Megasphaeraceae</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>f__Veillonellaceae</t>
+          <t>f__Megasphaeraceae</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT47222.fa</t>
+          <t>even_MAG-GUT47186.fa</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>1.206045014723275e-05</v>
+        <v>5.041936882804287e-05</v>
       </c>
       <c r="C107" t="n">
-        <v>1.819749339724424e-05</v>
+        <v>8.609431539494769e-05</v>
       </c>
       <c r="D107" t="n">
-        <v>2.220429988123999e-14</v>
+        <v>2.220371884853929e-14</v>
       </c>
       <c r="E107" t="n">
-        <v>0.9999697420564334</v>
+        <v>0.9998634863157548</v>
       </c>
       <c r="F107" t="n">
-        <v>0.9999697420564334</v>
+        <v>0.9998634863157548</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -3871,23 +3871,23 @@
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT47622.fa</t>
+          <t>even_MAG-GUT47222.fa</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.0001738786169460213</v>
+        <v>1.206045014723275e-05</v>
       </c>
       <c r="C108" t="n">
-        <v>4.17313110643356e-05</v>
+        <v>1.819749339724424e-05</v>
       </c>
       <c r="D108" t="n">
-        <v>2.220328015283654e-14</v>
+        <v>2.220429988123999e-14</v>
       </c>
       <c r="E108" t="n">
-        <v>0.9997843900719675</v>
+        <v>0.9999697420564334</v>
       </c>
       <c r="F108" t="n">
-        <v>0.9997843900719675</v>
+        <v>0.9999697420564334</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -3903,23 +3903,23 @@
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT47676.fa</t>
+          <t>even_MAG-GUT47622.fa</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>2.259252259929472e-05</v>
+        <v>0.0001738786169460213</v>
       </c>
       <c r="C109" t="n">
-        <v>7.296057055191766e-05</v>
+        <v>4.17313110643356e-05</v>
       </c>
       <c r="D109" t="n">
-        <v>2.220394492023193e-14</v>
+        <v>2.220328015283654e-14</v>
       </c>
       <c r="E109" t="n">
-        <v>0.9999044469068267</v>
+        <v>0.9997843900719675</v>
       </c>
       <c r="F109" t="n">
-        <v>0.9999044469068267</v>
+        <v>0.9997843900719675</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -3935,87 +3935,87 @@
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT47840.fa</t>
+          <t>even_MAG-GUT47676.fa</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0.06374298686927386</v>
+        <v>2.259252259929472e-05</v>
       </c>
       <c r="C110" t="n">
-        <v>0.4761750262834238</v>
+        <v>7.296057055191766e-05</v>
       </c>
       <c r="D110" t="n">
-        <v>1.580255576834762e-13</v>
+        <v>2.220394492023193e-14</v>
       </c>
       <c r="E110" t="n">
-        <v>0.4600819868471442</v>
+        <v>0.9999044469068267</v>
       </c>
       <c r="F110" t="n">
-        <v>0.4761750262834238</v>
+        <v>0.9999044469068267</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>f__Megasphaeraceae</t>
+          <t>f__Veillonellaceae</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>f__Megasphaeraceae</t>
+          <t>f__Veillonellaceae</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT47922.fa</t>
+          <t>even_MAG-GUT47840.fa</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>3.421522483960817e-05</v>
+        <v>0.06374298686927386</v>
       </c>
       <c r="C111" t="n">
-        <v>3.008112593210397e-05</v>
+        <v>0.4761750262834238</v>
       </c>
       <c r="D111" t="n">
-        <v>2.220410928431446e-14</v>
+        <v>1.580255576834762e-13</v>
       </c>
       <c r="E111" t="n">
-        <v>0.9999357036492061</v>
+        <v>0.4600819868471442</v>
       </c>
       <c r="F111" t="n">
-        <v>0.9999357036492061</v>
+        <v>0.4761750262834238</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>f__Veillonellaceae</t>
+          <t>f__Megasphaeraceae</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>f__Veillonellaceae</t>
+          <t>f__Megasphaeraceae(reject)</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48190.fa</t>
+          <t>even_MAG-GUT47922.fa</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>2.545366842793691e-05</v>
+        <v>3.421522483960817e-05</v>
       </c>
       <c r="C112" t="n">
-        <v>0.000159939172430242</v>
+        <v>3.008112593210397e-05</v>
       </c>
       <c r="D112" t="n">
-        <v>2.220348429641168e-14</v>
+        <v>2.220410928431446e-14</v>
       </c>
       <c r="E112" t="n">
-        <v>0.9998146071591197</v>
+        <v>0.9999357036492061</v>
       </c>
       <c r="F112" t="n">
-        <v>0.9998146071591197</v>
+        <v>0.9999357036492061</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -4031,23 +4031,23 @@
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48247.fa</t>
+          <t>even_MAG-GUT48190.fa</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0.0001244865877888021</v>
+        <v>2.545366842793691e-05</v>
       </c>
       <c r="C113" t="n">
-        <v>3.622958969968093e-05</v>
+        <v>0.000159939172430242</v>
       </c>
       <c r="D113" t="n">
-        <v>2.220358265968828e-14</v>
+        <v>2.220348429641168e-14</v>
       </c>
       <c r="E113" t="n">
-        <v>0.9998392838224893</v>
+        <v>0.9998146071591197</v>
       </c>
       <c r="F113" t="n">
-        <v>0.9998392838224893</v>
+        <v>0.9998146071591197</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -4063,23 +4063,23 @@
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48628.fa</t>
+          <t>even_MAG-GUT48247.fa</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>4.759367516607342e-05</v>
+        <v>0.0001244865877888021</v>
       </c>
       <c r="C114" t="n">
-        <v>4.71847176194636e-05</v>
+        <v>3.622958969968093e-05</v>
       </c>
       <c r="D114" t="n">
-        <v>2.220395105312927e-14</v>
+        <v>2.220358265968828e-14</v>
       </c>
       <c r="E114" t="n">
-        <v>0.9999052216071923</v>
+        <v>0.9998392838224893</v>
       </c>
       <c r="F114" t="n">
-        <v>0.9999052216071923</v>
+        <v>0.9998392838224893</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -4095,23 +4095,23 @@
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48630.fa</t>
+          <t>even_MAG-GUT48628.fa</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>7.535307529132924e-05</v>
+        <v>4.759367516607342e-05</v>
       </c>
       <c r="C115" t="n">
-        <v>1.075580795419552e-05</v>
+        <v>4.71847176194636e-05</v>
       </c>
       <c r="D115" t="n">
-        <v>2.220398698629983e-14</v>
+        <v>2.220395105312927e-14</v>
       </c>
       <c r="E115" t="n">
-        <v>0.9999138911167322</v>
+        <v>0.9999052216071923</v>
       </c>
       <c r="F115" t="n">
-        <v>0.9999138911167322</v>
+        <v>0.9999052216071923</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -4127,23 +4127,23 @@
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48634.fa</t>
+          <t>even_MAG-GUT48630.fa</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0.000137483797122334</v>
+        <v>7.535307529132924e-05</v>
       </c>
       <c r="C116" t="n">
-        <v>0.0002460761270967891</v>
+        <v>1.075580795419552e-05</v>
       </c>
       <c r="D116" t="n">
-        <v>2.22023664422647e-14</v>
+        <v>2.220398698629983e-14</v>
       </c>
       <c r="E116" t="n">
-        <v>0.9996164400757588</v>
+        <v>0.9999138911167322</v>
       </c>
       <c r="F116" t="n">
-        <v>0.9996164400757588</v>
+        <v>0.9999138911167322</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -4159,23 +4159,23 @@
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48635.fa</t>
+          <t>even_MAG-GUT48634.fa</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0.0004698407630953871</v>
+        <v>0.000137483797122334</v>
       </c>
       <c r="C117" t="n">
-        <v>9.324300145713043e-06</v>
+        <v>0.0002460761270967891</v>
       </c>
       <c r="D117" t="n">
-        <v>2.220181163548421e-14</v>
+        <v>2.22023664422647e-14</v>
       </c>
       <c r="E117" t="n">
-        <v>0.9995208349367368</v>
+        <v>0.9996164400757588</v>
       </c>
       <c r="F117" t="n">
-        <v>0.9995208349367368</v>
+        <v>0.9996164400757588</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -4191,23 +4191,23 @@
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48651.fa</t>
+          <t>even_MAG-GUT48635.fa</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>6.652975764947274e-05</v>
+        <v>0.0004698407630953871</v>
       </c>
       <c r="C118" t="n">
-        <v>2.40344687593326e-06</v>
+        <v>9.324300145713043e-06</v>
       </c>
       <c r="D118" t="n">
-        <v>2.220407961883813e-14</v>
+        <v>2.220181163548421e-14</v>
       </c>
       <c r="E118" t="n">
-        <v>0.9999310667954523</v>
+        <v>0.9995208349367368</v>
       </c>
       <c r="F118" t="n">
-        <v>0.9999310667954523</v>
+        <v>0.9995208349367368</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -4223,23 +4223,23 @@
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48654.fa</t>
+          <t>even_MAG-GUT48651.fa</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>1.619125850787748e-05</v>
+        <v>6.652975764947274e-05</v>
       </c>
       <c r="C119" t="n">
-        <v>6.225867502080368e-06</v>
+        <v>2.40344687593326e-06</v>
       </c>
       <c r="D119" t="n">
-        <v>2.220433712067791e-14</v>
+        <v>2.220407961883813e-14</v>
       </c>
       <c r="E119" t="n">
-        <v>0.9999775828739679</v>
+        <v>0.9999310667954523</v>
       </c>
       <c r="F119" t="n">
-        <v>0.9999775828739679</v>
+        <v>0.9999310667954523</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -4255,23 +4255,23 @@
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48684.fa</t>
+          <t>even_MAG-GUT48654.fa</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>1.969012536076454e-05</v>
+        <v>1.619125850787748e-05</v>
       </c>
       <c r="C120" t="n">
-        <v>1.894179263076886e-06</v>
+        <v>6.225867502080368e-06</v>
       </c>
       <c r="D120" t="n">
-        <v>2.22043415468429e-14</v>
+        <v>2.220433712067791e-14</v>
       </c>
       <c r="E120" t="n">
-        <v>0.999978415695354</v>
+        <v>0.9999775828739679</v>
       </c>
       <c r="F120" t="n">
-        <v>0.999978415695354</v>
+        <v>0.9999775828739679</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -4287,23 +4287,23 @@
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48694.fa</t>
+          <t>even_MAG-GUT48684.fa</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>3.463130452663109e-05</v>
+        <v>1.969012536076454e-05</v>
       </c>
       <c r="C121" t="n">
-        <v>3.135649340709423e-06</v>
+        <v>1.894179263076886e-06</v>
       </c>
       <c r="D121" t="n">
-        <v>2.220425288269582e-14</v>
+        <v>2.22043415468429e-14</v>
       </c>
       <c r="E121" t="n">
-        <v>0.9999622330461105</v>
+        <v>0.999978415695354</v>
       </c>
       <c r="F121" t="n">
-        <v>0.9999622330461105</v>
+        <v>0.999978415695354</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -4319,23 +4319,23 @@
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48733.fa</t>
+          <t>even_MAG-GUT48694.fa</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>8.344284917717535e-05</v>
+        <v>3.463130452663109e-05</v>
       </c>
       <c r="C122" t="n">
-        <v>0.000105272945672046</v>
+        <v>3.135649340709423e-06</v>
       </c>
       <c r="D122" t="n">
-        <v>2.220343954117202e-14</v>
+        <v>2.220425288269582e-14</v>
       </c>
       <c r="E122" t="n">
-        <v>0.9998112842051285</v>
+        <v>0.9999622330461105</v>
       </c>
       <c r="F122" t="n">
-        <v>0.9998112842051285</v>
+        <v>0.9999622330461105</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -4351,23 +4351,23 @@
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48779.fa</t>
+          <t>even_MAG-GUT48733.fa</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0.0002807902002362032</v>
+        <v>8.344284917717535e-05</v>
       </c>
       <c r="C123" t="n">
-        <v>6.258436494262929e-08</v>
+        <v>0.000105272945672046</v>
       </c>
       <c r="D123" t="n">
-        <v>7.811270171284598e-13</v>
+        <v>2.220343954117202e-14</v>
       </c>
       <c r="E123" t="n">
-        <v>0.9997191472146179</v>
+        <v>0.9998112842051285</v>
       </c>
       <c r="F123" t="n">
-        <v>0.9997191472146179</v>
+        <v>0.9998112842051285</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
@@ -4383,23 +4383,23 @@
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48825.fa</t>
+          <t>even_MAG-GUT48779.fa</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>3.795108788174773e-06</v>
+        <v>0.0002807902002362032</v>
       </c>
       <c r="C124" t="n">
-        <v>5.478057715502231e-07</v>
+        <v>6.258436494262929e-08</v>
       </c>
       <c r="D124" t="n">
-        <v>1.236199193217434e-13</v>
+        <v>7.811270171284598e-13</v>
       </c>
       <c r="E124" t="n">
-        <v>0.9999956570853166</v>
+        <v>0.9997191472146179</v>
       </c>
       <c r="F124" t="n">
-        <v>0.9999956570853166</v>
+        <v>0.9997191472146179</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
@@ -4415,23 +4415,23 @@
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48863.fa</t>
+          <t>even_MAG-GUT48825.fa</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>7.984432353154472e-05</v>
+        <v>3.795108788174773e-06</v>
       </c>
       <c r="C125" t="n">
-        <v>1.011920388759981e-05</v>
+        <v>5.478057715502231e-07</v>
       </c>
       <c r="D125" t="n">
-        <v>2.220396592353543e-14</v>
+        <v>1.236199193217434e-13</v>
       </c>
       <c r="E125" t="n">
-        <v>0.9999100364725587</v>
+        <v>0.9999956570853166</v>
       </c>
       <c r="F125" t="n">
-        <v>0.9999100364725587</v>
+        <v>0.9999956570853166</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -4447,23 +4447,23 @@
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48902.fa</t>
+          <t>even_MAG-GUT48863.fa</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>0.0003312051235342592</v>
+        <v>7.984432353154472e-05</v>
       </c>
       <c r="C126" t="n">
-        <v>9.463487125451666e-06</v>
+        <v>1.011920388759981e-05</v>
       </c>
       <c r="D126" t="n">
-        <v>7.029556864742967e-14</v>
+        <v>2.220396592353543e-14</v>
       </c>
       <c r="E126" t="n">
-        <v>0.9996593313892701</v>
+        <v>0.9999100364725587</v>
       </c>
       <c r="F126" t="n">
-        <v>0.9996593313892701</v>
+        <v>0.9999100364725587</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -4479,23 +4479,23 @@
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48923.fa</t>
+          <t>even_MAG-GUT48902.fa</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>2.707844280998343e-05</v>
+        <v>0.0003312051235342592</v>
       </c>
       <c r="C127" t="n">
-        <v>4.846596964498116e-05</v>
+        <v>9.463487125451666e-06</v>
       </c>
       <c r="D127" t="n">
-        <v>2.220405186920488e-14</v>
+        <v>7.029556864742967e-14</v>
       </c>
       <c r="E127" t="n">
-        <v>0.9999244555875227</v>
+        <v>0.9996593313892701</v>
       </c>
       <c r="F127" t="n">
-        <v>0.9999244555875227</v>
+        <v>0.9996593313892701</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
@@ -4511,23 +4511,23 @@
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48943.fa</t>
+          <t>even_MAG-GUT48923.fa</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>7.385707378727316e-05</v>
+        <v>2.707844280998343e-05</v>
       </c>
       <c r="C128" t="n">
-        <v>0.0002065999432107159</v>
+        <v>4.846596964498116e-05</v>
       </c>
       <c r="D128" t="n">
-        <v>2.220295916774009e-14</v>
+        <v>2.220405186920488e-14</v>
       </c>
       <c r="E128" t="n">
-        <v>0.9997195429829797</v>
+        <v>0.9999244555875227</v>
       </c>
       <c r="F128" t="n">
-        <v>0.9997195429829797</v>
+        <v>0.9999244555875227</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
@@ -4543,23 +4543,23 @@
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48957.fa</t>
+          <t>even_MAG-GUT48943.fa</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>3.732325961205909e-05</v>
+        <v>7.385707378727316e-05</v>
       </c>
       <c r="C129" t="n">
-        <v>0.0001044551428901496</v>
+        <v>0.0002065999432107159</v>
       </c>
       <c r="D129" t="n">
-        <v>2.220368391503395e-14</v>
+        <v>2.220295916774009e-14</v>
       </c>
       <c r="E129" t="n">
-        <v>0.9998582215974756</v>
+        <v>0.9997195429829797</v>
       </c>
       <c r="F129" t="n">
-        <v>0.9998582215974756</v>
+        <v>0.9997195429829797</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
@@ -4575,23 +4575,23 @@
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48959.fa</t>
+          <t>even_MAG-GUT48949.fa</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>8.455606905567217e-06</v>
+        <v>0.001470264368568273</v>
       </c>
       <c r="C130" t="n">
-        <v>2.022849228453566e-06</v>
+        <v>7.848807239029833e-05</v>
       </c>
       <c r="D130" t="n">
-        <v>2.220440358215011e-14</v>
+        <v>4.17268015869601e-14</v>
       </c>
       <c r="E130" t="n">
-        <v>0.9999895215438438</v>
+        <v>0.9984512475589996</v>
       </c>
       <c r="F130" t="n">
-        <v>0.9999895215438438</v>
+        <v>0.9984512475589996</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
@@ -4607,23 +4607,23 @@
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48964.fa</t>
+          <t>even_MAG-GUT48957.fa</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>0.0002857259307873604</v>
+        <v>3.732325961205909e-05</v>
       </c>
       <c r="C131" t="n">
-        <v>1.438129378749222e-05</v>
+        <v>0.0001044551428901496</v>
       </c>
       <c r="D131" t="n">
-        <v>2.220281389787413e-14</v>
+        <v>2.220368391503395e-14</v>
       </c>
       <c r="E131" t="n">
-        <v>0.9996998927754029</v>
+        <v>0.9998582215974756</v>
       </c>
       <c r="F131" t="n">
-        <v>0.9996998927754029</v>
+        <v>0.9998582215974756</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
@@ -4639,23 +4639,23 @@
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48986.fa</t>
+          <t>even_MAG-GUT48959.fa</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>3.225156631596423e-06</v>
+        <v>8.455606905567217e-06</v>
       </c>
       <c r="C132" t="n">
-        <v>9.440246071974256e-07</v>
+        <v>2.022849228453566e-06</v>
       </c>
       <c r="D132" t="n">
-        <v>2.220443798824548e-14</v>
+        <v>2.220440358215011e-14</v>
       </c>
       <c r="E132" t="n">
-        <v>0.999995830818739</v>
+        <v>0.9999895215438438</v>
       </c>
       <c r="F132" t="n">
-        <v>0.999995830818739</v>
+        <v>0.9999895215438438</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
@@ -4671,23 +4671,23 @@
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49003.fa</t>
+          <t>even_MAG-GUT48964.fa</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>1.635326417746441e-05</v>
+        <v>0.0002857259307873604</v>
       </c>
       <c r="C133" t="n">
-        <v>1.190564727085763e-05</v>
+        <v>1.438129378749222e-05</v>
       </c>
       <c r="D133" t="n">
-        <v>2.220430500221995e-14</v>
+        <v>2.220281389787413e-14</v>
       </c>
       <c r="E133" t="n">
-        <v>0.9999717410885294</v>
+        <v>0.9996998927754029</v>
       </c>
       <c r="F133" t="n">
-        <v>0.9999717410885294</v>
+        <v>0.9996998927754029</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -4703,23 +4703,23 @@
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49011.fa</t>
+          <t>even_MAG-GUT48986.fa</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>0.0001286310585564424</v>
+        <v>3.225156631596423e-06</v>
       </c>
       <c r="C134" t="n">
-        <v>2.324332778836738e-05</v>
+        <v>9.440246071974256e-07</v>
       </c>
       <c r="D134" t="n">
-        <v>2.220363995957219e-14</v>
+        <v>2.220443798824548e-14</v>
       </c>
       <c r="E134" t="n">
-        <v>0.9998481256136329</v>
+        <v>0.999995830818739</v>
       </c>
       <c r="F134" t="n">
-        <v>0.9998481256136329</v>
+        <v>0.999995830818739</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -4735,23 +4735,23 @@
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49026.fa</t>
+          <t>even_MAG-GUT49003.fa</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>1.047531406525057e-05</v>
+        <v>1.635326417746441e-05</v>
       </c>
       <c r="C135" t="n">
-        <v>0.0002016553399081152</v>
+        <v>1.190564727085763e-05</v>
       </c>
       <c r="D135" t="n">
-        <v>2.220331238217363e-14</v>
+        <v>2.220430500221995e-14</v>
       </c>
       <c r="E135" t="n">
-        <v>0.9997878693460043</v>
+        <v>0.9999717410885294</v>
       </c>
       <c r="F135" t="n">
-        <v>0.9997878693460043</v>
+        <v>0.9999717410885294</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -4767,23 +4767,23 @@
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49035.fa</t>
+          <t>even_MAG-GUT49011.fa</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>0.0001424600557623287</v>
+        <v>0.0001286310585564424</v>
       </c>
       <c r="C136" t="n">
-        <v>7.505733468821309e-05</v>
+        <v>2.324332778836738e-05</v>
       </c>
       <c r="D136" t="n">
-        <v>2.220329165095132e-14</v>
+        <v>2.220363995957219e-14</v>
       </c>
       <c r="E136" t="n">
-        <v>0.9997824826095272</v>
+        <v>0.9998481256136329</v>
       </c>
       <c r="F136" t="n">
-        <v>0.9997824826095272</v>
+        <v>0.9998481256136329</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -4799,23 +4799,23 @@
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49036.fa</t>
+          <t>even_MAG-GUT49026.fa</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>9.505104375381938e-05</v>
+        <v>1.047531406525057e-05</v>
       </c>
       <c r="C137" t="n">
-        <v>9.335735476146241e-06</v>
+        <v>0.0002016553399081152</v>
       </c>
       <c r="D137" t="n">
-        <v>2.220390098537678e-14</v>
+        <v>2.220331238217363e-14</v>
       </c>
       <c r="E137" t="n">
-        <v>0.9998956132207477</v>
+        <v>0.9997878693460043</v>
       </c>
       <c r="F137" t="n">
-        <v>0.9998956132207477</v>
+        <v>0.9997878693460043</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -4831,23 +4831,23 @@
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49203.fa</t>
+          <t>even_MAG-GUT49035.fa</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>0.0001702542447314596</v>
+        <v>0.0001424600557623287</v>
       </c>
       <c r="C138" t="n">
-        <v>0.0002035392988670225</v>
+        <v>7.505733468821309e-05</v>
       </c>
       <c r="D138" t="n">
-        <v>2.22024789000127e-14</v>
+        <v>2.220329165095132e-14</v>
       </c>
       <c r="E138" t="n">
-        <v>0.9996262064563792</v>
+        <v>0.9997824826095272</v>
       </c>
       <c r="F138" t="n">
-        <v>0.9996262064563792</v>
+        <v>0.9997824826095272</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -4863,23 +4863,23 @@
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49266.fa</t>
+          <t>even_MAG-GUT49036.fa</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>0.0001077619724322521</v>
+        <v>9.505104375381938e-05</v>
       </c>
       <c r="C139" t="n">
-        <v>3.68883505713701e-06</v>
+        <v>9.335735476146241e-06</v>
       </c>
       <c r="D139" t="n">
-        <v>2.220386774502054e-14</v>
+        <v>2.220390098537678e-14</v>
       </c>
       <c r="E139" t="n">
-        <v>0.9998885491924884</v>
+        <v>0.9998956132207477</v>
       </c>
       <c r="F139" t="n">
-        <v>0.9998885491924884</v>
+        <v>0.9998956132207477</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -4895,23 +4895,23 @@
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49294.fa</t>
+          <t>even_MAG-GUT49203.fa</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>0.0001859515305891828</v>
+        <v>0.0001702542447314596</v>
       </c>
       <c r="C140" t="n">
-        <v>4.106716910541964e-05</v>
+        <v>0.0002035392988670225</v>
       </c>
       <c r="D140" t="n">
-        <v>1.447202274505823e-13</v>
+        <v>2.22024789000127e-14</v>
       </c>
       <c r="E140" t="n">
-        <v>0.9997729813001607</v>
+        <v>0.9996262064563792</v>
       </c>
       <c r="F140" t="n">
-        <v>0.9997729813001607</v>
+        <v>0.9996262064563792</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -4927,23 +4927,23 @@
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49309.fa</t>
+          <t>even_MAG-GUT49266.fa</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>0.0001335917318932986</v>
+        <v>0.0001077619724322521</v>
       </c>
       <c r="C141" t="n">
-        <v>2.851421864620549e-06</v>
+        <v>3.68883505713701e-06</v>
       </c>
       <c r="D141" t="n">
-        <v>2.220371162257474e-14</v>
+        <v>2.220386774502054e-14</v>
       </c>
       <c r="E141" t="n">
-        <v>0.9998635568462199</v>
+        <v>0.9998885491924884</v>
       </c>
       <c r="F141" t="n">
-        <v>0.9998635568462199</v>
+        <v>0.9998885491924884</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -4959,23 +4959,23 @@
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49328.fa</t>
+          <t>even_MAG-GUT49294.fa</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>0.0008029350273724531</v>
+        <v>0.0001859515305891828</v>
       </c>
       <c r="C142" t="n">
-        <v>0.0007045934525135601</v>
+        <v>4.106716910541964e-05</v>
       </c>
       <c r="D142" t="n">
-        <v>2.219820807321797e-14</v>
+        <v>1.447202274505823e-13</v>
       </c>
       <c r="E142" t="n">
-        <v>0.9984924715200918</v>
+        <v>0.9997729813001607</v>
       </c>
       <c r="F142" t="n">
-        <v>0.9984924715200918</v>
+        <v>0.9997729813001607</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -4991,23 +4991,23 @@
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49355.fa</t>
+          <t>even_MAG-GUT49309.fa</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>2.887502068907825e-06</v>
+        <v>0.0001335917318932986</v>
       </c>
       <c r="C143" t="n">
-        <v>4.161683668438772e-05</v>
+        <v>2.851421864620549e-06</v>
       </c>
       <c r="D143" t="n">
-        <v>2.220421921368305e-14</v>
+        <v>2.220371162257474e-14</v>
       </c>
       <c r="E143" t="n">
-        <v>0.9999554956612244</v>
+        <v>0.9998635568462199</v>
       </c>
       <c r="F143" t="n">
-        <v>0.9999554956612244</v>
+        <v>0.9998635568462199</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -5023,23 +5023,23 @@
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49371.fa</t>
+          <t>even_MAG-GUT49328.fa</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>0.0001093939804196734</v>
+        <v>0.0008029350273724531</v>
       </c>
       <c r="C144" t="n">
-        <v>7.096230311454097e-06</v>
+        <v>0.0007045934525135601</v>
       </c>
       <c r="D144" t="n">
-        <v>2.220381934067858e-14</v>
+        <v>2.219820807321797e-14</v>
       </c>
       <c r="E144" t="n">
-        <v>0.9998835097892466</v>
+        <v>0.9984924715200918</v>
       </c>
       <c r="F144" t="n">
-        <v>0.9998835097892466</v>
+        <v>0.9984924715200918</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -5055,23 +5055,23 @@
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49399.fa</t>
+          <t>even_MAG-GUT49355.fa</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>3.689008701123789e-05</v>
+        <v>2.887502068907825e-06</v>
       </c>
       <c r="C145" t="n">
-        <v>9.749994746988061e-06</v>
+        <v>4.161683668438772e-05</v>
       </c>
       <c r="D145" t="n">
-        <v>2.220420467733856e-14</v>
+        <v>2.220421921368305e-14</v>
       </c>
       <c r="E145" t="n">
-        <v>0.9999533599182197</v>
+        <v>0.9999554956612244</v>
       </c>
       <c r="F145" t="n">
-        <v>0.9999533599182197</v>
+        <v>0.9999554956612244</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -5087,23 +5087,23 @@
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49414.fa</t>
+          <t>even_MAG-GUT49371.fa</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>0.0001134720903298063</v>
+        <v>0.0001093939804196734</v>
       </c>
       <c r="C146" t="n">
-        <v>6.01074605252629e-06</v>
+        <v>7.096230311454097e-06</v>
       </c>
       <c r="D146" t="n">
-        <v>2.220382492760403e-14</v>
+        <v>2.220381934067858e-14</v>
       </c>
       <c r="E146" t="n">
-        <v>0.9998805171635954</v>
+        <v>0.9998835097892466</v>
       </c>
       <c r="F146" t="n">
-        <v>0.9998805171635954</v>
+        <v>0.9998835097892466</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
@@ -5119,23 +5119,23 @@
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49474.fa</t>
+          <t>even_MAG-GUT49399.fa</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>5.73477815718062e-05</v>
+        <v>3.689008701123789e-05</v>
       </c>
       <c r="C147" t="n">
-        <v>0.0004567262161570765</v>
+        <v>9.749994746988061e-06</v>
       </c>
       <c r="D147" t="n">
-        <v>2.220258969347308e-14</v>
+        <v>2.220420467733856e-14</v>
       </c>
       <c r="E147" t="n">
-        <v>0.9994859260022489</v>
+        <v>0.9999533599182197</v>
       </c>
       <c r="F147" t="n">
-        <v>0.9994859260022489</v>
+        <v>0.9999533599182197</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -5151,23 +5151,23 @@
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49516.fa</t>
+          <t>even_MAG-GUT49414.fa</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>3.410161134247851e-05</v>
+        <v>0.0001134720903298063</v>
       </c>
       <c r="C148" t="n">
-        <v>4.908912465916896e-06</v>
+        <v>6.01074605252629e-06</v>
       </c>
       <c r="D148" t="n">
-        <v>2.220424520904004e-14</v>
+        <v>2.220382492760403e-14</v>
       </c>
       <c r="E148" t="n">
-        <v>0.9999609894761694</v>
+        <v>0.9998805171635954</v>
       </c>
       <c r="F148" t="n">
-        <v>0.9999609894761694</v>
+        <v>0.9998805171635954</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -5183,23 +5183,23 @@
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49534.fa</t>
+          <t>even_MAG-GUT49474.fa</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>1.085070527672221e-05</v>
+        <v>5.73477815718062e-05</v>
       </c>
       <c r="C149" t="n">
-        <v>8.370336624024447e-05</v>
+        <v>0.0004567262161570765</v>
       </c>
       <c r="D149" t="n">
-        <v>2.220395527176058e-14</v>
+        <v>2.220258969347308e-14</v>
       </c>
       <c r="E149" t="n">
-        <v>0.9999054459284608</v>
+        <v>0.9994859260022489</v>
       </c>
       <c r="F149" t="n">
-        <v>0.9999054459284608</v>
+        <v>0.9994859260022489</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -5215,23 +5215,23 @@
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49545.fa</t>
+          <t>even_MAG-GUT49516.fa</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>0.0001016012054052652</v>
+        <v>3.410161134247851e-05</v>
       </c>
       <c r="C150" t="n">
-        <v>1.03605377827323e-05</v>
+        <v>4.908912465916896e-06</v>
       </c>
       <c r="D150" t="n">
-        <v>2.220385368521793e-14</v>
+        <v>2.220424520904004e-14</v>
       </c>
       <c r="E150" t="n">
-        <v>0.9998880382567898</v>
+        <v>0.9999609894761694</v>
       </c>
       <c r="F150" t="n">
-        <v>0.9998880382567898</v>
+        <v>0.9999609894761694</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -5247,23 +5247,23 @@
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49558.fa</t>
+          <t>even_MAG-GUT49534.fa</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>4.56263905538647e-05</v>
+        <v>1.085070527672221e-05</v>
       </c>
       <c r="C151" t="n">
-        <v>3.091816178050217e-05</v>
+        <v>8.370336624024447e-05</v>
       </c>
       <c r="D151" t="n">
-        <v>2.220407401248177e-14</v>
+        <v>2.220395527176058e-14</v>
       </c>
       <c r="E151" t="n">
-        <v>0.9999234554476435</v>
+        <v>0.9999054459284608</v>
       </c>
       <c r="F151" t="n">
-        <v>0.9999234554476435</v>
+        <v>0.9999054459284608</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
@@ -5279,23 +5279,23 @@
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49568.fa</t>
+          <t>even_MAG-GUT49545.fa</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>5.328106520555295e-05</v>
+        <v>0.0001016012054052652</v>
       </c>
       <c r="C152" t="n">
-        <v>0.0001920162809186271</v>
+        <v>1.03605377827323e-05</v>
       </c>
       <c r="D152" t="n">
-        <v>2.220314515267798e-14</v>
+        <v>2.220385368521793e-14</v>
       </c>
       <c r="E152" t="n">
-        <v>0.9997547026538536</v>
+        <v>0.9998880382567898</v>
       </c>
       <c r="F152" t="n">
-        <v>0.9997547026538536</v>
+        <v>0.9998880382567898</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
@@ -5311,23 +5311,23 @@
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49571.fa</t>
+          <t>even_MAG-GUT49558.fa</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>0.0002540269947701027</v>
+        <v>4.56263905538647e-05</v>
       </c>
       <c r="C153" t="n">
-        <v>0.0001175583026299095</v>
+        <v>3.091816178050217e-05</v>
       </c>
       <c r="D153" t="n">
-        <v>2.220269019231823e-14</v>
+        <v>2.220407401248177e-14</v>
       </c>
       <c r="E153" t="n">
-        <v>0.9996284147025778</v>
+        <v>0.9999234554476435</v>
       </c>
       <c r="F153" t="n">
-        <v>0.9996284147025778</v>
+        <v>0.9999234554476435</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
@@ -5343,23 +5343,23 @@
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49576.fa</t>
+          <t>even_MAG-GUT49568.fa</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>1.986959865359012e-05</v>
+        <v>5.328106520555295e-05</v>
       </c>
       <c r="C154" t="n">
-        <v>1.679370115565209e-05</v>
+        <v>0.0001920162809186271</v>
       </c>
       <c r="D154" t="n">
-        <v>2.22042730540487e-14</v>
+        <v>2.220314515267798e-14</v>
       </c>
       <c r="E154" t="n">
-        <v>0.9999633367001686</v>
+        <v>0.9997547026538536</v>
       </c>
       <c r="F154" t="n">
-        <v>0.9999633367001686</v>
+        <v>0.9997547026538536</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -5375,23 +5375,23 @@
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49583.fa</t>
+          <t>even_MAG-GUT49571.fa</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>1.539547176567304e-05</v>
+        <v>0.0002540269947701027</v>
       </c>
       <c r="C155" t="n">
-        <v>0.0001611755985237779</v>
+        <v>0.0001175583026299095</v>
       </c>
       <c r="D155" t="n">
-        <v>2.220348529753659e-14</v>
+        <v>2.220269019231823e-14</v>
       </c>
       <c r="E155" t="n">
-        <v>0.9998234289296883</v>
+        <v>0.9996284147025778</v>
       </c>
       <c r="F155" t="n">
-        <v>0.9998234289296883</v>
+        <v>0.9996284147025778</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -5407,23 +5407,23 @@
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49589.fa</t>
+          <t>even_MAG-GUT49576.fa</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>5.151351585249541e-06</v>
+        <v>1.986959865359012e-05</v>
       </c>
       <c r="C156" t="n">
-        <v>5.905008717147057e-06</v>
+        <v>1.679370115565209e-05</v>
       </c>
       <c r="D156" t="n">
-        <v>2.220439980586117e-14</v>
+        <v>2.22042730540487e-14</v>
       </c>
       <c r="E156" t="n">
-        <v>0.9999889436396754</v>
+        <v>0.9999633367001686</v>
       </c>
       <c r="F156" t="n">
-        <v>0.9999889436396754</v>
+        <v>0.9999633367001686</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -5439,23 +5439,23 @@
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49596.fa</t>
+          <t>even_MAG-GUT49583.fa</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>0.0001550741832169828</v>
+        <v>1.539547176567304e-05</v>
       </c>
       <c r="C157" t="n">
-        <v>2.555949870622824e-06</v>
+        <v>0.0001611755985237779</v>
       </c>
       <c r="D157" t="n">
-        <v>2.220359259566099e-14</v>
+        <v>2.220348529753659e-14</v>
       </c>
       <c r="E157" t="n">
-        <v>0.9998423698668902</v>
+        <v>0.9998234289296883</v>
       </c>
       <c r="F157" t="n">
-        <v>0.9998423698668902</v>
+        <v>0.9998234289296883</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -5471,23 +5471,23 @@
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49597.fa</t>
+          <t>even_MAG-GUT49589.fa</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>4.969832099677101e-06</v>
+        <v>5.151351585249541e-06</v>
       </c>
       <c r="C158" t="n">
-        <v>2.673009468123383e-06</v>
+        <v>5.905008717147057e-06</v>
       </c>
       <c r="D158" t="n">
-        <v>2.220441822982925e-14</v>
+        <v>2.220439980586117e-14</v>
       </c>
       <c r="E158" t="n">
-        <v>0.99999235715841</v>
+        <v>0.9999889436396754</v>
       </c>
       <c r="F158" t="n">
-        <v>0.99999235715841</v>
+        <v>0.9999889436396754</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -5503,23 +5503,23 @@
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49604.fa</t>
+          <t>even_MAG-GUT49596.fa</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>4.178499002134423e-05</v>
+        <v>0.0001550741832169828</v>
       </c>
       <c r="C159" t="n">
-        <v>0.0001466201785212682</v>
+        <v>2.555949870622824e-06</v>
       </c>
       <c r="D159" t="n">
-        <v>2.220346455746918e-14</v>
+        <v>2.220359259566099e-14</v>
       </c>
       <c r="E159" t="n">
-        <v>0.9998115948314351</v>
+        <v>0.9998423698668902</v>
       </c>
       <c r="F159" t="n">
-        <v>0.9998115948314351</v>
+        <v>0.9998423698668902</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -5535,55 +5535,55 @@
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT5004.fa</t>
+          <t>even_MAG-GUT49597.fa</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>5.042260792272213e-05</v>
+        <v>4.969832099677101e-06</v>
       </c>
       <c r="C160" t="n">
-        <v>0.9999493290445368</v>
+        <v>2.673009468123383e-06</v>
       </c>
       <c r="D160" t="n">
-        <v>2.220422104257119e-14</v>
+        <v>2.220441822982925e-14</v>
       </c>
       <c r="E160" t="n">
-        <v>2.483475183354678e-07</v>
+        <v>0.99999235715841</v>
       </c>
       <c r="F160" t="n">
-        <v>0.9999493290445368</v>
+        <v>0.99999235715841</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>f__Megasphaeraceae</t>
+          <t>f__Veillonellaceae</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>f__Megasphaeraceae</t>
+          <t>f__Veillonellaceae</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT5199.fa</t>
+          <t>even_MAG-GUT49604.fa</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>2.789867287940041e-05</v>
+        <v>4.178499002134423e-05</v>
       </c>
       <c r="C161" t="n">
-        <v>2.14972094106927e-05</v>
+        <v>0.0001466201785212682</v>
       </c>
       <c r="D161" t="n">
-        <v>2.220419662348745e-14</v>
+        <v>2.220346455746918e-14</v>
       </c>
       <c r="E161" t="n">
-        <v>0.9999506041176877</v>
+        <v>0.9998115948314351</v>
       </c>
       <c r="F161" t="n">
-        <v>0.9999506041176877</v>
+        <v>0.9998115948314351</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
@@ -5599,215 +5599,215 @@
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT55383.fa</t>
+          <t>even_MAG-GUT5004.fa</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>0.9999999802577767</v>
+        <v>5.042260792272213e-05</v>
       </c>
       <c r="C162" t="n">
-        <v>2.047434068494269e-10</v>
+        <v>0.9999493290445368</v>
       </c>
       <c r="D162" t="n">
-        <v>2.220446038535029e-14</v>
+        <v>2.220422104257119e-14</v>
       </c>
       <c r="E162" t="n">
-        <v>1.95374576501268e-08</v>
+        <v>2.483475183354678e-07</v>
       </c>
       <c r="F162" t="n">
-        <v>0.9999999802577767</v>
+        <v>0.9999493290445368</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>f__Dialisteraceae</t>
+          <t>f__Megasphaeraceae</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>f__Dialisteraceae</t>
+          <t>f__Megasphaeraceae</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT56570.fa</t>
+          <t>even_MAG-GUT5199.fa</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>2.216515904689181e-05</v>
+        <v>2.789867287940041e-05</v>
       </c>
       <c r="C163" t="n">
-        <v>0.9999778334070507</v>
+        <v>2.14972094106927e-05</v>
       </c>
       <c r="D163" t="n">
-        <v>2.220434759681064e-14</v>
+        <v>2.220419662348745e-14</v>
       </c>
       <c r="E163" t="n">
-        <v>1.433880170153411e-09</v>
+        <v>0.9999506041176877</v>
       </c>
       <c r="F163" t="n">
-        <v>0.9999778334070507</v>
+        <v>0.9999506041176877</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>f__Megasphaeraceae</t>
+          <t>f__Veillonellaceae</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>f__Megasphaeraceae</t>
+          <t>f__Veillonellaceae</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT5687.fa</t>
+          <t>even_MAG-GUT54583.fa</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>0.0001650116892462007</v>
+        <v>0.002000970636798425</v>
       </c>
       <c r="C164" t="n">
-        <v>4.065014017993625e-05</v>
+        <v>0.9979962191265593</v>
       </c>
       <c r="D164" t="n">
-        <v>2.220334324456012e-14</v>
+        <v>2.219808495195712e-14</v>
       </c>
       <c r="E164" t="n">
-        <v>0.9997943381705516</v>
+        <v>2.810236620141832e-06</v>
       </c>
       <c r="F164" t="n">
-        <v>0.9997943381705516</v>
+        <v>0.9979962191265593</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>f__Veillonellaceae</t>
+          <t>f__Megasphaeraceae</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>f__Veillonellaceae</t>
+          <t>f__Megasphaeraceae</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT57069.fa</t>
+          <t>even_MAG-GUT55383.fa</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>4.286725643509728e-07</v>
+        <v>0.9999999802577767</v>
       </c>
       <c r="C165" t="n">
-        <v>0.9999979950287956</v>
+        <v>2.047434068494269e-10</v>
       </c>
       <c r="D165" t="n">
-        <v>2.220445759898847e-14</v>
+        <v>2.220446038535029e-14</v>
       </c>
       <c r="E165" t="n">
-        <v>1.576298617876472e-06</v>
+        <v>1.95374576501268e-08</v>
       </c>
       <c r="F165" t="n">
-        <v>0.9999979950287956</v>
+        <v>0.9999999802577767</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>f__Megasphaeraceae</t>
+          <t>f__Dialisteraceae</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>f__Megasphaeraceae</t>
+          <t>f__Dialisteraceae</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT57726.fa</t>
+          <t>even_MAG-GUT56570.fa</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>0.9999997551929382</v>
+        <v>2.216515904689181e-05</v>
       </c>
       <c r="C166" t="n">
-        <v>5.181124592248955e-09</v>
+        <v>0.9999778334070507</v>
       </c>
       <c r="D166" t="n">
-        <v>2.206560601384992e-09</v>
+        <v>2.220434759681064e-14</v>
       </c>
       <c r="E166" t="n">
-        <v>2.374193767350742e-07</v>
+        <v>1.433880170153411e-09</v>
       </c>
       <c r="F166" t="n">
-        <v>0.9999997551929382</v>
+        <v>0.9999778334070507</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>f__Dialisteraceae</t>
+          <t>f__Megasphaeraceae</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>f__Dialisteraceae</t>
+          <t>f__Megasphaeraceae</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT57765.fa</t>
+          <t>even_MAG-GUT5687.fa</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>7.957454564712882e-07</v>
+        <v>0.0001650116892462007</v>
       </c>
       <c r="C167" t="n">
-        <v>0.9999992042015757</v>
+        <v>4.065014017993625e-05</v>
       </c>
       <c r="D167" t="n">
-        <v>2.220445621463977e-14</v>
+        <v>2.220334324456012e-14</v>
       </c>
       <c r="E167" t="n">
-        <v>5.294571464489785e-11</v>
+        <v>0.9997943381705516</v>
       </c>
       <c r="F167" t="n">
-        <v>0.9999992042015757</v>
+        <v>0.9997943381705516</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>f__Megasphaeraceae</t>
+          <t>f__Veillonellaceae</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>f__Megasphaeraceae</t>
+          <t>f__Veillonellaceae</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT59593.fa</t>
+          <t>even_MAG-GUT57069.fa</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>2.704614560871812e-05</v>
+        <v>4.286725643509728e-07</v>
       </c>
       <c r="C168" t="n">
-        <v>0.9999729537995018</v>
+        <v>0.9999979950287956</v>
       </c>
       <c r="D168" t="n">
-        <v>2.220431540496474e-14</v>
+        <v>2.220445759898847e-14</v>
       </c>
       <c r="E168" t="n">
-        <v>5.486721553807535e-11</v>
+        <v>1.576298617876472e-06</v>
       </c>
       <c r="F168" t="n">
-        <v>0.9999729537995018</v>
+        <v>0.9999979950287956</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
@@ -5823,55 +5823,55 @@
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT60756.fa</t>
+          <t>even_MAG-GUT57726.fa</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>2.009100808668184e-05</v>
+        <v>0.9999997551929382</v>
       </c>
       <c r="C169" t="n">
-        <v>0.9999799086039057</v>
+        <v>5.181124592248955e-09</v>
       </c>
       <c r="D169" t="n">
-        <v>2.220435221993228e-14</v>
+        <v>2.206560601384992e-09</v>
       </c>
       <c r="E169" t="n">
-        <v>3.879852883842725e-10</v>
+        <v>2.374193767350742e-07</v>
       </c>
       <c r="F169" t="n">
-        <v>0.9999799086039057</v>
+        <v>0.9999997551929382</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>f__Megasphaeraceae</t>
+          <t>f__Dialisteraceae</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>f__Megasphaeraceae</t>
+          <t>f__Dialisteraceae</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT61634.fa</t>
+          <t>even_MAG-GUT57765.fa</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>2.814622035271958e-07</v>
+        <v>7.957454564712882e-07</v>
       </c>
       <c r="C170" t="n">
-        <v>0.9999930177337852</v>
+        <v>0.9999992042015757</v>
       </c>
       <c r="D170" t="n">
-        <v>2.220443601047692e-14</v>
+        <v>2.220445621463977e-14</v>
       </c>
       <c r="E170" t="n">
-        <v>6.700803989140209e-06</v>
+        <v>5.294571464489785e-11</v>
       </c>
       <c r="F170" t="n">
-        <v>0.9999930177337852</v>
+        <v>0.9999992042015757</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
@@ -5887,23 +5887,23 @@
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT62119.fa</t>
+          <t>even_MAG-GUT59593.fa</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>3.145682424150378e-05</v>
+        <v>2.704614560871812e-05</v>
       </c>
       <c r="C171" t="n">
-        <v>0.9999685430994479</v>
+        <v>0.9999729537995018</v>
       </c>
       <c r="D171" t="n">
-        <v>2.220429021469844e-14</v>
+        <v>2.220431540496474e-14</v>
       </c>
       <c r="E171" t="n">
-        <v>7.628835110236034e-11</v>
+        <v>5.486721553807535e-11</v>
       </c>
       <c r="F171" t="n">
-        <v>0.9999685430994479</v>
+        <v>0.9999729537995018</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -5919,119 +5919,119 @@
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT64345.fa</t>
+          <t>even_MAG-GUT60756.fa</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>4.896313517101342e-05</v>
+        <v>2.009100808668184e-05</v>
       </c>
       <c r="C172" t="n">
-        <v>2.32630866437612e-05</v>
+        <v>0.9999799086039057</v>
       </c>
       <c r="D172" t="n">
-        <v>2.220407440172098e-14</v>
+        <v>2.220435221993228e-14</v>
       </c>
       <c r="E172" t="n">
-        <v>0.9999277737781631</v>
+        <v>3.879852883842725e-10</v>
       </c>
       <c r="F172" t="n">
-        <v>0.9999277737781631</v>
+        <v>0.9999799086039057</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>f__Veillonellaceae</t>
+          <t>f__Megasphaeraceae</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>f__Veillonellaceae</t>
+          <t>f__Megasphaeraceae</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT64513.fa</t>
+          <t>even_MAG-GUT61634.fa</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>4.896313517101342e-05</v>
+        <v>2.814622035271958e-07</v>
       </c>
       <c r="C173" t="n">
-        <v>2.32630866437612e-05</v>
+        <v>0.9999930177337852</v>
       </c>
       <c r="D173" t="n">
-        <v>2.220407440172098e-14</v>
+        <v>2.220443601047692e-14</v>
       </c>
       <c r="E173" t="n">
-        <v>0.9999277737781631</v>
+        <v>6.700803989140209e-06</v>
       </c>
       <c r="F173" t="n">
-        <v>0.9999277737781631</v>
+        <v>0.9999930177337852</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>f__Veillonellaceae</t>
+          <t>f__Megasphaeraceae</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>f__Veillonellaceae</t>
+          <t>f__Megasphaeraceae</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT66953.fa</t>
+          <t>even_MAG-GUT62119.fa</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>5.16743478053957e-05</v>
+        <v>3.145682424150378e-05</v>
       </c>
       <c r="C174" t="n">
-        <v>0.0001037719030803479</v>
+        <v>0.9999685430994479</v>
       </c>
       <c r="D174" t="n">
-        <v>2.220364266677488e-14</v>
+        <v>2.220429021469844e-14</v>
       </c>
       <c r="E174" t="n">
-        <v>0.9998445537490921</v>
+        <v>7.628835110236034e-11</v>
       </c>
       <c r="F174" t="n">
-        <v>0.9998445537490921</v>
+        <v>0.9999685430994479</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>f__Veillonellaceae</t>
+          <t>f__Megasphaeraceae</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>f__Veillonellaceae</t>
+          <t>f__Megasphaeraceae</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT67253.fa</t>
+          <t>even_MAG-GUT64345.fa</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>0.0001373718198438452</v>
+        <v>4.896313517101342e-05</v>
       </c>
       <c r="C175" t="n">
-        <v>1.057332526472353e-06</v>
+        <v>2.32630866437612e-05</v>
       </c>
       <c r="D175" t="n">
-        <v>2.220369450421665e-14</v>
+        <v>2.220407440172098e-14</v>
       </c>
       <c r="E175" t="n">
-        <v>0.9998615708476075</v>
+        <v>0.9999277737781631</v>
       </c>
       <c r="F175" t="n">
-        <v>0.9998615708476075</v>
+        <v>0.9999277737781631</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -6047,23 +6047,23 @@
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT67256.fa</t>
+          <t>even_MAG-GUT64513.fa</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>2.433979793330127e-05</v>
+        <v>4.896313517101342e-05</v>
       </c>
       <c r="C176" t="n">
-        <v>3.50625283588604e-05</v>
+        <v>2.32630866437612e-05</v>
       </c>
       <c r="D176" t="n">
-        <v>2.220414225088322e-14</v>
+        <v>2.220407440172098e-14</v>
       </c>
       <c r="E176" t="n">
-        <v>0.9999405976736857</v>
+        <v>0.9999277737781631</v>
       </c>
       <c r="F176" t="n">
-        <v>0.9999405976736857</v>
+        <v>0.9999277737781631</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -6079,87 +6079,87 @@
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT67799.fa</t>
+          <t>even_MAG-GUT66378.fa</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>7.849700263817127e-05</v>
+        <v>0.9999986483201817</v>
       </c>
       <c r="C177" t="n">
-        <v>5.288227162043575e-05</v>
+        <v>1.978146157532733e-10</v>
       </c>
       <c r="D177" t="n">
-        <v>2.220375746842468e-14</v>
+        <v>2.220445310241139e-14</v>
       </c>
       <c r="E177" t="n">
-        <v>0.9998686207257191</v>
+        <v>1.351481981398605e-06</v>
       </c>
       <c r="F177" t="n">
-        <v>0.9998686207257191</v>
+        <v>0.9999986483201817</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>f__Veillonellaceae</t>
+          <t>f__Dialisteraceae</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>f__Veillonellaceae</t>
+          <t>f__Dialisteraceae</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68086.fa</t>
+          <t>even_MAG-GUT66382.fa</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>0.0002275585887133203</v>
+        <v>0.9999959586552913</v>
       </c>
       <c r="C178" t="n">
-        <v>2.424264598824716e-05</v>
+        <v>7.900457851643383e-10</v>
       </c>
       <c r="D178" t="n">
-        <v>2.220318030892088e-14</v>
+        <v>2.220443856882866e-14</v>
       </c>
       <c r="E178" t="n">
-        <v>0.9997481987652762</v>
+        <v>4.040554640656816e-06</v>
       </c>
       <c r="F178" t="n">
-        <v>0.9997481987652762</v>
+        <v>0.9999959586552913</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>f__Veillonellaceae</t>
+          <t>f__Dialisteraceae</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>f__Veillonellaceae</t>
+          <t>f__Dialisteraceae</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68216.fa</t>
+          <t>even_MAG-GUT66953.fa</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>0.0001450949791546882</v>
+        <v>5.16743478053957e-05</v>
       </c>
       <c r="C179" t="n">
-        <v>1.592095113160192e-05</v>
+        <v>0.0001037719030803479</v>
       </c>
       <c r="D179" t="n">
-        <v>2.220358197702332e-14</v>
+        <v>2.220364266677488e-14</v>
       </c>
       <c r="E179" t="n">
-        <v>0.9998389840696914</v>
+        <v>0.9998445537490921</v>
       </c>
       <c r="F179" t="n">
-        <v>0.9998389840696914</v>
+        <v>0.9998445537490921</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -6175,23 +6175,23 @@
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68260.fa</t>
+          <t>even_MAG-GUT67253.fa</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>4.863028954575603e-05</v>
+        <v>0.0001373718198438452</v>
       </c>
       <c r="C180" t="n">
-        <v>0.0004000323928965107</v>
+        <v>1.057332526472353e-06</v>
       </c>
       <c r="D180" t="n">
-        <v>2.220208339981183e-14</v>
+        <v>2.220369450421665e-14</v>
       </c>
       <c r="E180" t="n">
-        <v>0.9995513373175355</v>
+        <v>0.9998615708476075</v>
       </c>
       <c r="F180" t="n">
-        <v>0.9995513373175355</v>
+        <v>0.9998615708476075</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -6207,23 +6207,23 @@
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68570.fa</t>
+          <t>even_MAG-GUT67256.fa</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>2.889401154319028e-05</v>
+        <v>2.433979793330127e-05</v>
       </c>
       <c r="C181" t="n">
-        <v>1.265293184527066e-05</v>
+        <v>3.50625283588604e-05</v>
       </c>
       <c r="D181" t="n">
-        <v>2.220423167356264e-14</v>
+        <v>2.220414225088322e-14</v>
       </c>
       <c r="E181" t="n">
-        <v>0.9999584530565895</v>
+        <v>0.9999405976736857</v>
       </c>
       <c r="F181" t="n">
-        <v>0.9999584530565895</v>
+        <v>0.9999405976736857</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -6239,23 +6239,23 @@
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68726.fa</t>
+          <t>even_MAG-GUT67799.fa</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>4.932661084610689e-05</v>
+        <v>7.849700263817127e-05</v>
       </c>
       <c r="C182" t="n">
-        <v>1.182553252935609e-06</v>
+        <v>5.288227162043575e-05</v>
       </c>
       <c r="D182" t="n">
-        <v>2.220418292841406e-14</v>
+        <v>2.220375746842468e-14</v>
       </c>
       <c r="E182" t="n">
-        <v>0.9999494908358787</v>
+        <v>0.9998686207257191</v>
       </c>
       <c r="F182" t="n">
-        <v>0.9999494908358787</v>
+        <v>0.9998686207257191</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -6271,23 +6271,23 @@
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68810.fa</t>
+          <t>even_MAG-GUT68086.fa</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>6.909913052972148e-05</v>
+        <v>0.0002275585887133203</v>
       </c>
       <c r="C183" t="n">
-        <v>1.551512180166018e-05</v>
+        <v>2.424264598824716e-05</v>
       </c>
       <c r="D183" t="n">
-        <v>2.22039984408585e-14</v>
+        <v>2.220318030892088e-14</v>
       </c>
       <c r="E183" t="n">
-        <v>0.9999153857476464</v>
+        <v>0.9997481987652762</v>
       </c>
       <c r="F183" t="n">
-        <v>0.9999153857476464</v>
+        <v>0.9997481987652762</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -6303,23 +6303,23 @@
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68872.fa</t>
+          <t>even_MAG-GUT68216.fa</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>0.0001086169433235499</v>
+        <v>0.0001450949791546882</v>
       </c>
       <c r="C184" t="n">
-        <v>3.957950700385719e-05</v>
+        <v>1.592095113160192e-05</v>
       </c>
       <c r="D184" t="n">
-        <v>2.220365374908285e-14</v>
+        <v>2.220358197702332e-14</v>
       </c>
       <c r="E184" t="n">
-        <v>0.9998518035496504</v>
+        <v>0.9998389840696914</v>
       </c>
       <c r="F184" t="n">
-        <v>0.9998518035496504</v>
+        <v>0.9998389840696914</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -6335,23 +6335,23 @@
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69096.fa</t>
+          <t>even_MAG-GUT68260.fa</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>0.000135151820854023</v>
+        <v>4.863028954575603e-05</v>
       </c>
       <c r="C185" t="n">
-        <v>4.911494558888677e-06</v>
+        <v>0.0004000323928965107</v>
       </c>
       <c r="D185" t="n">
-        <v>2.220368968777689e-14</v>
+        <v>2.220208339981183e-14</v>
       </c>
       <c r="E185" t="n">
-        <v>0.9998599366845649</v>
+        <v>0.9995513373175355</v>
       </c>
       <c r="F185" t="n">
-        <v>0.9998599366845649</v>
+        <v>0.9995513373175355</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -6367,23 +6367,23 @@
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69113.fa</t>
+          <t>even_MAG-GUT68570.fa</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>2.779028663230579e-05</v>
+        <v>2.889401154319028e-05</v>
       </c>
       <c r="C186" t="n">
-        <v>8.000980162974162e-05</v>
+        <v>1.265293184527066e-05</v>
       </c>
       <c r="D186" t="n">
-        <v>2.220387027298855e-14</v>
+        <v>2.220423167356264e-14</v>
       </c>
       <c r="E186" t="n">
-        <v>0.9998921999117159</v>
+        <v>0.9999584530565895</v>
       </c>
       <c r="F186" t="n">
-        <v>0.9998921999117159</v>
+        <v>0.9999584530565895</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -6399,23 +6399,23 @@
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69123.fa</t>
+          <t>even_MAG-GUT68726.fa</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>3.066342678520342e-05</v>
+        <v>4.932661084610689e-05</v>
       </c>
       <c r="C187" t="n">
-        <v>6.755348266730361e-05</v>
+        <v>1.182553252935609e-06</v>
       </c>
       <c r="D187" t="n">
-        <v>2.220393082667366e-14</v>
+        <v>2.220418292841406e-14</v>
       </c>
       <c r="E187" t="n">
-        <v>0.9999017830905254</v>
+        <v>0.9999494908358787</v>
       </c>
       <c r="F187" t="n">
-        <v>0.9999017830905254</v>
+        <v>0.9999494908358787</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
@@ -6431,23 +6431,23 @@
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69144.fa</t>
+          <t>even_MAG-GUT68810.fa</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>4.655483551307623e-05</v>
+        <v>6.909913052972148e-05</v>
       </c>
       <c r="C188" t="n">
-        <v>6.433375778778769e-06</v>
+        <v>1.551512180166018e-05</v>
       </c>
       <c r="D188" t="n">
-        <v>2.220417123455653e-14</v>
+        <v>2.22039984408585e-14</v>
       </c>
       <c r="E188" t="n">
-        <v>0.9999470117886859</v>
+        <v>0.9999153857476464</v>
       </c>
       <c r="F188" t="n">
-        <v>0.9999470117886859</v>
+        <v>0.9999153857476464</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
@@ -6463,23 +6463,23 @@
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69198.fa</t>
+          <t>even_MAG-GUT68872.fa</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>0.0001732262503858243</v>
+        <v>0.0001086169433235499</v>
       </c>
       <c r="C189" t="n">
-        <v>4.073068681514499e-05</v>
+        <v>3.957950700385719e-05</v>
       </c>
       <c r="D189" t="n">
-        <v>2.220335351962735e-14</v>
+        <v>2.220365374908285e-14</v>
       </c>
       <c r="E189" t="n">
-        <v>0.9997860430627769</v>
+        <v>0.9998518035496504</v>
       </c>
       <c r="F189" t="n">
-        <v>0.9997860430627769</v>
+        <v>0.9998518035496504</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
@@ -6495,23 +6495,23 @@
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69367.fa</t>
+          <t>even_MAG-GUT69096.fa</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>8.841720823238746e-05</v>
+        <v>0.000135151820854023</v>
       </c>
       <c r="C190" t="n">
-        <v>2.61702053297001e-05</v>
+        <v>4.911494558888677e-06</v>
       </c>
       <c r="D190" t="n">
-        <v>2.220383549365726e-14</v>
+        <v>2.220368968777689e-14</v>
       </c>
       <c r="E190" t="n">
-        <v>0.9998854125864158</v>
+        <v>0.9998599366845649</v>
       </c>
       <c r="F190" t="n">
-        <v>0.9998854125864158</v>
+        <v>0.9998599366845649</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -6527,23 +6527,23 @@
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69378.fa</t>
+          <t>even_MAG-GUT69113.fa</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>0.0003746143807091857</v>
+        <v>2.779028663230579e-05</v>
       </c>
       <c r="C191" t="n">
-        <v>0.0002298448007681829</v>
+        <v>8.000980162974162e-05</v>
       </c>
       <c r="D191" t="n">
-        <v>2.220128692628631e-14</v>
+        <v>2.220387027298855e-14</v>
       </c>
       <c r="E191" t="n">
-        <v>0.9993955408185005</v>
+        <v>0.9998921999117159</v>
       </c>
       <c r="F191" t="n">
-        <v>0.9993955408185005</v>
+        <v>0.9998921999117159</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -6559,23 +6559,23 @@
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69417.fa</t>
+          <t>even_MAG-GUT69123.fa</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>0.0004425732122824183</v>
+        <v>3.066342678520342e-05</v>
       </c>
       <c r="C192" t="n">
-        <v>0.0008573567022951168</v>
+        <v>6.755348266730361e-05</v>
       </c>
       <c r="D192" t="n">
-        <v>2.219814379999131e-14</v>
+        <v>2.220393082667366e-14</v>
       </c>
       <c r="E192" t="n">
-        <v>0.9987000700854002</v>
+        <v>0.9999017830905254</v>
       </c>
       <c r="F192" t="n">
-        <v>0.9987000700854002</v>
+        <v>0.9999017830905254</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
@@ -6591,23 +6591,23 @@
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69483.fa</t>
+          <t>even_MAG-GUT69144.fa</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>0.0001006757737903528</v>
+        <v>4.655483551307623e-05</v>
       </c>
       <c r="C193" t="n">
-        <v>4.372712889962753e-06</v>
+        <v>6.433375778778769e-06</v>
       </c>
       <c r="D193" t="n">
-        <v>2.220388004532428e-14</v>
+        <v>2.220417123455653e-14</v>
       </c>
       <c r="E193" t="n">
-        <v>0.9998949515132974</v>
+        <v>0.9999470117886859</v>
       </c>
       <c r="F193" t="n">
-        <v>0.9998949515132974</v>
+        <v>0.9999470117886859</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
@@ -6623,23 +6623,23 @@
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69551.fa</t>
+          <t>even_MAG-GUT69198.fa</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>4.55217634873803e-05</v>
+        <v>0.0001732262503858243</v>
       </c>
       <c r="C194" t="n">
-        <v>1.130695464332957e-05</v>
+        <v>4.073068681514499e-05</v>
       </c>
       <c r="D194" t="n">
-        <v>2.220414919060692e-14</v>
+        <v>2.220335351962735e-14</v>
       </c>
       <c r="E194" t="n">
-        <v>0.9999431712818471</v>
+        <v>0.9997860430627769</v>
       </c>
       <c r="F194" t="n">
-        <v>0.9999431712818471</v>
+        <v>0.9997860430627769</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
@@ -6655,23 +6655,23 @@
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7088.fa</t>
+          <t>even_MAG-GUT69367.fa</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>2.900596609866964e-05</v>
+        <v>8.841720823238746e-05</v>
       </c>
       <c r="C195" t="n">
-        <v>3.725238028588519e-05</v>
+        <v>2.61702053297001e-05</v>
       </c>
       <c r="D195" t="n">
-        <v>2.220411042555664e-14</v>
+        <v>2.220383549365726e-14</v>
       </c>
       <c r="E195" t="n">
-        <v>0.9999337416535932</v>
+        <v>0.9998854125864158</v>
       </c>
       <c r="F195" t="n">
-        <v>0.9999337416535932</v>
+        <v>0.9998854125864158</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
@@ -6687,23 +6687,23 @@
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7095.fa</t>
+          <t>even_MAG-GUT69378.fa</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>7.421608727718965e-05</v>
+        <v>0.0003746143807091857</v>
       </c>
       <c r="C196" t="n">
-        <v>4.46025402869108e-05</v>
+        <v>0.0002298448007681829</v>
       </c>
       <c r="D196" t="n">
-        <v>2.220381277890717e-14</v>
+        <v>2.220128692628631e-14</v>
       </c>
       <c r="E196" t="n">
-        <v>0.9998811813724137</v>
+        <v>0.9993955408185005</v>
       </c>
       <c r="F196" t="n">
-        <v>0.9998811813724137</v>
+        <v>0.9993955408185005</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
@@ -6719,23 +6719,23 @@
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7099.fa</t>
+          <t>even_MAG-GUT69417.fa</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>4.193966093651841e-05</v>
+        <v>0.0004425732122824183</v>
       </c>
       <c r="C197" t="n">
-        <v>1.486344480787594e-05</v>
+        <v>0.0008573567022951168</v>
       </c>
       <c r="D197" t="n">
-        <v>2.220414728407226e-14</v>
+        <v>2.219814379999131e-14</v>
       </c>
       <c r="E197" t="n">
-        <v>0.9999431968942334</v>
+        <v>0.9987000700854002</v>
       </c>
       <c r="F197" t="n">
-        <v>0.9999431968942334</v>
+        <v>0.9987000700854002</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
@@ -6751,23 +6751,23 @@
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7105.fa</t>
+          <t>even_MAG-GUT69483.fa</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>2.497799216357512e-05</v>
+        <v>0.0001006757737903528</v>
       </c>
       <c r="C198" t="n">
-        <v>3.833681406190419e-05</v>
+        <v>4.372712889962753e-06</v>
       </c>
       <c r="D198" t="n">
-        <v>2.220412443482237e-14</v>
+        <v>2.220388004532428e-14</v>
       </c>
       <c r="E198" t="n">
-        <v>0.9999366851937522</v>
+        <v>0.9998949515132974</v>
       </c>
       <c r="F198" t="n">
-        <v>0.9999366851937522</v>
+        <v>0.9998949515132974</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -6783,23 +6783,23 @@
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7112.fa</t>
+          <t>even_MAG-GUT69551.fa</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>4.193966093651841e-05</v>
+        <v>4.55217634873803e-05</v>
       </c>
       <c r="C199" t="n">
-        <v>1.486344480787594e-05</v>
+        <v>1.130695464332957e-05</v>
       </c>
       <c r="D199" t="n">
-        <v>2.220414728407226e-14</v>
+        <v>2.220414919060692e-14</v>
       </c>
       <c r="E199" t="n">
-        <v>0.9999431968942334</v>
+        <v>0.9999431712818471</v>
       </c>
       <c r="F199" t="n">
-        <v>0.9999431968942334</v>
+        <v>0.9999431712818471</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
@@ -6815,23 +6815,23 @@
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7120.fa</t>
+          <t>even_MAG-GUT7088.fa</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>9.594115212588941e-05</v>
+        <v>2.900596609866964e-05</v>
       </c>
       <c r="C200" t="n">
-        <v>2.61514556150348e-05</v>
+        <v>3.725238028588519e-05</v>
       </c>
       <c r="D200" t="n">
-        <v>2.220380738430835e-14</v>
+        <v>2.220411042555664e-14</v>
       </c>
       <c r="E200" t="n">
-        <v>0.9998779073922369</v>
+        <v>0.9999337416535932</v>
       </c>
       <c r="F200" t="n">
-        <v>0.9998779073922369</v>
+        <v>0.9999337416535932</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
@@ -6847,23 +6847,23 @@
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7132.fa</t>
+          <t>even_MAG-GUT7095.fa</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>6.106205589531165e-06</v>
+        <v>7.421608727718965e-05</v>
       </c>
       <c r="C201" t="n">
-        <v>2.103754286463626e-05</v>
+        <v>4.46025402869108e-05</v>
       </c>
       <c r="D201" t="n">
-        <v>2.220431274489135e-14</v>
+        <v>2.220381277890717e-14</v>
       </c>
       <c r="E201" t="n">
-        <v>0.9999728562515237</v>
+        <v>0.9998811813724137</v>
       </c>
       <c r="F201" t="n">
-        <v>0.9999728562515237</v>
+        <v>0.9998811813724137</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
@@ -6879,23 +6879,23 @@
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7155.fa</t>
+          <t>even_MAG-GUT7099.fa</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>0.0001703260622987154</v>
+        <v>4.193966093651841e-05</v>
       </c>
       <c r="C202" t="n">
-        <v>0.000228450654981523</v>
+        <v>1.486344480787594e-05</v>
       </c>
       <c r="D202" t="n">
-        <v>2.220233663895475e-14</v>
+        <v>2.220414728407226e-14</v>
       </c>
       <c r="E202" t="n">
-        <v>0.9996012232826976</v>
+        <v>0.9999431968942334</v>
       </c>
       <c r="F202" t="n">
-        <v>0.9996012232826976</v>
+        <v>0.9999431968942334</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
@@ -6911,23 +6911,23 @@
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7161.fa</t>
+          <t>even_MAG-GUT7105.fa</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>6.100387438401896e-05</v>
+        <v>2.497799216357512e-05</v>
       </c>
       <c r="C203" t="n">
-        <v>7.978712991495621e-05</v>
+        <v>3.833681406190419e-05</v>
       </c>
       <c r="D203" t="n">
-        <v>2.220370613799671e-14</v>
+        <v>2.220412443482237e-14</v>
       </c>
       <c r="E203" t="n">
-        <v>0.9998592089956789</v>
+        <v>0.9999366851937522</v>
       </c>
       <c r="F203" t="n">
-        <v>0.9998592089956789</v>
+        <v>0.9999366851937522</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -6943,23 +6943,23 @@
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7166.fa</t>
+          <t>even_MAG-GUT7112.fa</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>5.542146862454573e-05</v>
+        <v>4.193966093651841e-05</v>
       </c>
       <c r="C204" t="n">
-        <v>3.620813336615485e-05</v>
+        <v>1.486344480787594e-05</v>
       </c>
       <c r="D204" t="n">
-        <v>2.220396067462163e-14</v>
+        <v>2.220414728407226e-14</v>
       </c>
       <c r="E204" t="n">
-        <v>0.999908370397987</v>
+        <v>0.9999431968942334</v>
       </c>
       <c r="F204" t="n">
-        <v>0.999908370397987</v>
+        <v>0.9999431968942334</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
@@ -6975,23 +6975,23 @@
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7197.fa</t>
+          <t>even_MAG-GUT7120.fa</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>2.220625952307794e-05</v>
+        <v>9.594115212588941e-05</v>
       </c>
       <c r="C205" t="n">
-        <v>9.789794542566662e-05</v>
+        <v>2.61514556150348e-05</v>
       </c>
       <c r="D205" t="n">
-        <v>2.220380110124756e-14</v>
+        <v>2.220380738430835e-14</v>
       </c>
       <c r="E205" t="n">
-        <v>0.999879895795029</v>
+        <v>0.9998779073922369</v>
       </c>
       <c r="F205" t="n">
-        <v>0.999879895795029</v>
+        <v>0.9998779073922369</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
@@ -7007,23 +7007,23 @@
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7210.fa</t>
+          <t>even_MAG-GUT7132.fa</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>3.937173404874515e-05</v>
+        <v>6.106205589531165e-06</v>
       </c>
       <c r="C206" t="n">
-        <v>4.70135847350179e-05</v>
+        <v>2.103754286463626e-05</v>
       </c>
       <c r="D206" t="n">
-        <v>2.220399357387772e-14</v>
+        <v>2.220431274489135e-14</v>
       </c>
       <c r="E206" t="n">
-        <v>0.9999136146811941</v>
+        <v>0.9999728562515237</v>
       </c>
       <c r="F206" t="n">
-        <v>0.9999136146811941</v>
+        <v>0.9999728562515237</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
@@ -7039,23 +7039,23 @@
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7229.fa</t>
+          <t>even_MAG-GUT7155.fa</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>5.369041860429699e-05</v>
+        <v>0.0001703260622987154</v>
       </c>
       <c r="C207" t="n">
-        <v>9.04296605844682e-06</v>
+        <v>0.000228450654981523</v>
       </c>
       <c r="D207" t="n">
-        <v>2.220412845093206e-14</v>
+        <v>2.220233663895475e-14</v>
       </c>
       <c r="E207" t="n">
-        <v>0.9999372666153149</v>
+        <v>0.9996012232826976</v>
       </c>
       <c r="F207" t="n">
-        <v>0.9999372666153149</v>
+        <v>0.9996012232826976</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
@@ -7071,23 +7071,23 @@
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7247.fa</t>
+          <t>even_MAG-GUT7161.fa</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>1.867682191084713e-05</v>
+        <v>6.100387438401896e-05</v>
       </c>
       <c r="C208" t="n">
-        <v>3.655145822001119e-06</v>
+        <v>7.978712991495621e-05</v>
       </c>
       <c r="D208" t="n">
-        <v>2.220433917123986e-14</v>
+        <v>2.220370613799671e-14</v>
       </c>
       <c r="E208" t="n">
-        <v>0.999977668032245</v>
+        <v>0.9998592089956789</v>
       </c>
       <c r="F208" t="n">
-        <v>0.999977668032245</v>
+        <v>0.9998592089956789</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
@@ -7103,215 +7103,215 @@
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT86853.fa</t>
+          <t>even_MAG-GUT7166.fa</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>7.883236233803861e-06</v>
+        <v>5.542146862454573e-05</v>
       </c>
       <c r="C209" t="n">
-        <v>0.9999921163706169</v>
+        <v>3.620813336615485e-05</v>
       </c>
       <c r="D209" t="n">
-        <v>2.220441964138097e-14</v>
+        <v>2.220396067462163e-14</v>
       </c>
       <c r="E209" t="n">
-        <v>3.931270698532613e-10</v>
+        <v>0.999908370397987</v>
       </c>
       <c r="F209" t="n">
-        <v>0.9999921163706169</v>
+        <v>0.999908370397987</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>f__Megasphaeraceae</t>
+          <t>f__Veillonellaceae</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>f__Megasphaeraceae</t>
+          <t>f__Veillonellaceae</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT86935.fa</t>
+          <t>even_MAG-GUT7197.fa</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>1.691830578488513e-05</v>
+        <v>2.220625952307794e-05</v>
       </c>
       <c r="C210" t="n">
-        <v>0.9999830815447344</v>
+        <v>9.789794542566662e-05</v>
       </c>
       <c r="D210" t="n">
-        <v>2.220436886246201e-14</v>
+        <v>2.220380110124756e-14</v>
       </c>
       <c r="E210" t="n">
-        <v>1.494583937070293e-10</v>
+        <v>0.999879895795029</v>
       </c>
       <c r="F210" t="n">
-        <v>0.9999830815447344</v>
+        <v>0.999879895795029</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>f__Megasphaeraceae</t>
+          <t>f__Veillonellaceae</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>f__Megasphaeraceae</t>
+          <t>f__Veillonellaceae</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT87208.fa</t>
+          <t>even_MAG-GUT7210.fa</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>0.0002155636894328992</v>
+        <v>3.937173404874515e-05</v>
       </c>
       <c r="C211" t="n">
-        <v>0.9997844356603954</v>
+        <v>4.70135847350179e-05</v>
       </c>
       <c r="D211" t="n">
-        <v>2.220329285804936e-14</v>
+        <v>2.220399357387772e-14</v>
       </c>
       <c r="E211" t="n">
-        <v>6.501494275814583e-10</v>
+        <v>0.9999136146811941</v>
       </c>
       <c r="F211" t="n">
-        <v>0.9997844356603954</v>
+        <v>0.9999136146811941</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>f__Megasphaeraceae</t>
+          <t>f__Veillonellaceae</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>f__Megasphaeraceae</t>
+          <t>f__Veillonellaceae</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT87297.fa</t>
+          <t>even_MAG-GUT7229.fa</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>1.402848867945625e-06</v>
+        <v>5.369041860429699e-05</v>
       </c>
       <c r="C212" t="n">
-        <v>0.9999985968087153</v>
+        <v>9.04296605844682e-06</v>
       </c>
       <c r="D212" t="n">
-        <v>2.220445374481353e-14</v>
+        <v>2.220412845093206e-14</v>
       </c>
       <c r="E212" t="n">
-        <v>3.423947493796951e-10</v>
+        <v>0.9999372666153149</v>
       </c>
       <c r="F212" t="n">
-        <v>0.9999985968087153</v>
+        <v>0.9999372666153149</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>f__Megasphaeraceae</t>
+          <t>f__Veillonellaceae</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>f__Megasphaeraceae</t>
+          <t>f__Veillonellaceae</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT87358.fa</t>
+          <t>even_MAG-GUT7247.fa</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>9.033636020690663e-06</v>
+        <v>1.867682191084713e-05</v>
       </c>
       <c r="C213" t="n">
-        <v>0.999990966283356</v>
+        <v>3.655145822001119e-06</v>
       </c>
       <c r="D213" t="n">
-        <v>2.220441150272293e-14</v>
+        <v>2.220433917123986e-14</v>
       </c>
       <c r="E213" t="n">
-        <v>8.060123103691923e-11</v>
+        <v>0.999977668032245</v>
       </c>
       <c r="F213" t="n">
-        <v>0.999990966283356</v>
+        <v>0.999977668032245</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>f__Megasphaeraceae</t>
+          <t>f__Veillonellaceae</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>f__Megasphaeraceae</t>
+          <t>f__Veillonellaceae</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT87793.fa</t>
+          <t>even_MAG-GUT73491.fa</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>1.474029505653921e-06</v>
+        <v>0.9999980199167179</v>
       </c>
       <c r="C214" t="n">
-        <v>0.9999985258268589</v>
+        <v>6.498808283400768e-09</v>
       </c>
       <c r="D214" t="n">
-        <v>2.220445263639822e-14</v>
+        <v>2.220445090631463e-14</v>
       </c>
       <c r="E214" t="n">
-        <v>1.436133238285619e-10</v>
+        <v>1.973584451708625e-06</v>
       </c>
       <c r="F214" t="n">
-        <v>0.9999985258268589</v>
+        <v>0.9999980199167179</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>f__Megasphaeraceae</t>
+          <t>f__Dialisteraceae</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>f__Megasphaeraceae</t>
+          <t>f__Dialisteraceae</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT87821.fa</t>
+          <t>even_MAG-GUT7546.fa</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>6.458663429438227e-05</v>
+        <v>5.901137495702213e-05</v>
       </c>
       <c r="C215" t="n">
-        <v>9.252642425185133e-05</v>
+        <v>0.0001807771278267407</v>
       </c>
       <c r="D215" t="n">
-        <v>2.220385393834191e-14</v>
+        <v>1.001598469443231e-09</v>
       </c>
       <c r="E215" t="n">
-        <v>0.9998428869414316</v>
+        <v>0.9997602104956177</v>
       </c>
       <c r="F215" t="n">
-        <v>0.9998428869414316</v>
+        <v>0.9997602104956177</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
@@ -7327,55 +7327,55 @@
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT87873.fa</t>
+          <t>even_MAG-GUT86853.fa</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>3.826654414924583e-06</v>
+        <v>7.883236233803861e-06</v>
       </c>
       <c r="C216" t="n">
-        <v>8.359664445701756e-06</v>
+        <v>0.9999921163706169</v>
       </c>
       <c r="D216" t="n">
-        <v>2.220439724201199e-14</v>
+        <v>2.220441964138097e-14</v>
       </c>
       <c r="E216" t="n">
-        <v>0.9999878136811171</v>
+        <v>3.931270698532613e-10</v>
       </c>
       <c r="F216" t="n">
-        <v>0.9999878136811171</v>
+        <v>0.9999921163706169</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>f__Veillonellaceae</t>
+          <t>f__Megasphaeraceae</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>f__Veillonellaceae</t>
+          <t>f__Megasphaeraceae</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT88263.fa</t>
+          <t>even_MAG-GUT86935.fa</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>5.443983963475717e-05</v>
+        <v>1.691830578488513e-05</v>
       </c>
       <c r="C217" t="n">
-        <v>0.9999455600530738</v>
+        <v>0.9999830815447344</v>
       </c>
       <c r="D217" t="n">
-        <v>2.220416861344204e-14</v>
+        <v>2.220436886246201e-14</v>
       </c>
       <c r="E217" t="n">
-        <v>1.072691239919548e-10</v>
+        <v>1.494583937070293e-10</v>
       </c>
       <c r="F217" t="n">
-        <v>0.9999455600530738</v>
+        <v>0.9999830815447344</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
@@ -7391,23 +7391,23 @@
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT88291.fa</t>
+          <t>even_MAG-GUT87208.fa</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>0.0002022205280003229</v>
+        <v>0.0002155636894328992</v>
       </c>
       <c r="C218" t="n">
-        <v>0.9997977781279035</v>
+        <v>0.9997844356603954</v>
       </c>
       <c r="D218" t="n">
-        <v>2.220336213672918e-14</v>
+        <v>2.220329285804936e-14</v>
       </c>
       <c r="E218" t="n">
-        <v>1.344073969590503e-09</v>
+        <v>6.501494275814583e-10</v>
       </c>
       <c r="F218" t="n">
-        <v>0.9997977781279035</v>
+        <v>0.9997844356603954</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
@@ -7423,23 +7423,23 @@
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT88563.fa</t>
+          <t>even_MAG-GUT87297.fa</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>1.827362095065636e-05</v>
+        <v>1.402848867945625e-06</v>
       </c>
       <c r="C219" t="n">
-        <v>0.999981725475391</v>
+        <v>0.9999985968087153</v>
       </c>
       <c r="D219" t="n">
-        <v>2.220436487968943e-14</v>
+        <v>2.220445374481353e-14</v>
       </c>
       <c r="E219" t="n">
-        <v>9.036361569189393e-10</v>
+        <v>3.423947493796951e-10</v>
       </c>
       <c r="F219" t="n">
-        <v>0.999981725475391</v>
+        <v>0.9999985968087153</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
@@ -7455,23 +7455,23 @@
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT88626.fa</t>
+          <t>even_MAG-GUT87358.fa</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>3.260177356416891e-06</v>
+        <v>9.033636020690663e-06</v>
       </c>
       <c r="C220" t="n">
-        <v>0.9999967397366709</v>
+        <v>0.999990966283356</v>
       </c>
       <c r="D220" t="n">
-        <v>2.220444311010236e-14</v>
+        <v>2.220441150272293e-14</v>
       </c>
       <c r="E220" t="n">
-        <v>8.595053533105853e-11</v>
+        <v>8.060123103691923e-11</v>
       </c>
       <c r="F220" t="n">
-        <v>0.9999967397366709</v>
+        <v>0.999990966283356</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
@@ -7487,23 +7487,23 @@
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT88854.fa</t>
+          <t>even_MAG-GUT87793.fa</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>2.607511802695886e-06</v>
+        <v>1.474029505653921e-06</v>
       </c>
       <c r="C221" t="n">
-        <v>0.9999973924015992</v>
+        <v>0.9999985258268589</v>
       </c>
       <c r="D221" t="n">
-        <v>2.220444700677271e-14</v>
+        <v>2.220445263639822e-14</v>
       </c>
       <c r="E221" t="n">
-        <v>8.657575846786817e-11</v>
+        <v>1.436133238285619e-10</v>
       </c>
       <c r="F221" t="n">
-        <v>0.9999973924015992</v>
+        <v>0.9999985258268589</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
@@ -7519,183 +7519,183 @@
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT88891.fa</t>
+          <t>even_MAG-GUT87821.fa</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>4.834293837966182e-05</v>
+        <v>6.458663429438227e-05</v>
       </c>
       <c r="C222" t="n">
-        <v>0.9999516569431053</v>
+        <v>9.252642425185133e-05</v>
       </c>
       <c r="D222" t="n">
-        <v>2.220419686480831e-14</v>
+        <v>2.220385393834191e-14</v>
       </c>
       <c r="E222" t="n">
-        <v>1.184929939363497e-10</v>
+        <v>0.9998428869414316</v>
       </c>
       <c r="F222" t="n">
-        <v>0.9999516569431053</v>
+        <v>0.9998428869414316</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>f__Megasphaeraceae</t>
+          <t>f__Veillonellaceae</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>f__Megasphaeraceae</t>
+          <t>f__Veillonellaceae</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89009.fa</t>
+          <t>even_MAG-GUT87873.fa</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>1.675533490357131e-05</v>
+        <v>3.826654414924583e-06</v>
       </c>
       <c r="C223" t="n">
-        <v>0.9999832445135685</v>
+        <v>8.359664445701756e-06</v>
       </c>
       <c r="D223" t="n">
-        <v>2.220437038170632e-14</v>
+        <v>2.220439724201199e-14</v>
       </c>
       <c r="E223" t="n">
-        <v>1.515056650913315e-10</v>
+        <v>0.9999878136811171</v>
       </c>
       <c r="F223" t="n">
-        <v>0.9999832445135685</v>
+        <v>0.9999878136811171</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>f__Megasphaeraceae</t>
+          <t>f__Veillonellaceae</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>f__Megasphaeraceae</t>
+          <t>f__Veillonellaceae</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89205.fa</t>
+          <t>even_MAG-GUT88263.fa</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>0.0001111759831593876</v>
+        <v>5.443983963475717e-05</v>
       </c>
       <c r="C224" t="n">
-        <v>4.191987166601818e-05</v>
+        <v>0.9999455600530738</v>
       </c>
       <c r="D224" t="n">
-        <v>2.220362882807619e-14</v>
+        <v>2.220416861344204e-14</v>
       </c>
       <c r="E224" t="n">
-        <v>0.9998469041451524</v>
+        <v>1.072691239919548e-10</v>
       </c>
       <c r="F224" t="n">
-        <v>0.9998469041451524</v>
+        <v>0.9999455600530738</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>f__Veillonellaceae</t>
+          <t>f__Megasphaeraceae</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>f__Veillonellaceae</t>
+          <t>f__Megasphaeraceae</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89291.fa</t>
+          <t>even_MAG-GUT88291.fa</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>0.0001007865794282075</v>
+        <v>0.0002022205280003229</v>
       </c>
       <c r="C225" t="n">
-        <v>3.298230820549617e-05</v>
+        <v>0.9997977781279035</v>
       </c>
       <c r="D225" t="n">
-        <v>2.220373628020712e-14</v>
+        <v>2.220336213672918e-14</v>
       </c>
       <c r="E225" t="n">
-        <v>0.999866231112344</v>
+        <v>1.344073969590503e-09</v>
       </c>
       <c r="F225" t="n">
-        <v>0.999866231112344</v>
+        <v>0.9997977781279035</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>f__Veillonellaceae</t>
+          <t>f__Megasphaeraceae</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>f__Veillonellaceae</t>
+          <t>f__Megasphaeraceae</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89318.fa</t>
+          <t>even_MAG-GUT88563.fa</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>1.99911064810854e-05</v>
+        <v>1.827362095065636e-05</v>
       </c>
       <c r="C226" t="n">
-        <v>6.730637992261603e-05</v>
+        <v>0.999981725475391</v>
       </c>
       <c r="D226" t="n">
-        <v>2.220398043293811e-14</v>
+        <v>2.220436487968943e-14</v>
       </c>
       <c r="E226" t="n">
-        <v>0.999912702513574</v>
+        <v>9.036361569189393e-10</v>
       </c>
       <c r="F226" t="n">
-        <v>0.999912702513574</v>
+        <v>0.999981725475391</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>f__Veillonellaceae</t>
+          <t>f__Megasphaeraceae</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>f__Veillonellaceae</t>
+          <t>f__Megasphaeraceae</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89323.fa</t>
+          <t>even_MAG-GUT88626.fa</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>3.944523937593019e-05</v>
+        <v>3.260177356416891e-06</v>
       </c>
       <c r="C227" t="n">
-        <v>0.9999600267225813</v>
+        <v>0.9999967397366709</v>
       </c>
       <c r="D227" t="n">
-        <v>2.310114326132362e-13</v>
+        <v>2.220444311010236e-14</v>
       </c>
       <c r="E227" t="n">
-        <v>5.28037811709633e-07</v>
+        <v>8.595053533105853e-11</v>
       </c>
       <c r="F227" t="n">
-        <v>0.9999600267225813</v>
+        <v>0.9999967397366709</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -7711,119 +7711,119 @@
     <row r="228">
       <c r="A228" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89356.fa</t>
+          <t>even_MAG-GUT88854.fa</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>1.99911064810854e-05</v>
+        <v>2.607511802695886e-06</v>
       </c>
       <c r="C228" t="n">
-        <v>6.730637992261603e-05</v>
+        <v>0.9999973924015992</v>
       </c>
       <c r="D228" t="n">
-        <v>2.220398043293811e-14</v>
+        <v>2.220444700677271e-14</v>
       </c>
       <c r="E228" t="n">
-        <v>0.999912702513574</v>
+        <v>8.657575846786817e-11</v>
       </c>
       <c r="F228" t="n">
-        <v>0.999912702513574</v>
+        <v>0.9999973924015992</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>f__Veillonellaceae</t>
+          <t>f__Megasphaeraceae</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>f__Veillonellaceae</t>
+          <t>f__Megasphaeraceae</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89364.fa</t>
+          <t>even_MAG-GUT88891.fa</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>7.97551728754748e-06</v>
+        <v>4.834293837966182e-05</v>
       </c>
       <c r="C229" t="n">
-        <v>0.0001070454349523729</v>
+        <v>0.9999516569431053</v>
       </c>
       <c r="D229" t="n">
-        <v>9.469397507534324e-13</v>
+        <v>2.220419686480831e-14</v>
       </c>
       <c r="E229" t="n">
-        <v>0.9998849790468132</v>
+        <v>1.184929939363497e-10</v>
       </c>
       <c r="F229" t="n">
-        <v>0.9998849790468132</v>
+        <v>0.9999516569431053</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>f__Veillonellaceae</t>
+          <t>f__Megasphaeraceae</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>f__Veillonellaceae</t>
+          <t>f__Megasphaeraceae</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89717.fa</t>
+          <t>even_MAG-GUT89009.fa</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>2.42653463410221e-05</v>
+        <v>1.675533490357131e-05</v>
       </c>
       <c r="C230" t="n">
-        <v>4.975256533917096e-05</v>
+        <v>0.9999832445135685</v>
       </c>
       <c r="D230" t="n">
-        <v>2.220405374662129e-14</v>
+        <v>2.220437038170632e-14</v>
       </c>
       <c r="E230" t="n">
-        <v>0.9999259820882976</v>
+        <v>1.515056650913315e-10</v>
       </c>
       <c r="F230" t="n">
-        <v>0.9999259820882976</v>
+        <v>0.9999832445135685</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>f__Veillonellaceae</t>
+          <t>f__Megasphaeraceae</t>
         </is>
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>f__Veillonellaceae</t>
+          <t>f__Megasphaeraceae</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90076.fa</t>
+          <t>even_MAG-GUT89205.fa</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>1.097645866842025e-05</v>
+        <v>0.0001111759831593876</v>
       </c>
       <c r="C231" t="n">
-        <v>8.223556721510311e-05</v>
+        <v>4.191987166601818e-05</v>
       </c>
       <c r="D231" t="n">
-        <v>2.220396304676734e-14</v>
+        <v>2.220362882807619e-14</v>
       </c>
       <c r="E231" t="n">
-        <v>0.9999067879740943</v>
+        <v>0.9998469041451524</v>
       </c>
       <c r="F231" t="n">
-        <v>0.9999067879740943</v>
+        <v>0.9998469041451524</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -7839,23 +7839,23 @@
     <row r="232">
       <c r="A232" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90108.fa</t>
+          <t>even_MAG-GUT89291.fa</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>2.18281099508656e-05</v>
+        <v>0.0001007865794282075</v>
       </c>
       <c r="C232" t="n">
-        <v>2.716552746075929e-05</v>
+        <v>3.298230820549617e-05</v>
       </c>
       <c r="D232" t="n">
-        <v>2.220419166089849e-14</v>
+        <v>2.220373628020712e-14</v>
       </c>
       <c r="E232" t="n">
-        <v>0.9999510063625663</v>
+        <v>0.999866231112344</v>
       </c>
       <c r="F232" t="n">
-        <v>0.9999510063625663</v>
+        <v>0.999866231112344</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -7871,23 +7871,23 @@
     <row r="233">
       <c r="A233" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90168.fa</t>
+          <t>even_MAG-GUT89318.fa</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>1.620147072994062e-05</v>
+        <v>1.99911064810854e-05</v>
       </c>
       <c r="C233" t="n">
-        <v>7.428154946978225e-06</v>
+        <v>6.730637992261603e-05</v>
       </c>
       <c r="D233" t="n">
-        <v>2.220433101545461e-14</v>
+        <v>2.220398043293811e-14</v>
       </c>
       <c r="E233" t="n">
-        <v>0.9999763703743009</v>
+        <v>0.999912702513574</v>
       </c>
       <c r="F233" t="n">
-        <v>0.9999763703743009</v>
+        <v>0.999912702513574</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -7903,55 +7903,55 @@
     <row r="234">
       <c r="A234" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90190.fa</t>
+          <t>even_MAG-GUT89323.fa</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>0.0001111759831593876</v>
+        <v>3.944523937593019e-05</v>
       </c>
       <c r="C234" t="n">
-        <v>4.191987166601818e-05</v>
+        <v>0.9999600267225813</v>
       </c>
       <c r="D234" t="n">
-        <v>2.220362882807619e-14</v>
+        <v>2.310114326132362e-13</v>
       </c>
       <c r="E234" t="n">
-        <v>0.9998469041451524</v>
+        <v>5.28037811709633e-07</v>
       </c>
       <c r="F234" t="n">
-        <v>0.9998469041451524</v>
+        <v>0.9999600267225813</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>f__Veillonellaceae</t>
+          <t>f__Megasphaeraceae</t>
         </is>
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>f__Veillonellaceae</t>
+          <t>f__Megasphaeraceae</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90292.fa</t>
+          <t>even_MAG-GUT89356.fa</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>4.989062117710241e-06</v>
+        <v>1.99911064810854e-05</v>
       </c>
       <c r="C235" t="n">
-        <v>7.420896432621426e-05</v>
+        <v>6.730637992261603e-05</v>
       </c>
       <c r="D235" t="n">
-        <v>2.220402942355809e-14</v>
+        <v>2.220398043293811e-14</v>
       </c>
       <c r="E235" t="n">
-        <v>0.9999208019735338</v>
+        <v>0.999912702513574</v>
       </c>
       <c r="F235" t="n">
-        <v>0.9999208019735338</v>
+        <v>0.999912702513574</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
@@ -7967,23 +7967,23 @@
     <row r="236">
       <c r="A236" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90367.fa</t>
+          <t>even_MAG-GUT89364.fa</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>5.302259986058798e-06</v>
+        <v>7.97551728754748e-06</v>
       </c>
       <c r="C236" t="n">
-        <v>3.009458328080728e-06</v>
+        <v>0.0001070454349523729</v>
       </c>
       <c r="D236" t="n">
-        <v>9.046024652164319e-14</v>
+        <v>9.469397507534324e-13</v>
       </c>
       <c r="E236" t="n">
-        <v>0.9999916882815955</v>
+        <v>0.9998849790468132</v>
       </c>
       <c r="F236" t="n">
-        <v>0.9999916882815955</v>
+        <v>0.9998849790468132</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -7999,23 +7999,23 @@
     <row r="237">
       <c r="A237" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90600.fa</t>
+          <t>even_MAG-GUT89717.fa</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>3.269418467428015e-05</v>
+        <v>2.42653463410221e-05</v>
       </c>
       <c r="C237" t="n">
-        <v>1.152008640391107e-06</v>
+        <v>4.975256533917096e-05</v>
       </c>
       <c r="D237" t="n">
-        <v>2.220427371570543e-14</v>
+        <v>2.220405374662129e-14</v>
       </c>
       <c r="E237" t="n">
-        <v>0.9999661538066632</v>
+        <v>0.9999259820882976</v>
       </c>
       <c r="F237" t="n">
-        <v>0.9999661538066632</v>
+        <v>0.9999259820882976</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
@@ -8031,23 +8031,23 @@
     <row r="238">
       <c r="A238" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90634.fa</t>
+          <t>even_MAG-GUT90076.fa</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>6.097514182951816e-06</v>
+        <v>1.097645866842025e-05</v>
       </c>
       <c r="C238" t="n">
-        <v>1.910206098377331e-05</v>
+        <v>8.223556721510311e-05</v>
       </c>
       <c r="D238" t="n">
-        <v>4.678276362832094e-14</v>
+        <v>2.220396304676734e-14</v>
       </c>
       <c r="E238" t="n">
-        <v>0.9999748004247866</v>
+        <v>0.9999067879740943</v>
       </c>
       <c r="F238" t="n">
-        <v>0.9999748004247866</v>
+        <v>0.9999067879740943</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
@@ -8063,23 +8063,23 @@
     <row r="239">
       <c r="A239" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90947.fa</t>
+          <t>even_MAG-GUT90108.fa</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>1.99911064810854e-05</v>
+        <v>2.18281099508656e-05</v>
       </c>
       <c r="C239" t="n">
-        <v>6.730637992261603e-05</v>
+        <v>2.716552746075929e-05</v>
       </c>
       <c r="D239" t="n">
-        <v>2.220398043293811e-14</v>
+        <v>2.220419166089849e-14</v>
       </c>
       <c r="E239" t="n">
-        <v>0.999912702513574</v>
+        <v>0.9999510063625663</v>
       </c>
       <c r="F239" t="n">
-        <v>0.999912702513574</v>
+        <v>0.9999510063625663</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -8095,23 +8095,23 @@
     <row r="240">
       <c r="A240" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90977.fa</t>
+          <t>even_MAG-GUT90168.fa</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>1.99911064810854e-05</v>
+        <v>1.620147072994062e-05</v>
       </c>
       <c r="C240" t="n">
-        <v>6.730637992261603e-05</v>
+        <v>7.428154946978225e-06</v>
       </c>
       <c r="D240" t="n">
-        <v>2.220398043293811e-14</v>
+        <v>2.220433101545461e-14</v>
       </c>
       <c r="E240" t="n">
-        <v>0.999912702513574</v>
+        <v>0.9999763703743009</v>
       </c>
       <c r="F240" t="n">
-        <v>0.999912702513574</v>
+        <v>0.9999763703743009</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
@@ -8127,23 +8127,23 @@
     <row r="241">
       <c r="A241" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91033.fa</t>
+          <t>even_MAG-GUT90190.fa</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>5.414850196352609e-06</v>
+        <v>0.0001111759831593876</v>
       </c>
       <c r="C241" t="n">
-        <v>1.694785281873301e-05</v>
+        <v>4.191987166601818e-05</v>
       </c>
       <c r="D241" t="n">
-        <v>2.220434148474706e-14</v>
+        <v>2.220362882807619e-14</v>
       </c>
       <c r="E241" t="n">
-        <v>0.9999776372969627</v>
+        <v>0.9998469041451524</v>
       </c>
       <c r="F241" t="n">
-        <v>0.9999776372969627</v>
+        <v>0.9998469041451524</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
@@ -8159,23 +8159,23 @@
     <row r="242">
       <c r="A242" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91117.fa</t>
+          <t>even_MAG-GUT90292.fa</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>1.99911064810854e-05</v>
+        <v>4.989062117710241e-06</v>
       </c>
       <c r="C242" t="n">
-        <v>6.730637992261603e-05</v>
+        <v>7.420896432621426e-05</v>
       </c>
       <c r="D242" t="n">
-        <v>2.220398043293811e-14</v>
+        <v>2.220402942355809e-14</v>
       </c>
       <c r="E242" t="n">
-        <v>0.999912702513574</v>
+        <v>0.9999208019735338</v>
       </c>
       <c r="F242" t="n">
-        <v>0.999912702513574</v>
+        <v>0.9999208019735338</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
@@ -8191,23 +8191,23 @@
     <row r="243">
       <c r="A243" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91136.fa</t>
+          <t>even_MAG-GUT90367.fa</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>5.671909523641773e-05</v>
+        <v>5.302259986058798e-06</v>
       </c>
       <c r="C243" t="n">
-        <v>8.03275454360354e-05</v>
+        <v>3.009458328080728e-06</v>
       </c>
       <c r="D243" t="n">
-        <v>2.220371505122219e-14</v>
+        <v>9.046024652164319e-14</v>
       </c>
       <c r="E243" t="n">
-        <v>0.9998629533593054</v>
+        <v>0.9999916882815955</v>
       </c>
       <c r="F243" t="n">
-        <v>0.9998629533593054</v>
+        <v>0.9999916882815955</v>
       </c>
       <c r="G243" t="inlineStr">
         <is>
@@ -8223,23 +8223,23 @@
     <row r="244">
       <c r="A244" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91276.fa</t>
+          <t>even_MAG-GUT90600.fa</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>2.067423040726339e-05</v>
+        <v>3.269418467428015e-05</v>
       </c>
       <c r="C244" t="n">
-        <v>5.347245765023349e-05</v>
+        <v>1.152008640391107e-06</v>
       </c>
       <c r="D244" t="n">
-        <v>2.220405733500801e-14</v>
+        <v>2.220427371570543e-14</v>
       </c>
       <c r="E244" t="n">
-        <v>0.9999258533119203</v>
+        <v>0.9999661538066632</v>
       </c>
       <c r="F244" t="n">
-        <v>0.9999258533119203</v>
+        <v>0.9999661538066632</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
@@ -8255,23 +8255,23 @@
     <row r="245">
       <c r="A245" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91278.fa</t>
+          <t>even_MAG-GUT90634.fa</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>6.491970418197849e-06</v>
+        <v>6.097514182951816e-06</v>
       </c>
       <c r="C245" t="n">
-        <v>3.818044022429937e-06</v>
+        <v>1.910206098377331e-05</v>
       </c>
       <c r="D245" t="n">
-        <v>2.22044037695789e-14</v>
+        <v>4.678276362832094e-14</v>
       </c>
       <c r="E245" t="n">
-        <v>0.9999896899855371</v>
+        <v>0.9999748004247866</v>
       </c>
       <c r="F245" t="n">
-        <v>0.9999896899855371</v>
+        <v>0.9999748004247866</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
@@ -8287,23 +8287,23 @@
     <row r="246">
       <c r="A246" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91345.fa</t>
+          <t>even_MAG-GUT90947.fa</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>6.801093449169658e-06</v>
+        <v>1.99911064810854e-05</v>
       </c>
       <c r="C246" t="n">
-        <v>0.0001167549661231073</v>
+        <v>6.730637992261603e-05</v>
       </c>
       <c r="D246" t="n">
-        <v>2.220380234162283e-14</v>
+        <v>2.220398043293811e-14</v>
       </c>
       <c r="E246" t="n">
-        <v>0.9998764439404055</v>
+        <v>0.999912702513574</v>
       </c>
       <c r="F246" t="n">
-        <v>0.9998764439404055</v>
+        <v>0.999912702513574</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
@@ -8319,23 +8319,23 @@
     <row r="247">
       <c r="A247" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91364.fa</t>
+          <t>even_MAG-GUT90977.fa</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>0.0001066783254915546</v>
+        <v>1.99911064810854e-05</v>
       </c>
       <c r="C247" t="n">
-        <v>8.600542869343287e-06</v>
+        <v>6.730637992261603e-05</v>
       </c>
       <c r="D247" t="n">
-        <v>2.220383142872222e-14</v>
+        <v>2.220398043293811e-14</v>
       </c>
       <c r="E247" t="n">
-        <v>0.999884721131617</v>
+        <v>0.999912702513574</v>
       </c>
       <c r="F247" t="n">
-        <v>0.999884721131617</v>
+        <v>0.999912702513574</v>
       </c>
       <c r="G247" t="inlineStr">
         <is>
@@ -8351,23 +8351,23 @@
     <row r="248">
       <c r="A248" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91383.fa</t>
+          <t>even_MAG-GUT91033.fa</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>0.0002748628811607837</v>
+        <v>5.414850196352609e-06</v>
       </c>
       <c r="C248" t="n">
-        <v>8.341396342770068e-06</v>
+        <v>1.694785281873301e-05</v>
       </c>
       <c r="D248" t="n">
-        <v>2.220289918062667e-14</v>
+        <v>2.220434148474706e-14</v>
       </c>
       <c r="E248" t="n">
-        <v>0.9997167957224743</v>
+        <v>0.9999776372969627</v>
       </c>
       <c r="F248" t="n">
-        <v>0.9997167957224743</v>
+        <v>0.9999776372969627</v>
       </c>
       <c r="G248" t="inlineStr">
         <is>
@@ -8383,23 +8383,23 @@
     <row r="249">
       <c r="A249" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91475.fa</t>
+          <t>even_MAG-GUT91117.fa</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>5.286753028783297e-05</v>
+        <v>1.99911064810854e-05</v>
       </c>
       <c r="C249" t="n">
-        <v>1.941853512933383e-05</v>
+        <v>6.730637992261603e-05</v>
       </c>
       <c r="D249" t="n">
-        <v>2.220406290352796e-14</v>
+        <v>2.220398043293811e-14</v>
       </c>
       <c r="E249" t="n">
-        <v>0.9999277139345607</v>
+        <v>0.999912702513574</v>
       </c>
       <c r="F249" t="n">
-        <v>0.9999277139345607</v>
+        <v>0.999912702513574</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
@@ -8415,23 +8415,23 @@
     <row r="250">
       <c r="A250" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91600.fa</t>
+          <t>even_MAG-GUT91136.fa</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>5.480212314137488e-05</v>
+        <v>5.671909523641773e-05</v>
       </c>
       <c r="C250" t="n">
-        <v>7.888067634815527e-05</v>
+        <v>8.03275454360354e-05</v>
       </c>
       <c r="D250" t="n">
-        <v>2.220374471739794e-14</v>
+        <v>2.220371505122219e-14</v>
       </c>
       <c r="E250" t="n">
-        <v>0.9998663172004884</v>
+        <v>0.9998629533593054</v>
       </c>
       <c r="F250" t="n">
-        <v>0.9998663172004884</v>
+        <v>0.9998629533593054</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
@@ -8447,23 +8447,23 @@
     <row r="251">
       <c r="A251" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91603.fa</t>
+          <t>even_MAG-GUT91276.fa</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>4.597519249561489e-05</v>
+        <v>2.067423040726339e-05</v>
       </c>
       <c r="C251" t="n">
-        <v>3.205765953994032e-05</v>
+        <v>5.347245765023349e-05</v>
       </c>
       <c r="D251" t="n">
-        <v>2.220403362347506e-14</v>
+        <v>2.220405733500801e-14</v>
       </c>
       <c r="E251" t="n">
-        <v>0.9999219671479422</v>
+        <v>0.9999258533119203</v>
       </c>
       <c r="F251" t="n">
-        <v>0.9999219671479422</v>
+        <v>0.9999258533119203</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
@@ -8479,23 +8479,23 @@
     <row r="252">
       <c r="A252" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91866.fa</t>
+          <t>even_MAG-GUT91278.fa</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>4.248045368904031e-05</v>
+        <v>6.491970418197849e-06</v>
       </c>
       <c r="C252" t="n">
-        <v>8.17769549270891e-06</v>
+        <v>3.818044022429937e-06</v>
       </c>
       <c r="D252" t="n">
-        <v>2.22041960512375e-14</v>
+        <v>2.22044037695789e-14</v>
       </c>
       <c r="E252" t="n">
-        <v>0.9999493418507962</v>
+        <v>0.9999896899855371</v>
       </c>
       <c r="F252" t="n">
-        <v>0.9999493418507962</v>
+        <v>0.9999896899855371</v>
       </c>
       <c r="G252" t="inlineStr">
         <is>
@@ -8511,23 +8511,23 @@
     <row r="253">
       <c r="A253" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91873.fa</t>
+          <t>even_MAG-GUT91345.fa</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>6.232479368506593e-06</v>
+        <v>6.801093449169658e-06</v>
       </c>
       <c r="C253" t="n">
-        <v>5.108378607282722e-06</v>
+        <v>0.0001167549661231073</v>
       </c>
       <c r="D253" t="n">
-        <v>5.480307659603645e-14</v>
+        <v>2.220380234162283e-14</v>
       </c>
       <c r="E253" t="n">
-        <v>0.9999886591419693</v>
+        <v>0.9998764439404055</v>
       </c>
       <c r="F253" t="n">
-        <v>0.9999886591419693</v>
+        <v>0.9998764439404055</v>
       </c>
       <c r="G253" t="inlineStr">
         <is>
@@ -8543,23 +8543,23 @@
     <row r="254">
       <c r="A254" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91938.fa</t>
+          <t>even_MAG-GUT91364.fa</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>6.136770267678558e-05</v>
+        <v>0.0001066783254915546</v>
       </c>
       <c r="C254" t="n">
-        <v>2.945248948637339e-05</v>
+        <v>8.600542869343287e-06</v>
       </c>
       <c r="D254" t="n">
-        <v>2.220396401992356e-14</v>
+        <v>2.220383142872222e-14</v>
       </c>
       <c r="E254" t="n">
-        <v>0.9999091798078147</v>
+        <v>0.999884721131617</v>
       </c>
       <c r="F254" t="n">
-        <v>0.9999091798078147</v>
+        <v>0.999884721131617</v>
       </c>
       <c r="G254" t="inlineStr">
         <is>
@@ -8575,23 +8575,23 @@
     <row r="255">
       <c r="A255" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91964.fa</t>
+          <t>even_MAG-GUT91383.fa</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>0.0001021777762639532</v>
+        <v>0.0002748628811607837</v>
       </c>
       <c r="C255" t="n">
-        <v>0.0004918095283492973</v>
+        <v>8.341396342770068e-06</v>
       </c>
       <c r="D255" t="n">
-        <v>2.220159142344403e-14</v>
+        <v>2.220289918062667e-14</v>
       </c>
       <c r="E255" t="n">
-        <v>0.9994060126953644</v>
+        <v>0.9997167957224743</v>
       </c>
       <c r="F255" t="n">
-        <v>0.9994060126953644</v>
+        <v>0.9997167957224743</v>
       </c>
       <c r="G255" t="inlineStr">
         <is>
@@ -8607,23 +8607,23 @@
     <row r="256">
       <c r="A256" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91970.fa</t>
+          <t>even_MAG-GUT91475.fa</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>4.557189042171551e-06</v>
+        <v>5.286753028783297e-05</v>
       </c>
       <c r="C256" t="n">
-        <v>4.50145116244639e-06</v>
+        <v>1.941853512933383e-05</v>
       </c>
       <c r="D256" t="n">
-        <v>2.220441143971167e-14</v>
+        <v>2.220406290352796e-14</v>
       </c>
       <c r="E256" t="n">
-        <v>0.9999909413597733</v>
+        <v>0.9999277139345607</v>
       </c>
       <c r="F256" t="n">
-        <v>0.9999909413597733</v>
+        <v>0.9999277139345607</v>
       </c>
       <c r="G256" t="inlineStr">
         <is>
@@ -8639,23 +8639,23 @@
     <row r="257">
       <c r="A257" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91971.fa</t>
+          <t>even_MAG-GUT91600.fa</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>8.101543051432026e-06</v>
+        <v>5.480212314137488e-05</v>
       </c>
       <c r="C257" t="n">
-        <v>8.323167665983182e-05</v>
+        <v>7.888067634815527e-05</v>
       </c>
       <c r="D257" t="n">
-        <v>2.220398047640218e-14</v>
+        <v>2.220374471739794e-14</v>
       </c>
       <c r="E257" t="n">
-        <v>0.9999086667802665</v>
+        <v>0.9998663172004884</v>
       </c>
       <c r="F257" t="n">
-        <v>0.9999086667802665</v>
+        <v>0.9998663172004884</v>
       </c>
       <c r="G257" t="inlineStr">
         <is>
@@ -8671,23 +8671,23 @@
     <row r="258">
       <c r="A258" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91990.fa</t>
+          <t>even_MAG-GUT91603.fa</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>4.108698299388847e-05</v>
+        <v>4.597519249561489e-05</v>
       </c>
       <c r="C258" t="n">
-        <v>3.655434117561414e-05</v>
+        <v>3.205765953994032e-05</v>
       </c>
       <c r="D258" t="n">
-        <v>2.220403869376158e-14</v>
+        <v>2.220403362347506e-14</v>
       </c>
       <c r="E258" t="n">
-        <v>0.9999223586758083</v>
+        <v>0.9999219671479422</v>
       </c>
       <c r="F258" t="n">
-        <v>0.9999223586758083</v>
+        <v>0.9999219671479422</v>
       </c>
       <c r="G258" t="inlineStr">
         <is>
@@ -8703,23 +8703,23 @@
     <row r="259">
       <c r="A259" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91993.fa</t>
+          <t>even_MAG-GUT91866.fa</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>9.485999310940012e-06</v>
+        <v>4.248045368904031e-05</v>
       </c>
       <c r="C259" t="n">
-        <v>1.182619497798187e-05</v>
+        <v>8.17769549270891e-06</v>
       </c>
       <c r="D259" t="n">
-        <v>2.220434785621569e-14</v>
+        <v>2.22041960512375e-14</v>
       </c>
       <c r="E259" t="n">
-        <v>0.9999786878056888</v>
+        <v>0.9999493418507962</v>
       </c>
       <c r="F259" t="n">
-        <v>0.9999786878056888</v>
+        <v>0.9999493418507962</v>
       </c>
       <c r="G259" t="inlineStr">
         <is>
@@ -8735,23 +8735,23 @@
     <row r="260">
       <c r="A260" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT92001.fa</t>
+          <t>even_MAG-GUT91873.fa</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>0.0002128545680173843</v>
+        <v>6.232479368506593e-06</v>
       </c>
       <c r="C260" t="n">
-        <v>4.181705628750079e-05</v>
+        <v>5.108378607282722e-06</v>
       </c>
       <c r="D260" t="n">
-        <v>2.220307936365639e-14</v>
+        <v>5.480307659603645e-14</v>
       </c>
       <c r="E260" t="n">
-        <v>0.999745328375673</v>
+        <v>0.9999886591419693</v>
       </c>
       <c r="F260" t="n">
-        <v>0.999745328375673</v>
+        <v>0.9999886591419693</v>
       </c>
       <c r="G260" t="inlineStr">
         <is>
@@ -8767,23 +8767,23 @@
     <row r="261">
       <c r="A261" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT92091.fa</t>
+          <t>even_MAG-GUT91938.fa</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>4.487495824835849e-05</v>
+        <v>6.136770267678558e-05</v>
       </c>
       <c r="C261" t="n">
-        <v>0.0001613309192706121</v>
+        <v>2.945248948637339e-05</v>
       </c>
       <c r="D261" t="n">
-        <v>2.220334168715039e-14</v>
+        <v>2.220396401992356e-14</v>
       </c>
       <c r="E261" t="n">
-        <v>0.9997937941224588</v>
+        <v>0.9999091798078147</v>
       </c>
       <c r="F261" t="n">
-        <v>0.9997937941224588</v>
+        <v>0.9999091798078147</v>
       </c>
       <c r="G261" t="inlineStr">
         <is>
@@ -8799,30 +8799,382 @@
     <row r="262">
       <c r="A262" s="1" t="inlineStr">
         <is>
+          <t>even_MAG-GUT91964.fa</t>
+        </is>
+      </c>
+      <c r="B262" t="n">
+        <v>0.0001021777762639532</v>
+      </c>
+      <c r="C262" t="n">
+        <v>0.0004918095283492973</v>
+      </c>
+      <c r="D262" t="n">
+        <v>2.220159142344403e-14</v>
+      </c>
+      <c r="E262" t="n">
+        <v>0.9994060126953644</v>
+      </c>
+      <c r="F262" t="n">
+        <v>0.9994060126953644</v>
+      </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91970.fa</t>
+        </is>
+      </c>
+      <c r="B263" t="n">
+        <v>4.557189042171551e-06</v>
+      </c>
+      <c r="C263" t="n">
+        <v>4.50145116244639e-06</v>
+      </c>
+      <c r="D263" t="n">
+        <v>2.220441143971167e-14</v>
+      </c>
+      <c r="E263" t="n">
+        <v>0.9999909413597733</v>
+      </c>
+      <c r="F263" t="n">
+        <v>0.9999909413597733</v>
+      </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91971.fa</t>
+        </is>
+      </c>
+      <c r="B264" t="n">
+        <v>8.101543051432026e-06</v>
+      </c>
+      <c r="C264" t="n">
+        <v>8.323167665983182e-05</v>
+      </c>
+      <c r="D264" t="n">
+        <v>2.220398047640218e-14</v>
+      </c>
+      <c r="E264" t="n">
+        <v>0.9999086667802665</v>
+      </c>
+      <c r="F264" t="n">
+        <v>0.9999086667802665</v>
+      </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91990.fa</t>
+        </is>
+      </c>
+      <c r="B265" t="n">
+        <v>4.108698299388847e-05</v>
+      </c>
+      <c r="C265" t="n">
+        <v>3.655434117561414e-05</v>
+      </c>
+      <c r="D265" t="n">
+        <v>2.220403869376158e-14</v>
+      </c>
+      <c r="E265" t="n">
+        <v>0.9999223586758083</v>
+      </c>
+      <c r="F265" t="n">
+        <v>0.9999223586758083</v>
+      </c>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91993.fa</t>
+        </is>
+      </c>
+      <c r="B266" t="n">
+        <v>9.485999310940012e-06</v>
+      </c>
+      <c r="C266" t="n">
+        <v>1.182619497798187e-05</v>
+      </c>
+      <c r="D266" t="n">
+        <v>2.220434785621569e-14</v>
+      </c>
+      <c r="E266" t="n">
+        <v>0.9999786878056888</v>
+      </c>
+      <c r="F266" t="n">
+        <v>0.9999786878056888</v>
+      </c>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT92001.fa</t>
+        </is>
+      </c>
+      <c r="B267" t="n">
+        <v>0.0002128545680173843</v>
+      </c>
+      <c r="C267" t="n">
+        <v>4.181705628750079e-05</v>
+      </c>
+      <c r="D267" t="n">
+        <v>2.220307936365639e-14</v>
+      </c>
+      <c r="E267" t="n">
+        <v>0.999745328375673</v>
+      </c>
+      <c r="F267" t="n">
+        <v>0.999745328375673</v>
+      </c>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT92091.fa</t>
+        </is>
+      </c>
+      <c r="B268" t="n">
+        <v>4.487495824835849e-05</v>
+      </c>
+      <c r="C268" t="n">
+        <v>0.0001613309192706121</v>
+      </c>
+      <c r="D268" t="n">
+        <v>2.220334168715039e-14</v>
+      </c>
+      <c r="E268" t="n">
+        <v>0.9997937941224588</v>
+      </c>
+      <c r="F268" t="n">
+        <v>0.9997937941224588</v>
+      </c>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT9303.fa</t>
+        </is>
+      </c>
+      <c r="B269" t="n">
+        <v>6.848662144008525e-06</v>
+      </c>
+      <c r="C269" t="n">
+        <v>0.0005901844345130505</v>
+      </c>
+      <c r="D269" t="n">
+        <v>3.003369980468381e-07</v>
+      </c>
+      <c r="E269" t="n">
+        <v>0.9994026665663449</v>
+      </c>
+      <c r="F269" t="n">
+        <v>0.9994026665663449</v>
+      </c>
+      <c r="G269" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT9316.fa</t>
+        </is>
+      </c>
+      <c r="B270" t="n">
+        <v>1.714931645723828e-05</v>
+      </c>
+      <c r="C270" t="n">
+        <v>0.006566614175680461</v>
+      </c>
+      <c r="D270" t="n">
+        <v>6.253896407314879e-10</v>
+      </c>
+      <c r="E270" t="n">
+        <v>0.9934162358824725</v>
+      </c>
+      <c r="F270" t="n">
+        <v>0.9934162358824725</v>
+      </c>
+      <c r="G270" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+      <c r="H270" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT9364.fa</t>
+        </is>
+      </c>
+      <c r="B271" t="n">
+        <v>4.282137070997682e-06</v>
+      </c>
+      <c r="C271" t="n">
+        <v>0.002989884511950653</v>
+      </c>
+      <c r="D271" t="n">
+        <v>2.200554011618611e-07</v>
+      </c>
+      <c r="E271" t="n">
+        <v>0.9970056132955771</v>
+      </c>
+      <c r="F271" t="n">
+        <v>0.9970056132955771</v>
+      </c>
+      <c r="G271" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT9376.fa</t>
+        </is>
+      </c>
+      <c r="B272" t="n">
+        <v>4.324571642005338e-06</v>
+      </c>
+      <c r="C272" t="n">
+        <v>0.001905399617826644</v>
+      </c>
+      <c r="D272" t="n">
+        <v>3.173770602462199e-07</v>
+      </c>
+      <c r="E272" t="n">
+        <v>0.998089958433471</v>
+      </c>
+      <c r="F272" t="n">
+        <v>0.998089958433471</v>
+      </c>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+      <c r="H272" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="inlineStr">
+        <is>
           <t>even_MAG-GUT956.fa</t>
         </is>
       </c>
-      <c r="B262" t="n">
+      <c r="B273" t="n">
         <v>0.0001345913778813376</v>
       </c>
-      <c r="C262" t="n">
+      <c r="C273" t="n">
         <v>3.883829342740863e-05</v>
       </c>
-      <c r="D262" t="n">
+      <c r="D273" t="n">
         <v>2.220350903477483e-14</v>
       </c>
-      <c r="E262" t="n">
+      <c r="E273" t="n">
         <v>0.9998265703286692</v>
       </c>
-      <c r="F262" t="n">
+      <c r="F273" t="n">
         <v>0.9998265703286692</v>
       </c>
-      <c r="G262" t="inlineStr">
-        <is>
-          <t>f__Veillonellaceae</t>
-        </is>
-      </c>
-      <c r="H262" t="inlineStr">
+      <c r="G273" t="inlineStr">
+        <is>
+          <t>f__Veillonellaceae</t>
+        </is>
+      </c>
+      <c r="H273" t="inlineStr">
         <is>
           <t>f__Veillonellaceae</t>
         </is>
